--- a/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
+++ b/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
@@ -8,15 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="2" r:id="rId1"/>
-    <sheet name="PRINCIPAL" sheetId="1" r:id="rId2"/>
-    <sheet name="Temporal" sheetId="3" r:id="rId3"/>
+    <sheet name="PRODUCTOS" sheetId="4" r:id="rId2"/>
+    <sheet name="PRINCIPAL" sheetId="1" r:id="rId3"/>
+    <sheet name="Temporal" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="DATOS_PERSONAS">TABLA_PERSONAS[[#All],[NOMBRE]:[TELÉFONO]]</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
   <si>
     <t xml:space="preserve">La llave primaria es Número de Factura de venta: NUM_FAC </t>
   </si>
@@ -403,14 +407,39 @@
   </si>
   <si>
     <t>15 6 999 999</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>CATEGORÍA</t>
+  </si>
+  <si>
+    <t>Cuidado Personal.</t>
+  </si>
+  <si>
+    <t>Cuidado e higiene de Bebé.</t>
+  </si>
+  <si>
+    <t>Limpieza del hogar.</t>
+  </si>
+  <si>
+    <t>Bebidas.</t>
+  </si>
+  <si>
+    <t>Almacén.</t>
+  </si>
+  <si>
+    <t>Alimento para mascotas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -452,35 +481,23 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -495,7 +512,19 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -513,21 +542,21 @@
     <sortCondition ref="B3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="9">
+    <tableColumn id="1" name="ID" dataDxfId="11">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="NOMBRE"/>
     <tableColumn id="3" name="SEXO"/>
-    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="7">
+    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="10">
       <calculatedColumnFormula>I2&amp;" "&amp;RANDBETWEEN(100,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="DNI" dataDxfId="6">
+    <tableColumn id="5" name="DNI" dataDxfId="9">
       <calculatedColumnFormula>RANDBETWEEN(10000000,40000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD" dataDxfId="5">
+    <tableColumn id="6" name="CIUDAD" dataDxfId="8">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELÉFONO" dataDxfId="4">
+    <tableColumn id="7" name="TELÉFONO" dataDxfId="7">
       <calculatedColumnFormula>RANDBETWEEN(2214000000,3886999999)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -538,26 +567,26 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D1:O15" totalsRowShown="0">
   <tableColumns count="12">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="10">
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="6">
       <calculatedColumnFormula>RANDBETWEEN(ROW(),30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="11">
-      <calculatedColumnFormula>RANDBETWEEN(36892,44726)</calculatedColumnFormula>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="0">
+      <calculatedColumnFormula>RANDBETWEEN(35000,45000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="8">
-      <calculatedColumnFormula>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="5">
+      <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="3">
-      <calculatedColumnFormula>VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="2">
-      <calculatedColumnFormula>VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</calculatedColumnFormula>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="1">
-      <calculatedColumnFormula>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</calculatedColumnFormula>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="CATEGORIA"/>
     <tableColumn id="9" name="COD_PROD"/>
@@ -858,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,19 +948,19 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D21" ca="1" si="1">I2&amp;" "&amp;RANDBETWEEN(100,1000)</f>
-        <v>Avenida Alte G Brown 717</v>
-      </c>
-      <c r="E2" s="4">
+        <v>Avenida Alte G Brown 470</v>
+      </c>
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E21" ca="1" si="2">RANDBETWEEN(10000000,40000000)</f>
-        <v>16896095</v>
+        <v>35761649</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F21" si="3">J2</f>
         <v>Buenos Aires</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:G21" ca="1" si="4">RANDBETWEEN(2214000000,3886999999)</f>
-        <v>3443086678</v>
+        <v>3541229580</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -962,19 +991,19 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Altrado Storni 966</v>
-      </c>
-      <c r="E3" s="4">
+        <v>Calle Altrado Storni 510</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25139607</v>
+        <v>11313081</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="3"/>
         <v>Córdoba</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2383271692</v>
+        <v>2669810609</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
@@ -1005,19 +1034,19 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Condarco 866</v>
-      </c>
-      <c r="E4" s="4">
+        <v>Calle Alvarez Condarco 726</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24572523</v>
+        <v>12480341</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
         <v>Rosario</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3651626844</v>
+        <v>3871918816</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
@@ -1048,19 +1077,19 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Prado 767</v>
-      </c>
-      <c r="E5" s="4">
+        <v>Calle Alvarez Prado 783</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14173055</v>
+        <v>34675913</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
         <v>Mar del Plata</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3276118466</v>
+        <v>3489454374</v>
       </c>
       <c r="I5" t="s">
         <v>58</v>
@@ -1091,19 +1120,19 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Amancay 897</v>
-      </c>
-      <c r="E6" s="4">
+        <v>Calle Amancay 464</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35009364</v>
+        <v>17160821</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
         <v>San Miguel de Tucumán</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2958452814</v>
+        <v>3679962782</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
@@ -1134,19 +1163,19 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Ambrosetti 705</v>
-      </c>
-      <c r="E7" s="4">
+        <v>Calle Ambrosetti 743</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31885736</v>
+        <v>27658353</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
         <v>Salta</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3435620491</v>
+        <v>2550868723</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
@@ -1177,19 +1206,19 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Anchorena 452</v>
-      </c>
-      <c r="E8" s="4">
+        <v>Calle Anchorena 584</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16408092</v>
+        <v>10787939</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
         <v>Santa Fe</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2462988757</v>
+        <v>3530429977</v>
       </c>
       <c r="I8" t="s">
         <v>61</v>
@@ -1220,19 +1249,19 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andrea Zenarruza 644</v>
-      </c>
-      <c r="E9" s="4">
+        <v>Calle Andrea Zenarruza 560</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30519856</v>
+        <v>33087661</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
         <v>Corrientes</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3244157766</v>
+        <v>3697199882</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -1263,19 +1292,19 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andres Bello 863</v>
-      </c>
-      <c r="E10" s="4">
+        <v>Calle Andres Bello 137</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12254615</v>
+        <v>36517288</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
         <v>Bahía Blanca</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2252660053</v>
+        <v>3338874573</v>
       </c>
       <c r="I10" t="s">
         <v>63</v>
@@ -1306,19 +1335,19 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antartida Argentina 191</v>
-      </c>
-      <c r="E11" s="4">
+        <v>Calle Antartida Argentina 950</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14413165</v>
+        <v>23267455</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
         <v>Resistencia</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2370979855</v>
+        <v>2266746625</v>
       </c>
       <c r="I11" t="s">
         <v>64</v>
@@ -1349,19 +1378,19 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Avenida Antenor Sajama 664</v>
-      </c>
-      <c r="E12" s="4">
+        <v>Avenida Antenor Sajama 323</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36213086</v>
+        <v>18959588</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
         <v>Posadas</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3491786634</v>
+        <v>2528783484</v>
       </c>
       <c r="I12" t="s">
         <v>65</v>
@@ -1392,19 +1421,19 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Forestieri 491</v>
-      </c>
-      <c r="E13" s="4">
+        <v>Calle Antonio Forestieri 696</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39197191</v>
+        <v>22973781</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
         <v>Merlo</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2294312773</v>
+        <v>3667994138</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
@@ -1435,19 +1464,19 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Garibaldi 205</v>
-      </c>
-      <c r="E14" s="4">
+        <v>Calle Antonio Garibaldi 312</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30022775</v>
+        <v>36859052</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
         <v>Quilmes</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3500664913</v>
+        <v>3668832905</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
@@ -1478,19 +1507,19 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Marcon 165</v>
-      </c>
-      <c r="E15" s="4">
+        <v>Calle Antonio Marcon 435</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29824121</v>
+        <v>13125646</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
         <v>San Salvador de Jujuy</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2364031964</v>
+        <v>2841756401</v>
       </c>
       <c r="I15" t="s">
         <v>68</v>
@@ -1521,19 +1550,19 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenales 768</v>
-      </c>
-      <c r="E16" s="4">
+        <v>Calle Arenales 924</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35824311</v>
+        <v>10309753</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
         <v>Guaymallén</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2261254157</v>
+        <v>2737138133</v>
       </c>
       <c r="I16" t="s">
         <v>69</v>
@@ -1564,19 +1593,19 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenas 558</v>
-      </c>
-      <c r="E17" s="4">
+        <v>Calle Arenas 832</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29893649</v>
+        <v>38447666</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
         <v>Santiago del Estero</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3449554325</v>
+        <v>2829747301</v>
       </c>
       <c r="I17" t="s">
         <v>70</v>
@@ -1607,19 +1636,19 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argañaraz 777</v>
-      </c>
-      <c r="E18" s="4">
+        <v>Calle Argañaraz 853</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21337950</v>
+        <v>39606172</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
         <v>Gregorio de Laferrere</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2793663967</v>
+        <v>2856872520</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
@@ -1650,19 +1679,19 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argerich 973</v>
-      </c>
-      <c r="E19" s="4">
+        <v>Calle Argerich 510</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38875259</v>
+        <v>14349562</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
         <v>José C. Paz</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2282318380</v>
+        <v>2610628788</v>
       </c>
       <c r="I19" t="s">
         <v>72</v>
@@ -1693,19 +1722,19 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arismendi 169</v>
-      </c>
-      <c r="E20" s="4">
+        <v>Calle Arismendi 140</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11468833</v>
+        <v>24557528</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
         <v>Paraná</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3374817345</v>
+        <v>3281571010</v>
       </c>
       <c r="I20" t="s">
         <v>73</v>
@@ -1736,19 +1765,19 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Pasaje Arrayanal 155</v>
-      </c>
-      <c r="E21" s="4">
+        <v>Pasaje Arrayanal 463</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24967093</v>
+        <v>28114635</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
         <v>Banfield</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2565043760</v>
+        <v>3556122520</v>
       </c>
       <c r="I21" t="s">
         <v>74</v>
@@ -1792,10 +1821,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1889,7 @@
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
@@ -1868,33 +1953,33 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f t="shared" ref="D2:D15" ca="1" si="0">RANDBETWEEN(ROW(),30)</f>
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="D2:E15" ca="1" si="1">RANDBETWEEN(36892,44726)</f>
-        <v>41881</v>
+        <v>29</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E15" ca="1" si="1">RANDBETWEEN(35000,45000)</f>
+        <v>41844</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Paula</v>
       </c>
       <c r="G2" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Altrado Storni 966</v>
-      </c>
-      <c r="H2">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>25139607</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Garibaldi 312</v>
+      </c>
+      <c r="H2" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>36859052</v>
       </c>
       <c r="I2" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="J2">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2383271692</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Quilmes</v>
+      </c>
+      <c r="J2" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3668832905</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1904,33 +1989,33 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40614</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>40543</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Catalina</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Paula</v>
       </c>
       <c r="G3" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Alvarez Condarco 866</v>
-      </c>
-      <c r="H3">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>24572523</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Garibaldi 312</v>
+      </c>
+      <c r="H3" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>36859052</v>
       </c>
       <c r="I3" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Rosario</v>
-      </c>
-      <c r="J3">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>3651626844</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Quilmes</v>
+      </c>
+      <c r="J3" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3668832905</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1940,33 +2025,33 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41743</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>37968</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Elena</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Emilia</v>
       </c>
       <c r="G4" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Alvarez Prado 767</v>
-      </c>
-      <c r="H4">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>14173055</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Amancay 464</v>
+      </c>
+      <c r="H4" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>17160821</v>
       </c>
       <c r="I4" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Mar del Plata</v>
-      </c>
-      <c r="J4">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>3276118466</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>San Miguel de Tucumán</v>
+      </c>
+      <c r="J4" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3679962782</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1976,33 +2061,33 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42892</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>42187</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Emilia</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Nicolás</v>
       </c>
       <c r="G5" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Amancay 897</v>
-      </c>
-      <c r="H5">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>35009364</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Forestieri 696</v>
+      </c>
+      <c r="H5" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>22973781</v>
       </c>
       <c r="I5" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>San Miguel de Tucumán</v>
-      </c>
-      <c r="J5">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2958452814</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Merlo</v>
+      </c>
+      <c r="J5" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3667994138</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2012,33 +2097,33 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37680</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>35367</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Juan</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Lucía</v>
       </c>
       <c r="G6" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Ambrosetti 705</v>
-      </c>
-      <c r="H6">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>31885736</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Anchorena 584</v>
+      </c>
+      <c r="H6" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>10787939</v>
       </c>
       <c r="I6" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Salta</v>
-      </c>
-      <c r="J6">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>3435620491</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Santa Fe</v>
+      </c>
+      <c r="J6" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3530429977</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2048,33 +2133,33 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>44393</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>37598</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Lucía</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Catalina</v>
       </c>
       <c r="G7" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Anchorena 452</v>
-      </c>
-      <c r="H7">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>16408092</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Alvarez Condarco 726</v>
+      </c>
+      <c r="H7" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>12480341</v>
       </c>
       <c r="I7" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Santa Fe</v>
-      </c>
-      <c r="J7">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2462988757</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Rosario</v>
+      </c>
+      <c r="J7" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3871918816</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2084,33 +2169,33 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41080</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>42207</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>María</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Mateo</v>
       </c>
       <c r="G8" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Andrea Zenarruza 644</v>
-      </c>
-      <c r="H8">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>30519856</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antartida Argentina 950</v>
+      </c>
+      <c r="H8" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>23267455</v>
       </c>
       <c r="I8" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Corrientes</v>
-      </c>
-      <c r="J8">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>3244157766</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Resistencia</v>
+      </c>
+      <c r="J8" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2266746625</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2120,33 +2205,33 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41438</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>43597</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Martina</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Lucía</v>
       </c>
       <c r="G9" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Andres Bello 863</v>
-      </c>
-      <c r="H9">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>12254615</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Anchorena 584</v>
+      </c>
+      <c r="H9" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>10787939</v>
       </c>
       <c r="I9" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Bahía Blanca</v>
-      </c>
-      <c r="J9">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2252660053</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Santa Fe</v>
+      </c>
+      <c r="J9" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3530429977</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2156,33 +2241,33 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37933</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>39784</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Mateo</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Juan</v>
       </c>
       <c r="G10" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Antartida Argentina 191</v>
-      </c>
-      <c r="H10">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>14413165</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Ambrosetti 743</v>
+      </c>
+      <c r="H10" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>27658353</v>
       </c>
       <c r="I10" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Resistencia</v>
-      </c>
-      <c r="J10">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2370979855</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Salta</v>
+      </c>
+      <c r="J10" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2550868723</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2192,33 +2277,33 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>43937</v>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>41924</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Matías</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v> Santiago</v>
       </c>
       <c r="G11" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Avenida Antenor Sajama 664</v>
-      </c>
-      <c r="H11">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>36213086</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Avenida Alte G Brown 470</v>
+      </c>
+      <c r="H11" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>35761649</v>
       </c>
       <c r="I11" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Posadas</v>
-      </c>
-      <c r="J11">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>3491786634</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Buenos Aires</v>
+      </c>
+      <c r="J11" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3541229580</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2228,129 +2313,129 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37602</v>
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>35794</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Nicolás</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Catalina</v>
       </c>
       <c r="G12" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Antonio Forestieri 491</v>
-      </c>
-      <c r="H12">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>39197191</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Alvarez Condarco 726</v>
+      </c>
+      <c r="H12" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>12480341</v>
       </c>
       <c r="I12" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Merlo</v>
-      </c>
-      <c r="J12">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2294312773</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Rosario</v>
+      </c>
+      <c r="J12" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3871918816</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>37046</v>
+      </c>
+      <c r="F13" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Valentina</v>
+      </c>
+      <c r="G13" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Arismendi 140</v>
+      </c>
+      <c r="H13" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>24557528</v>
+      </c>
+      <c r="I13" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Paraná</v>
+      </c>
+      <c r="J13" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3281571010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40980</v>
-      </c>
-      <c r="F13" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
-      </c>
-      <c r="G13" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Antonio Garibaldi 205</v>
-      </c>
-      <c r="H13">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>30022775</v>
-      </c>
-      <c r="I13" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Quilmes</v>
-      </c>
-      <c r="J13">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>3500664913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:E15" ca="1" si="2">RANDBETWEEN(36892,44726)</f>
-        <v>38262</v>
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>42880</v>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Pedro</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Benjamín</v>
       </c>
       <c r="G14" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Antonio Marcon 165</v>
-      </c>
-      <c r="H14">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>29824121</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Altrado Storni 510</v>
+      </c>
+      <c r="H14" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>11313081</v>
       </c>
       <c r="I14" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>San Salvador de Jujuy</v>
-      </c>
-      <c r="J14">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2364031964</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="J14" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2669810609</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37115</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>41333</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Santino</v>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v> Santiago</v>
       </c>
       <c r="G15" t="str">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],4,FALSE)</f>
-        <v>Calle Arenales 768</v>
-      </c>
-      <c r="H15">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],5,FALSE)</f>
-        <v>35824311</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Avenida Alte G Brown 470</v>
+      </c>
+      <c r="H15" s="3">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>35761649</v>
       </c>
       <c r="I15" t="str">
-        <f>VLOOKUP(ROW(),TABLA_PERSONAS[],6,FALSE)</f>
-        <v>Guaymallén</v>
-      </c>
-      <c r="J15">
-        <f ca="1">VLOOKUP(ROW(),TABLA_PERSONAS[],7,FALSE)</f>
-        <v>2261254157</v>
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Buenos Aires</v>
+      </c>
+      <c r="J15" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3541229580</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>

--- a/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
+++ b/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C67EA7-FD6A-4C30-AE23-72D8EBFB4A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="2" r:id="rId1"/>
@@ -14,13 +15,26 @@
   </sheets>
   <definedNames>
     <definedName name="DATOS_PERSONAS">TABLA_PERSONAS[[#All],[NOMBRE]:[TELÉFONO]]</definedName>
+    <definedName name="DATOS_PRODUCTOS">TABLA_PRODUCTOS[[#All],[PRODUCTO]:[CÓDIGO]]</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="181">
   <si>
     <t xml:space="preserve">La llave primaria es Número de Factura de venta: NUM_FAC </t>
   </si>
@@ -109,9 +123,6 @@
     <t>SEXO</t>
   </si>
   <si>
-    <t> Santiago</t>
-  </si>
-  <si>
     <t>Sofía</t>
   </si>
   <si>
@@ -415,33 +426,169 @@
     <t>CATEGORÍA</t>
   </si>
   <si>
-    <t>Cuidado Personal.</t>
-  </si>
-  <si>
-    <t>Cuidado e higiene de Bebé.</t>
-  </si>
-  <si>
-    <t>Limpieza del hogar.</t>
-  </si>
-  <si>
-    <t>Bebidas.</t>
-  </si>
-  <si>
-    <t>Almacén.</t>
-  </si>
-  <si>
-    <t>Alimento para mascotas.</t>
+    <t>TIENDA</t>
+  </si>
+  <si>
+    <t>UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>Naranjas</t>
+  </si>
+  <si>
+    <t>Artículos</t>
+  </si>
+  <si>
+    <t>Vegetales</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Manzanas</t>
+  </si>
+  <si>
+    <t>Huerto</t>
+  </si>
+  <si>
+    <t>Plátanos</t>
+  </si>
+  <si>
+    <t>manojo</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>cabeza</t>
+  </si>
+  <si>
+    <t>Tomates</t>
+  </si>
+  <si>
+    <t>Calabaza</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Pepino</t>
+  </si>
+  <si>
+    <t>Setas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leche </t>
+  </si>
+  <si>
+    <t>Entrega a domicilio</t>
+  </si>
+  <si>
+    <t>Lácteos</t>
+  </si>
+  <si>
+    <t>litro</t>
+  </si>
+  <si>
+    <t>Queso</t>
+  </si>
+  <si>
+    <t>Huevos</t>
+  </si>
+  <si>
+    <t>docena</t>
+  </si>
+  <si>
+    <t>Requesón</t>
+  </si>
+  <si>
+    <t>1/2 kg</t>
+  </si>
+  <si>
+    <t>Crema agria</t>
+  </si>
+  <si>
+    <t>1/4 kg</t>
+  </si>
+  <si>
+    <t>Yogur</t>
+  </si>
+  <si>
+    <t>Ternera</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Salmón</t>
+  </si>
+  <si>
+    <t>Pescadería</t>
+  </si>
+  <si>
+    <t>Marisco</t>
+  </si>
+  <si>
+    <t>Cangrejo</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Calle Argerich 715</t>
+  </si>
+  <si>
+    <t>Avenida Antenor Sajama 336</t>
+  </si>
+  <si>
+    <t>Calle Altrado Storni 782</t>
+  </si>
+  <si>
+    <t>Calle Arenales 434</t>
+  </si>
+  <si>
+    <t>Calle Ambrosetti 525</t>
+  </si>
+  <si>
+    <t>Avenida Alte G Brown 876</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>TABLA ENSALADA</t>
+  </si>
+  <si>
+    <t>1FN</t>
+  </si>
+  <si>
+    <t>2FN</t>
+  </si>
+  <si>
+    <t>3FN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,13 +604,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -478,38 +642,1429 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
-    </dxf>
-    <dxf>
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
@@ -532,31 +2087,34 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TABLA_PERSONAS" displayName="TABLA_PERSONAS" ref="A1:G21" totalsRowShown="0">
-  <sortState ref="A2:C21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TABLA_PERSONAS" displayName="TABLA_PERSONAS" ref="A1:G21" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
     <sortCondition ref="B3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="103">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="NOMBRE"/>
-    <tableColumn id="3" name="SEXO"/>
-    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SEXO"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DIRECCIÓN" dataDxfId="102">
       <calculatedColumnFormula>I2&amp;" "&amp;RANDBETWEEN(100,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="DNI" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DNI" dataDxfId="101">
       <calculatedColumnFormula>RANDBETWEEN(10000000,40000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CIUDAD" dataDxfId="100">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELÉFONO" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="TELÉFONO" dataDxfId="99">
       <calculatedColumnFormula>RANDBETWEEN(2214000000,3886999999)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -564,37 +2122,250 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{494DB943-8D87-448C-8FEC-0F386B7118F3}" name="Tabla471011" displayName="Tabla471011" ref="B145:E165" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <tableColumns count="4">
+    <tableColumn id="10" xr3:uid="{589D5208-0611-4A31-8B44-17EC510B8296}" name="COD_PROD" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{C55A3B3E-B6E9-4B96-BCBA-60B42AB45579}" name="DESCRIPCION" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{F53ED72D-3C39-4235-ABA1-3340431798D3}" name="CATEGORIA" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{CB38CE5C-651C-4698-B926-4404980ADFEE}" name="VAL_UNIT" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BED4E8BF-A8B2-48B2-8E24-91F94A357D1F}" name="Tabla46812" displayName="Tabla46812" ref="B170:D180" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B171:D180">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{92C987B9-572A-4FDD-AB66-9A0B268FC9C1}" name="NUM_FAC" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{89F769C1-51D4-4E1F-BC4A-7BB0602AC0A4}" name="FECHA_FAC" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{936475C5-103C-476E-A5F9-744591C59F87}" name="RIF_CLIENTE" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54B6A632-BC15-49F4-B905-B4E9DB6B3A08}" name="Tabla468913" displayName="Tabla468913" ref="B182:F188" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B183:F188">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{710725C8-3E71-423F-ABD8-9299818238B1}" name="RIF_CLIENTE" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{AF823D42-3A0E-4580-BD55-D8276043DF98}" name="NOM_CLIENTE" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{5425C230-63EC-4091-81C4-05FCCD6DA435}" name="DIR_CLIENTE" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{3A5EF9F9-C87A-4723-857E-C3E4D8E7D925}" name="CIUDAD_CLIENTE" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{72F7AF01-2B91-476D-917D-4CD301C293CA}" name="TELEF_CLIENTE" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B82541BD-BDC7-49CC-AF61-74D491245527}" name="Tabla471014" displayName="Tabla471014" ref="B190:D210" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B191:C210">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{55D7EE1B-69E0-4261-8CDB-64CD79D06EF2}" name="NUM_FAC" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{82692F87-AA1B-44DA-8D41-65450FAB21F6}" name="COD_PROD" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{C5024813-323B-43B9-A619-D63A1009DD4C}" name="CANT_PROD" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0D1104EE-66A5-4F50-9A5E-2617192F8961}" name="Tabla47101115" displayName="Tabla47101115" ref="B212:E232" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="4">
+    <tableColumn id="10" xr3:uid="{FA6567AC-12E8-41D9-9B33-FD52AA3EC177}" name="COD_PROD" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{C7E56863-7996-44D6-845B-28EE4485A0A2}" name="DESCRIPCION" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{4E5D3CD3-9339-4CB6-85D9-A90E3DE067A5}" name="CATEGORIA" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{45D36442-AB9A-4AF6-AA57-F9E2900E5DFA}" name="VAL_UNIT" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9D62B524-F3CE-41D1-BB3A-331416D3216C}" name="Tabla4710111516" displayName="Tabla4710111516" ref="B234:E254" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="10" xr3:uid="{B70980AD-DB3B-4418-B871-1965333D6498}" name="COD_PROD" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{796A74EA-C118-4BC8-8CCE-6574A983CA18}" name="DESCRIPCION" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{43E440AB-06CF-470B-8DE9-808161D629B4}" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{6DC8EB27-F83B-47E8-928F-30779A0FF281}" name="VAL_UNIT" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D1:O15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1921F91F-8D15-4780-9772-5559A0944A7F}" name="TABLA_PRODUCTOS" displayName="TABLA_PRODUCTOS" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{1921F91F-8D15-4780-9772-5559A0944A7F}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{ACEA4DCE-9587-494B-B1F2-8D3CD40E25DC}" name="ID" dataDxfId="98">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{7DFAE095-F612-409E-93CC-06999D204B18}" name="PRODUCTO"/>
+    <tableColumn id="2" xr3:uid="{A52B79BE-5378-48C3-B548-39FBB90D62D6}" name="TIENDA"/>
+    <tableColumn id="3" xr3:uid="{07CEB628-14CD-47BB-BBF7-A14DF4C5D0F5}" name="CATEGORÍA"/>
+    <tableColumn id="4" xr3:uid="{505A3BC4-1C5C-4CF0-8F53-9D77649D0DD9}" name="CANTIDAD"/>
+    <tableColumn id="5" xr3:uid="{8E76F6A6-8F97-4B97-BA6C-AE7E77D32F53}" name="UNIDAD"/>
+    <tableColumn id="6" xr3:uid="{F1ADD600-4947-4177-9C0F-38F0357E2D36}" name="PRECIO UNITARIO"/>
+    <tableColumn id="8" xr3:uid="{BD63A08E-4182-4072-9C54-20EC0051D3E3}" name="CÓDIGO" dataDxfId="69">
+      <calculatedColumnFormula>TABLA_PRODUCTOS[[#This Row],[ID]]+100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <tableColumns count="12">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="6">
-      <calculatedColumnFormula>RANDBETWEEN(ROW(),30)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NUM_FAC" dataDxfId="97">
+      <calculatedColumnFormula>RANDBETWEEN(1000,9999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="FECHA_FAC" dataDxfId="96">
       <calculatedColumnFormula>RANDBETWEEN(35000,45000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOM_CLIENTE" dataDxfId="95">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DIR_CLIENTE" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="RIF_CLIENTE" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CIUDAD_CLIENTE" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TELEF_CLIENTE" dataDxfId="91">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="CATEGORIA"/>
-    <tableColumn id="9" name="COD_PROD"/>
-    <tableColumn id="10" name="DESCRIPCION"/>
-    <tableColumn id="11" name="VAL_UNIT"/>
-    <tableColumn id="12" name="CANT_PROD"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CATEGORIA" dataDxfId="90">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="COD_PROD" dataDxfId="89">
+      <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="DESCRIPCION" dataDxfId="88">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="VAL_UNIT" dataDxfId="87">
+      <calculatedColumnFormula>ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="CANT_PROD" dataDxfId="86">
+      <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5DA96D0-3038-47FE-92FB-31F655E84A40}" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B42:M61">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{34195B29-8A65-416A-B24B-34290E812100}" name="NUM_FAC" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{55125A51-4FA6-40C6-B715-AB88208F58DC}" name="FECHA_FAC" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{CEFEE098-ABF4-4383-A8C7-8BF29FC42296}" name="NOM_CLIENTE" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{3DB08B2F-F7AB-42CD-A241-298263E51D37}" name="DIR_CLIENTE" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{5C014075-2347-40D8-A6E9-66CD13B4B8AA}" name="RIF_CLIENTE" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{982CDD0A-7C97-4B2E-810C-2A539F963F01}" name="CIUDAD_CLIENTE" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{FCF80D46-56AC-4AA7-9B1D-599EBF82D593}" name="TELEF_CLIENTE" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{818BC37A-72AA-4588-BA11-1AF45129EBF7}" name="CATEGORIA" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{A94F4CEC-7995-4F8B-9C27-FDE5353862F4}" name="COD_PROD" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{773A62C7-788C-4727-8556-738D397A6A86}" name="DESCRIPCION" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{39D273B7-333C-4202-81F4-752BCE1C8E15}" name="VAL_UNIT" dataDxfId="72"/>
+    <tableColumn id="12" xr3:uid="{7D9A093A-31FE-4C56-90CB-3FB7DB5E86E8}" name="CANT_PROD" dataDxfId="77"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D3075DB3-CDB8-4843-BEF5-65FE3C811892}" name="Tabla46" displayName="Tabla46" ref="B66:H76" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B67:H76">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D0753299-318A-4DC0-9A8A-4735590FECE9}" name="NUM_FAC" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{B5B8A469-A202-4A9B-92E1-54429A5E6745}" name="FECHA_FAC" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{1FC385D4-CAE4-407C-8510-B4B2AC3C1E2D}" name="NOM_CLIENTE" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{E18197CE-ABA8-4A45-87F2-A4709A76FECA}" name="DIR_CLIENTE" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{D3B1A7E0-2B57-4A44-80D0-3AD893947050}" name="RIF_CLIENTE" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{230DBF95-E9C6-4DFF-B169-5805A4278DE0}" name="CIUDAD_CLIENTE" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{4A2B5F63-8B6A-41EF-8BB3-AABC5B1AEEED}" name="TELEF_CLIENTE" dataDxfId="60"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C80757C6-FC92-4058-8F9F-DE7DA9828EB9}" name="Tabla47" displayName="Tabla47" ref="B78:G98" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B79:F98">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9F5B8E4C-E8D5-4A31-8A02-6E1BCCECD137}" name="NUM_FAC" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{CCD02200-2446-410E-A6FB-13BC4A56C2F0}" name="COD_PROD" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{BD8B3BE7-FE96-463A-9DF0-37FC012AFCB2}" name="CATEGORIA" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{EF49AB46-9E50-40B8-A7D0-00BC1A4A6F99}" name="DESCRIPCION" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{99E9B944-FC07-45CE-ACD0-5933F5F516DA}" name="VAL_UNIT" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{FC553C1B-6E50-4649-A07A-9AFEB5CA08D9}" name="CANT_PROD" dataDxfId="53"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49CF522D-88D6-4195-9A6D-1E6C4030CC39}" name="Tabla468" displayName="Tabla468" ref="B103:D113" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B104:D113">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E289C48A-9AEE-4B4F-9636-D3C05D0E8FD1}" name="NUM_FAC" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{719FCFF8-97FC-4D41-9923-564F5C54DE92}" name="FECHA_FAC" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{922FE2FF-04B4-42AF-BFA3-92DC0CD27B8D}" name="RIF_CLIENTE" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C486EC2B-C077-4322-9779-C221B28C11F4}" name="Tabla4689" displayName="Tabla4689" ref="B115:F121" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B116:F121">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6C04DBF1-85C2-4328-A867-C14AB8BB87AC}" name="RIF_CLIENTE" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{0F69245A-1274-4029-A125-35E5E2C76598}" name="NOM_CLIENTE" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{BB2AD7F8-CC64-4C16-B6BF-3FE7362C9FDC}" name="DIR_CLIENTE" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{EF6DE6CC-2015-4A7F-81C6-CAC30A99DF14}" name="CIUDAD_CLIENTE" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{D8908365-C7FC-4D97-9F17-5D855A991526}" name="TELEF_CLIENTE" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAE383B2-D71E-454D-B405-A98C3501B112}" name="Tabla4710" displayName="Tabla4710" ref="B123:D143" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B124:C143">
+    <sortCondition ref="B42:B61"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9B22E6B9-B5D8-41FD-8EB2-22B073D19BFE}" name="NUM_FAC" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{6391C611-B3D9-4A52-9B0D-4EC8C47752A3}" name="COD_PROD" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{5CD19AFA-244E-4FFF-BFCD-CF7DA8EB1C30}" name="CANT_PROD" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -641,7 +2412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,9 +2445,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,6 +2497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -884,11 +2689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,25 +2719,25 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -941,38 +2746,38 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D21" ca="1" si="1">I2&amp;" "&amp;RANDBETWEEN(100,1000)</f>
-        <v>Avenida Alte G Brown 470</v>
-      </c>
-      <c r="E2" s="3">
+        <v>Avenida Alte G Brown 806</v>
+      </c>
+      <c r="E2" s="2">
         <f t="shared" ref="E2:E21" ca="1" si="2">RANDBETWEEN(10000000,40000000)</f>
-        <v>35761649</v>
+        <v>34628576</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F21" si="3">J2</f>
         <v>Buenos Aires</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f t="shared" ref="G2:G21" ca="1" si="4">RANDBETWEEN(2214000000,3886999999)</f>
-        <v>3541229580</v>
+        <v>2247360539</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N2">
         <v>351</v>
@@ -984,38 +2789,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Altrado Storni 510</v>
-      </c>
-      <c r="E3" s="3">
+        <v>Calle Altrado Storni 705</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11313081</v>
+        <v>20275315</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="3"/>
         <v>Córdoba</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2669810609</v>
+        <v>3809438118</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>379</v>
@@ -1027,38 +2832,38 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Condarco 726</v>
-      </c>
-      <c r="E4" s="3">
+        <v>Calle Alvarez Condarco 661</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12480341</v>
+        <v>34452845</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
         <v>Rosario</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3871918816</v>
+        <v>2796513064</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N4">
         <v>370</v>
@@ -1070,38 +2875,38 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Prado 783</v>
-      </c>
-      <c r="E5" s="3">
+        <v>Calle Alvarez Prado 172</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34675913</v>
+        <v>16213502</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
         <v>Mar del Plata</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3489454374</v>
+        <v>2290290260</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>221</v>
@@ -1113,38 +2918,38 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Amancay 464</v>
-      </c>
-      <c r="E6" s="3">
+        <v>Calle Amancay 640</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17160821</v>
+        <v>15447591</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
         <v>San Miguel de Tucumán</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3679962782</v>
+        <v>3410483489</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>380</v>
@@ -1156,38 +2961,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Ambrosetti 743</v>
-      </c>
-      <c r="E7" s="3">
+        <v>Calle Ambrosetti 431</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27658353</v>
+        <v>16662440</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
         <v>Salta</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2550868723</v>
+        <v>3307491445</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>261</v>
@@ -1199,38 +3004,38 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Anchorena 584</v>
-      </c>
-      <c r="E8" s="3">
+        <v>Calle Anchorena 298</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10787939</v>
+        <v>12148763</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
         <v>Santa Fe</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3530429977</v>
+        <v>3645618742</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N8">
         <v>299</v>
@@ -1242,38 +3047,38 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andrea Zenarruza 560</v>
-      </c>
-      <c r="E9" s="3">
+        <v>Calle Andrea Zenarruza 610</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33087661</v>
+        <v>39793480</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
         <v>Corrientes</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3697199882</v>
+        <v>2983111160</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N9">
         <v>343</v>
@@ -1285,38 +3090,38 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andres Bello 137</v>
-      </c>
-      <c r="E10" s="3">
+        <v>Calle Andres Bello 400</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36517288</v>
+        <v>24926649</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
         <v>Bahía Blanca</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3338874573</v>
+        <v>2772977508</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>376</v>
@@ -1328,38 +3133,38 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antartida Argentina 950</v>
-      </c>
-      <c r="E11" s="3">
+        <v>Calle Antartida Argentina 766</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23267455</v>
+        <v>13295249</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
         <v>Resistencia</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2266746625</v>
+        <v>2509762476</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>280</v>
@@ -1371,38 +3176,38 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Avenida Antenor Sajama 323</v>
-      </c>
-      <c r="E12" s="3">
+        <v>Avenida Antenor Sajama 250</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18959588</v>
+        <v>28194560</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
         <v>Posadas</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2528783484</v>
+        <v>2469892083</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>362</v>
@@ -1414,38 +3219,38 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Forestieri 696</v>
-      </c>
-      <c r="E13" s="3">
+        <v>Calle Antonio Forestieri 936</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22973781</v>
+        <v>19001005</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
         <v>Merlo</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3667994138</v>
+        <v>3428919107</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>2966</v>
@@ -1457,38 +3262,38 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Garibaldi 312</v>
-      </c>
-      <c r="E14" s="3">
+        <v>Calle Antonio Garibaldi 468</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36859052</v>
+        <v>19057160</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
         <v>Quilmes</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3668832905</v>
+        <v>3378116443</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>387</v>
@@ -1500,38 +3305,38 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Marcon 435</v>
-      </c>
-      <c r="E15" s="3">
+        <v>Calle Antonio Marcon 377</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13125646</v>
+        <v>39056085</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
         <v>San Salvador de Jujuy</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2841756401</v>
+        <v>3416381468</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N15">
         <v>383</v>
@@ -1543,38 +3348,38 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenales 924</v>
-      </c>
-      <c r="E16" s="3">
+        <v>Calle Arenales 854</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10309753</v>
+        <v>25465467</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
         <v>Guaymallén</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2737138133</v>
+        <v>3439491274</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N16">
         <v>264</v>
@@ -1586,38 +3391,38 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenas 832</v>
-      </c>
-      <c r="E17" s="3">
+        <v>Calle Arenas 424</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38447666</v>
+        <v>18719939</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
         <v>Santiago del Estero</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2829747301</v>
+        <v>3295209874</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>266</v>
@@ -1629,38 +3434,38 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argañaraz 853</v>
-      </c>
-      <c r="E18" s="3">
+        <v>Calle Argañaraz 494</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39606172</v>
+        <v>16289868</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
         <v>Gregorio de Laferrere</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2856872520</v>
+        <v>3533406168</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N18">
         <v>381</v>
@@ -1672,38 +3477,38 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argerich 510</v>
-      </c>
-      <c r="E19" s="3">
+        <v>Calle Argerich 435</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14349562</v>
+        <v>20411869</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
         <v>José C. Paz</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2610628788</v>
+        <v>3677684150</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N19">
         <v>388</v>
@@ -1715,38 +3520,38 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arismendi 140</v>
-      </c>
-      <c r="E20" s="3">
+        <v>Calle Arismendi 458</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24557528</v>
+        <v>33736584</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
         <v>Paraná</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3281571010</v>
+        <v>2288272984</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N20">
         <v>342</v>
@@ -1758,38 +3563,38 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Pasaje Arrayanal 463</v>
-      </c>
-      <c r="E21" s="3">
+        <v>Pasaje Arrayanal 998</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28114635</v>
+        <v>34686130</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
         <v>Banfield</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3556122520</v>
+        <v>3390083707</v>
       </c>
       <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" t="s">
         <v>74</v>
       </c>
-      <c r="J21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" t="s">
-        <v>75</v>
-      </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21">
         <v>2954</v>
@@ -1797,7 +3602,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N22">
         <v>385</v>
@@ -1820,622 +3625,549 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A19" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="G2">
+        <v>2.99</v>
+      </c>
+      <c r="H2">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3">
+        <v>1.99</v>
+      </c>
+      <c r="H3">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4">
+        <v>3.99</v>
+      </c>
+      <c r="H4">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5">
+        <v>2.29</v>
+      </c>
+      <c r="H5">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6">
+        <v>3.49</v>
+      </c>
+      <c r="H6">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7">
+        <v>1.5</v>
+      </c>
+      <c r="H7">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8">
+        <v>1.99</v>
+      </c>
+      <c r="H8">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9">
+        <v>2.29</v>
+      </c>
+      <c r="H9">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10">
+        <v>2.25</v>
+      </c>
+      <c r="H10">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11">
+        <v>3.99</v>
+      </c>
+      <c r="H11">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12">
+        <v>9.99</v>
+      </c>
+      <c r="H12">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13">
+        <v>3.5</v>
+      </c>
+      <c r="H13">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14">
+        <v>3.89</v>
+      </c>
+      <c r="H14">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15">
+        <v>2.99</v>
+      </c>
+      <c r="H15">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16">
+        <v>4.99</v>
+      </c>
+      <c r="H16">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17">
+        <v>7.99</v>
+      </c>
+      <c r="H17">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18">
+        <v>8.99</v>
+      </c>
+      <c r="H18">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D15" ca="1" si="0">RANDBETWEEN(ROW(),30)</f>
-        <v>29</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E15" ca="1" si="1">RANDBETWEEN(35000,45000)</f>
-        <v>41844</v>
-      </c>
-      <c r="F2" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
-      </c>
-      <c r="G2" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 312</v>
-      </c>
-      <c r="H2" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36859052</v>
-      </c>
-      <c r="I2" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
-      </c>
-      <c r="J2" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3668832905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>40543</v>
-      </c>
-      <c r="F3" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
-      </c>
-      <c r="G3" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 312</v>
-      </c>
-      <c r="H3" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36859052</v>
-      </c>
-      <c r="I3" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
-      </c>
-      <c r="J3" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3668832905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>37968</v>
-      </c>
-      <c r="F4" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Emilia</v>
-      </c>
-      <c r="G4" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Amancay 464</v>
-      </c>
-      <c r="H4" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>17160821</v>
-      </c>
-      <c r="I4" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Miguel de Tucumán</v>
-      </c>
-      <c r="J4" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3679962782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>42187</v>
-      </c>
-      <c r="F5" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Nicolás</v>
-      </c>
-      <c r="G5" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Forestieri 696</v>
-      </c>
-      <c r="H5" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22973781</v>
-      </c>
-      <c r="I5" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Merlo</v>
-      </c>
-      <c r="J5" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3667994138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>35367</v>
-      </c>
-      <c r="F6" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Lucía</v>
-      </c>
-      <c r="G6" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Anchorena 584</v>
-      </c>
-      <c r="H6" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>10787939</v>
-      </c>
-      <c r="I6" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santa Fe</v>
-      </c>
-      <c r="J6" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3530429977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>37598</v>
-      </c>
-      <c r="F7" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Catalina</v>
-      </c>
-      <c r="G7" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Alvarez Condarco 726</v>
-      </c>
-      <c r="H7" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>12480341</v>
-      </c>
-      <c r="I7" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Rosario</v>
-      </c>
-      <c r="J7" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3871918816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>42207</v>
-      </c>
-      <c r="F8" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Mateo</v>
-      </c>
-      <c r="G8" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antartida Argentina 950</v>
-      </c>
-      <c r="H8" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>23267455</v>
-      </c>
-      <c r="I8" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Resistencia</v>
-      </c>
-      <c r="J8" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2266746625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>43597</v>
-      </c>
-      <c r="F9" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Lucía</v>
-      </c>
-      <c r="G9" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Anchorena 584</v>
-      </c>
-      <c r="H9" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>10787939</v>
-      </c>
-      <c r="I9" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santa Fe</v>
-      </c>
-      <c r="J9" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3530429977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>39784</v>
-      </c>
-      <c r="F10" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Juan</v>
-      </c>
-      <c r="G10" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Ambrosetti 743</v>
-      </c>
-      <c r="H10" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>27658353</v>
-      </c>
-      <c r="I10" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Salta</v>
-      </c>
-      <c r="J10" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2550868723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>41924</v>
-      </c>
-      <c r="F11" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v> Santiago</v>
-      </c>
-      <c r="G11" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Alte G Brown 470</v>
-      </c>
-      <c r="H11" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>35761649</v>
-      </c>
-      <c r="I11" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Buenos Aires</v>
-      </c>
-      <c r="J11" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3541229580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>35794</v>
-      </c>
-      <c r="F12" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Catalina</v>
-      </c>
-      <c r="G12" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Alvarez Condarco 726</v>
-      </c>
-      <c r="H12" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>12480341</v>
-      </c>
-      <c r="I12" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Rosario</v>
-      </c>
-      <c r="J12" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3871918816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>37046</v>
-      </c>
-      <c r="F13" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Valentina</v>
-      </c>
-      <c r="G13" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arismendi 140</v>
-      </c>
-      <c r="H13" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24557528</v>
-      </c>
-      <c r="I13" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Paraná</v>
-      </c>
-      <c r="J13" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3281571010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>42880</v>
-      </c>
-      <c r="F14" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
-      </c>
-      <c r="G14" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 510</v>
-      </c>
-      <c r="H14" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>11313081</v>
-      </c>
-      <c r="I14" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="J14" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2669810609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>41333</v>
-      </c>
-      <c r="F15" t="str">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v> Santiago</v>
-      </c>
-      <c r="G15" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Alte G Brown 470</v>
-      </c>
-      <c r="H15" s="3">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>35761649</v>
-      </c>
-      <c r="I15" t="str">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Buenos Aires</v>
-      </c>
-      <c r="J15" s="4">
-        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3541229580</v>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19">
+        <v>10.99</v>
+      </c>
+      <c r="H19">
+        <f>TABLA_PRODUCTOS[[#This Row],[ID]]+100</f>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2447,8 +4179,4616 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:O254"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <f t="shared" ref="B18:B37" ca="1" si="0">RANDBETWEEN(1000,9999)</f>
+        <v>2979</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:C31" ca="1" si="1">RANDBETWEEN(35000,45000)</f>
+        <v>40954</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>María</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Andrea Zenarruza 610</v>
+      </c>
+      <c r="F18" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>39793480</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Corrientes</v>
+      </c>
+      <c r="H18" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2983111160</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Yogur</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L18" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>499.5</v>
+      </c>
+      <c r="M18" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3402</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>36150</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Santiago</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Avenida Alte G Brown 806</v>
+      </c>
+      <c r="F19" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>34628576</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Buenos Aires</v>
+      </c>
+      <c r="H19" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2247360539</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Calabaza</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Mercado</v>
+      </c>
+      <c r="L19" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>150.15</v>
+      </c>
+      <c r="M19" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7816</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>35440</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Lucía</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Anchorena 298</v>
+      </c>
+      <c r="F20" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>12148763</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Santa Fe</v>
+      </c>
+      <c r="H20" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3645618742</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v xml:space="preserve">Leche </v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Entrega a domicilio</v>
+      </c>
+      <c r="L20" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>399.4</v>
+      </c>
+      <c r="M20" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7544</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>41740</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Juan</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Ambrosetti 431</v>
+      </c>
+      <c r="F21" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>16662440</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Salta</v>
+      </c>
+      <c r="H21" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3307491445</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Lechuga</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Mercado</v>
+      </c>
+      <c r="L21" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>229.23</v>
+      </c>
+      <c r="M21" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5958</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>43228</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Catalina</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Alvarez Condarco 661</v>
+      </c>
+      <c r="F22" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>34452845</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Rosario</v>
+      </c>
+      <c r="H22" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2796513064</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Marisco</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Cangrejo</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Pescadería</v>
+      </c>
+      <c r="L22" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>1100.0999999999999</v>
+      </c>
+      <c r="M22" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5676</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>42362</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Lucía</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Anchorena 298</v>
+      </c>
+      <c r="F23" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>12148763</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Santa Fe</v>
+      </c>
+      <c r="H23" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3645618742</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v xml:space="preserve">Leche </v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Entrega a domicilio</v>
+      </c>
+      <c r="L23" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>399.4</v>
+      </c>
+      <c r="M23" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8327</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>39902</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Nicolás</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Forestieri 936</v>
+      </c>
+      <c r="F24" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>19001005</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Merlo</v>
+      </c>
+      <c r="H24" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3428919107</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Huevos</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Entrega a domicilio</v>
+      </c>
+      <c r="L24" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>350.35</v>
+      </c>
+      <c r="M24" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8701</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>38713</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Paula</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Garibaldi 468</v>
+      </c>
+      <c r="F25" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>19057160</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Quilmes</v>
+      </c>
+      <c r="H25" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3378116443</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Carne</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Ternera</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Mercado</v>
+      </c>
+      <c r="L25" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>799.8</v>
+      </c>
+      <c r="M25" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5118</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>41439</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Tomás</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Argerich 435</v>
+      </c>
+      <c r="F26" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>20411869</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>José C. Paz</v>
+      </c>
+      <c r="H26" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3677684150</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Plátanos</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L26" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>399.4</v>
+      </c>
+      <c r="M26" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4219</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>42811</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Emilia</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Amancay 640</v>
+      </c>
+      <c r="F27" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>15447591</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>San Miguel de Tucumán</v>
+      </c>
+      <c r="H27" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3410483489</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v xml:space="preserve">Leche </v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Entrega a domicilio</v>
+      </c>
+      <c r="L27" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>399.4</v>
+      </c>
+      <c r="M27" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4923</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>39950</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Thiago</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Argañaraz 494</v>
+      </c>
+      <c r="F28" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>16289868</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Gregorio de Laferrere</v>
+      </c>
+      <c r="H28" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3533406168</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Yogur</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L28" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>499.5</v>
+      </c>
+      <c r="M28" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2812</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>40302</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Paula</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Garibaldi 468</v>
+      </c>
+      <c r="F29" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>19057160</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Quilmes</v>
+      </c>
+      <c r="H29" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3378116443</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Pepino</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Mercado</v>
+      </c>
+      <c r="L29" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>229.23</v>
+      </c>
+      <c r="M29" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9790</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>44022</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Emilia</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Amancay 640</v>
+      </c>
+      <c r="F30" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>15447591</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>San Miguel de Tucumán</v>
+      </c>
+      <c r="H30" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3410483489</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Marisco</v>
+      </c>
+      <c r="J30" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Salmón</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Pescadería</v>
+      </c>
+      <c r="L30" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>899.9</v>
+      </c>
+      <c r="M30" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5724</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>40830</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Martina</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Andres Bello 400</v>
+      </c>
+      <c r="F31" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>24926649</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Bahía Blanca</v>
+      </c>
+      <c r="H31" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2772977508</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Naranjas</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L31" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>299.3</v>
+      </c>
+      <c r="M31" s="4">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8853</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" ref="C32:C37" ca="1" si="2">RANDBETWEEN(35000,45000)</f>
+        <v>40147</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Zoe</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Pasaje Arrayanal 998</v>
+      </c>
+      <c r="F32" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>34686130</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Banfield</v>
+      </c>
+      <c r="H32" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3390083707</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J32" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Crema agria</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Entrega a domicilio</v>
+      </c>
+      <c r="L32" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>299.3</v>
+      </c>
+      <c r="M32" s="10">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6338</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>44045</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Valentina</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Arismendi 458</v>
+      </c>
+      <c r="F33" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>33736584</v>
+      </c>
+      <c r="G33" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Paraná</v>
+      </c>
+      <c r="H33" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2288272984</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J33" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Apio</v>
+      </c>
+      <c r="K33" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L33" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>199.2</v>
+      </c>
+      <c r="M33" s="10">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>36023</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Santiago</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Avenida Alte G Brown 806</v>
+      </c>
+      <c r="F34" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>34628576</v>
+      </c>
+      <c r="G34" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Buenos Aires</v>
+      </c>
+      <c r="H34" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2247360539</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J34" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Yogur</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L34" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>499.5</v>
+      </c>
+      <c r="M34" s="10">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9275</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>39569</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Tomás</v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Argerich 435</v>
+      </c>
+      <c r="F35" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>20411869</v>
+      </c>
+      <c r="G35" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>José C. Paz</v>
+      </c>
+      <c r="H35" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3677684150</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J35" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Yogur</v>
+      </c>
+      <c r="K35" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Artículos</v>
+      </c>
+      <c r="L35" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>499.5</v>
+      </c>
+      <c r="M35" s="10">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1215</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>36985</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Matías</v>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Avenida Antenor Sajama 250</v>
+      </c>
+      <c r="F36" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>28194560</v>
+      </c>
+      <c r="G36" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>Posadas</v>
+      </c>
+      <c r="H36" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>2469892083</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Lácteos</v>
+      </c>
+      <c r="J36" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Huevos</v>
+      </c>
+      <c r="K36" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Entrega a domicilio</v>
+      </c>
+      <c r="L36" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>350.35</v>
+      </c>
+      <c r="M36" s="10">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5014</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>42102</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
+        <v>Pedro</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
+        <v>Calle Antonio Marcon 377</v>
+      </c>
+      <c r="F37" s="7">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
+        <v>39056085</v>
+      </c>
+      <c r="G37" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
+        <v>San Salvador de Jujuy</v>
+      </c>
+      <c r="H37" s="8">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
+        <v>3416381468</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
+        <v>Vegetales</v>
+      </c>
+      <c r="J37" s="10" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
+        <v>Lechuga</v>
+      </c>
+      <c r="K37" s="10" t="str">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
+        <v>Mercado</v>
+      </c>
+      <c r="L37" s="9">
+        <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
+        <v>229.23</v>
+      </c>
+      <c r="M37" s="10">
+        <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="4">
+        <v>104</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="9">
+        <v>229.23</v>
+      </c>
+      <c r="M42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C43" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="4">
+        <v>103</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="M43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="4">
+        <v>110</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="M44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C45" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="8">
+        <v>3274537681</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="4">
+        <v>106</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L45" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="M45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C46" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3274537681</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="4">
+        <v>113</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L46" s="9">
+        <v>389.39</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C47" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="8">
+        <v>3274537681</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" s="4">
+        <v>114</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="9">
+        <v>299.3</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="8">
+        <v>2483237659</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J48" s="4">
+        <v>106</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="M48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2483237659</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" s="4">
+        <v>107</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="9">
+        <v>199.2</v>
+      </c>
+      <c r="M49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="8">
+        <v>3274537681</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" s="4">
+        <v>102</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50" s="9">
+        <v>199.2</v>
+      </c>
+      <c r="M50" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3274537681</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="4">
+        <v>101</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="9">
+        <v>299.3</v>
+      </c>
+      <c r="M51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C52" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="8">
+        <v>3274537681</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="4">
+        <v>109</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" s="9">
+        <v>225.23</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C53" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="4">
+        <v>116</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53" s="9">
+        <v>799.8</v>
+      </c>
+      <c r="M53" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C54" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" s="4">
+        <v>118</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L54" s="9">
+        <v>1100.0999999999999</v>
+      </c>
+      <c r="M54" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C55" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="4">
+        <v>110</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L55" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="M55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C56" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="8">
+        <v>3121551448</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J56" s="4">
+        <v>110</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L56" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="M56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C57" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="8">
+        <v>3245118167</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J57" s="4">
+        <v>103</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L57" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="M57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C58" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="8">
+        <v>3245118167</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58" s="4">
+        <v>105</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L58" s="9">
+        <v>349.34999999999997</v>
+      </c>
+      <c r="M58" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C59" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3245118167</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" s="4">
+        <v>117</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" s="9">
+        <v>899.9</v>
+      </c>
+      <c r="M59" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C60" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="8">
+        <v>2616312759</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J60" s="4">
+        <v>106</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L60" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="M60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C61" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="7">
+        <v>24231383</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61" s="8">
+        <v>2760426446</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61" s="4">
+        <v>117</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L61" s="9">
+        <v>899.9</v>
+      </c>
+      <c r="M61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C67" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" s="8">
+        <v>3121551448</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C68" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C69" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="8">
+        <v>2483237659</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C70" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C71" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C72" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="8">
+        <v>3121551448</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C73" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="8">
+        <v>3121551448</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C74" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="8">
+        <v>3245118167</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C75" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F75" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="8">
+        <v>2616312759</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="7">
+        <v>24231383</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="8">
+        <v>2760426446</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C79" s="4">
+        <v>104</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" s="9">
+        <v>229.23</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C80" s="4">
+        <v>103</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C81" s="4">
+        <v>110</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C82" s="4">
+        <v>106</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C83" s="4">
+        <v>113</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="9">
+        <v>389.39</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C84" s="4">
+        <v>114</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="9">
+        <v>299.3</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C85" s="4">
+        <v>106</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C86" s="4">
+        <v>107</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="9">
+        <v>199.2</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C87" s="4">
+        <v>102</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="9">
+        <v>199.2</v>
+      </c>
+      <c r="G87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C88" s="4">
+        <v>101</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="9">
+        <v>299.3</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C89" s="4">
+        <v>109</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="9">
+        <v>225.23</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C90" s="4">
+        <v>116</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="9">
+        <v>799.8</v>
+      </c>
+      <c r="G90" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C91" s="4">
+        <v>118</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1100.0999999999999</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C92" s="4">
+        <v>110</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="G92" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C93" s="4">
+        <v>110</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="G93" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C94" s="4">
+        <v>103</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="9">
+        <v>399.4</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C95" s="4">
+        <v>105</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="9">
+        <v>349.34999999999997</v>
+      </c>
+      <c r="G95" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C96" s="4">
+        <v>117</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96" s="9">
+        <v>899.9</v>
+      </c>
+      <c r="G96" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C97" s="4">
+        <v>106</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C98" s="4">
+        <v>117</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F98" s="9">
+        <v>899.9</v>
+      </c>
+      <c r="G98" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C104" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D104" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C105" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D105" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C106" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D106" s="7">
+        <v>34986131</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C107" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D107" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C108" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D108" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C109" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D109" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C110" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D110" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C111" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D111" s="7">
+        <v>37176751</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C112" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D112" s="7">
+        <v>10559773</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C113" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D113" s="7">
+        <v>24231383</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" s="8">
+        <v>3121551448</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F117" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="8">
+        <v>2483237659</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119" s="8">
+        <v>3245118167</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F120" s="8">
+        <v>2616312759</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="7">
+        <v>24231383</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" s="8">
+        <v>2760426446</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C124" s="4">
+        <v>104</v>
+      </c>
+      <c r="D124" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C125" s="4">
+        <v>103</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C126" s="4">
+        <v>110</v>
+      </c>
+      <c r="D126" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C127" s="4">
+        <v>106</v>
+      </c>
+      <c r="D127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C128" s="4">
+        <v>113</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C129" s="4">
+        <v>114</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C130" s="4">
+        <v>106</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C131" s="4">
+        <v>107</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C132" s="4">
+        <v>102</v>
+      </c>
+      <c r="D132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C133" s="4">
+        <v>101</v>
+      </c>
+      <c r="D133" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C134" s="4">
+        <v>109</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C135" s="4">
+        <v>116</v>
+      </c>
+      <c r="D135" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C136" s="4">
+        <v>118</v>
+      </c>
+      <c r="D136" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C137" s="4">
+        <v>110</v>
+      </c>
+      <c r="D137" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C138" s="4">
+        <v>110</v>
+      </c>
+      <c r="D138" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C139" s="4">
+        <v>103</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C140" s="4">
+        <v>105</v>
+      </c>
+      <c r="D140" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C141" s="4">
+        <v>117</v>
+      </c>
+      <c r="D141" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C142" s="4">
+        <v>106</v>
+      </c>
+      <c r="D142" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C143" s="4">
+        <v>117</v>
+      </c>
+      <c r="D143" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="4">
+        <v>104</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E146" s="9">
+        <v>229.23</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="4">
+        <v>103</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E147" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="4">
+        <v>110</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="4">
+        <v>106</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E149" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="4">
+        <v>113</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" s="9">
+        <v>389.39</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="4">
+        <v>114</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" s="9">
+        <v>299.3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="4">
+        <v>106</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="4">
+        <v>107</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E153" s="9">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="4">
+        <v>102</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E154" s="9">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="4">
+        <v>101</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E155" s="9">
+        <v>299.3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="4">
+        <v>109</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E156" s="9">
+        <v>225.23</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="4">
+        <v>116</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" s="9">
+        <v>799.8</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="4">
+        <v>118</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E158" s="9">
+        <v>1100.0999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="4">
+        <v>110</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E159" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="4">
+        <v>110</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E160" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="4">
+        <v>103</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E161" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="4">
+        <v>105</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E162" s="9">
+        <v>349.34999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="4">
+        <v>117</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E163" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="4">
+        <v>106</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E164" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="4">
+        <v>117</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C171" s="6">
+        <v>45050</v>
+      </c>
+      <c r="D171" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C172" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D172" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C173" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D173" s="7">
+        <v>34986131</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C174" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D174" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C175" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D175" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C176" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D176" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C177" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D177" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C178" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D178" s="7">
+        <v>37176751</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C179" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D179" s="7">
+        <v>10559773</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C180" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D180" s="7">
+        <v>24231383</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F183" s="8">
+        <v>3121551448</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F184" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F185" s="8">
+        <v>2483237659</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F186" s="8">
+        <v>3245118167</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F187" s="8">
+        <v>2616312759</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="7">
+        <v>24231383</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F188" s="8">
+        <v>2760426446</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B190" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C191" s="4">
+        <v>104</v>
+      </c>
+      <c r="D191" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C192" s="4">
+        <v>103</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C193" s="4">
+        <v>110</v>
+      </c>
+      <c r="D193" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C194" s="4">
+        <v>106</v>
+      </c>
+      <c r="D194" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C195" s="4">
+        <v>113</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C196" s="4">
+        <v>114</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C197" s="4">
+        <v>106</v>
+      </c>
+      <c r="D197" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C198" s="4">
+        <v>107</v>
+      </c>
+      <c r="D198" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C199" s="4">
+        <v>102</v>
+      </c>
+      <c r="D199" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C200" s="4">
+        <v>101</v>
+      </c>
+      <c r="D200" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C201" s="4">
+        <v>109</v>
+      </c>
+      <c r="D201" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C202" s="4">
+        <v>116</v>
+      </c>
+      <c r="D202" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C203" s="4">
+        <v>118</v>
+      </c>
+      <c r="D203" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C204" s="4">
+        <v>110</v>
+      </c>
+      <c r="D204" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C205" s="4">
+        <v>110</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C206" s="4">
+        <v>103</v>
+      </c>
+      <c r="D206" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C207" s="4">
+        <v>105</v>
+      </c>
+      <c r="D207" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C208" s="4">
+        <v>117</v>
+      </c>
+      <c r="D208" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C209" s="4">
+        <v>106</v>
+      </c>
+      <c r="D209" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C210" s="4">
+        <v>117</v>
+      </c>
+      <c r="D210" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="4">
+        <v>104</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E213" s="9">
+        <v>229.23</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="4">
+        <v>103</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E214" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="4">
+        <v>110</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E215" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="4">
+        <v>106</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E216" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="4">
+        <v>113</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E217" s="9">
+        <v>389.39</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="4">
+        <v>114</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E218" s="9">
+        <v>299.3</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="4">
+        <v>106</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E219" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="4">
+        <v>107</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E220" s="9">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="4">
+        <v>102</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E221" s="9">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="4">
+        <v>101</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E222" s="9">
+        <v>299.3</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="4">
+        <v>109</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E223" s="9">
+        <v>225.23</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="4">
+        <v>116</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E224" s="9">
+        <v>799.8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="4">
+        <v>118</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E225" s="9">
+        <v>1100.0999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="4">
+        <v>110</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E226" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="4">
+        <v>110</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E227" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="4">
+        <v>103</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E228" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="4">
+        <v>105</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E229" s="9">
+        <v>349.34999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="4">
+        <v>117</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E230" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="4">
+        <v>106</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E231" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="4">
+        <v>117</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E232" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="4">
+        <v>104</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E235" s="9">
+        <v>229.23</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="4">
+        <v>103</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E236" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="4">
+        <v>110</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E237" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="4">
+        <v>106</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E238" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="4">
+        <v>113</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E239" s="9">
+        <v>389.39</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="4">
+        <v>114</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E240" s="9">
+        <v>299.3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="4">
+        <v>106</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E241" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="4">
+        <v>107</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E242" s="9">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="4">
+        <v>102</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E243" s="9">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="4">
+        <v>101</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E244" s="9">
+        <v>299.3</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="4">
+        <v>109</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E245" s="9">
+        <v>225.23</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="4">
+        <v>116</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E246" s="9">
+        <v>799.8</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="4">
+        <v>118</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E247" s="9">
+        <v>1100.0999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248" s="4">
+        <v>110</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E248" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" s="4">
+        <v>110</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E249" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250" s="4">
+        <v>103</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E250" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="4">
+        <v>105</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E251" s="9">
+        <v>349.34999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="4">
+        <v>117</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E252" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="4">
+        <v>106</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E253" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254" s="4">
+        <v>117</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E254" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="13">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2463,21 +8803,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>2214000000</v>
@@ -2488,7 +8828,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>261</v>
@@ -2496,7 +8836,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>264</v>
@@ -2504,7 +8844,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>266</v>
@@ -2512,7 +8852,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>280</v>
@@ -2520,7 +8860,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>299</v>
@@ -2528,7 +8868,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>342</v>
@@ -2536,7 +8876,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>343</v>
@@ -2544,7 +8884,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <v>351</v>
@@ -2552,7 +8892,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>362</v>
@@ -2560,7 +8900,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>370</v>
@@ -2568,7 +8908,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>376</v>
@@ -2576,7 +8916,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>379</v>
@@ -2584,7 +8924,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15">
         <v>380</v>
@@ -2592,7 +8932,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>381</v>
@@ -2600,7 +8940,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>383</v>
@@ -2608,7 +8948,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18">
         <v>385</v>
@@ -2616,7 +8956,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>387</v>
@@ -2624,20 +8964,20 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20">
         <v>388</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20">
         <v>3886999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
+++ b/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C67EA7-FD6A-4C30-AE23-72D8EBFB4A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="2" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="DATOS_PERSONAS">TABLA_PERSONAS[[#All],[NOMBRE]:[TELÉFONO]]</definedName>
     <definedName name="DATOS_PRODUCTOS">TABLA_PRODUCTOS[[#All],[PRODUCTO]:[CÓDIGO]]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="186">
   <si>
     <t xml:space="preserve">La llave primaria es Número de Factura de venta: NUM_FAC </t>
   </si>
@@ -577,12 +576,27 @@
   </si>
   <si>
     <t>3FN</t>
+  </si>
+  <si>
+    <t>FACTURAS</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>FACTURAS_PRODUCTOS</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>PRECIOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -659,32 +673,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -699,7 +698,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -714,63 +712,337 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -785,7 +1057,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -800,77 +1071,71 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -885,35 +1150,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
@@ -928,49 +1190,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -985,35 +1243,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1028,7 +1283,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -1043,7 +1297,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1058,49 +1311,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -1115,21 +1364,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -1144,63 +1378,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1215,35 +1418,59 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1258,7 +1485,152 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
@@ -1273,77 +1645,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1358,7 +1672,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -1373,7 +1712,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1388,63 +1726,46 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
@@ -1459,36 +1780,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1503,35 +1794,34 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
@@ -1546,21 +1836,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1575,35 +1864,34 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -1618,450 +1906,38 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2095,26 +1971,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TABLA_PERSONAS" displayName="TABLA_PERSONAS" ref="A1:G21" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TABLA_PERSONAS" displayName="TABLA_PERSONAS" ref="A1:G21" totalsRowShown="0">
+  <sortState ref="A2:C21">
     <sortCondition ref="B3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="103">
+    <tableColumn id="1" name="ID" dataDxfId="100">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SEXO"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DIRECCIÓN" dataDxfId="102">
+    <tableColumn id="2" name="NOMBRE"/>
+    <tableColumn id="3" name="SEXO"/>
+    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="99">
       <calculatedColumnFormula>I2&amp;" "&amp;RANDBETWEEN(100,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DNI" dataDxfId="101">
+    <tableColumn id="5" name="DNI" dataDxfId="98">
       <calculatedColumnFormula>RANDBETWEEN(10000000,40000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CIUDAD" dataDxfId="100">
+    <tableColumn id="6" name="CIUDAD" dataDxfId="97">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="TELÉFONO" dataDxfId="99">
+    <tableColumn id="7" name="TELÉFONO" dataDxfId="96">
       <calculatedColumnFormula>RANDBETWEEN(2214000000,3886999999)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2123,99 +1999,96 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{494DB943-8D87-448C-8FEC-0F386B7118F3}" name="Tabla471011" displayName="Tabla471011" ref="B145:E165" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla471011" displayName="Tabla471011" ref="B151:E171" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="4">
-    <tableColumn id="10" xr3:uid="{589D5208-0611-4A31-8B44-17EC510B8296}" name="COD_PROD" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{C55A3B3E-B6E9-4B96-BCBA-60B42AB45579}" name="DESCRIPCION" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{F53ED72D-3C39-4235-ABA1-3340431798D3}" name="CATEGORIA" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{CB38CE5C-651C-4698-B926-4404980ADFEE}" name="VAL_UNIT" dataDxfId="31"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="29"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="28"/>
+    <tableColumn id="12" name="CATEGORIA" dataDxfId="27"/>
+    <tableColumn id="14" name="VAL_UNIT" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BED4E8BF-A8B2-48B2-8E24-91F94A357D1F}" name="Tabla46812" displayName="Tabla46812" ref="B170:D180" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B171:D180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla46812" displayName="Tabla46812" ref="B177:D187" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <sortState ref="B171:D180">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92C987B9-572A-4FDD-AB66-9A0B268FC9C1}" name="NUM_FAC" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{89F769C1-51D4-4E1F-BC4A-7BB0602AC0A4}" name="FECHA_FAC" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{936475C5-103C-476E-A5F9-744591C59F87}" name="RIF_CLIENTE" dataDxfId="24"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="23"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="22"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54B6A632-BC15-49F4-B905-B4E9DB6B3A08}" name="Tabla468913" displayName="Tabla468913" ref="B182:F188" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B183:F188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla468913" displayName="Tabla468913" ref="B190:F196" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <sortState ref="B183:F188">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{710725C8-3E71-423F-ABD8-9299818238B1}" name="RIF_CLIENTE" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{AF823D42-3A0E-4580-BD55-D8276043DF98}" name="NOM_CLIENTE" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{5425C230-63EC-4091-81C4-05FCCD6DA435}" name="DIR_CLIENTE" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{3A5EF9F9-C87A-4723-857E-C3E4D8E7D925}" name="CIUDAD_CLIENTE" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{72F7AF01-2B91-476D-917D-4CD301C293CA}" name="TELEF_CLIENTE" dataDxfId="17"/>
+    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="18"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="17"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="16"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="15"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B82541BD-BDC7-49CC-AF61-74D491245527}" name="Tabla471014" displayName="Tabla471014" ref="B190:D210" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B191:C210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla471014" displayName="Tabla471014" ref="B199:D219" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <sortState ref="B191:C210">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{55D7EE1B-69E0-4261-8CDB-64CD79D06EF2}" name="NUM_FAC" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{82692F87-AA1B-44DA-8D41-65450FAB21F6}" name="COD_PROD" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{C5024813-323B-43B9-A619-D63A1009DD4C}" name="CANT_PROD" dataDxfId="12"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="11"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="10"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0D1104EE-66A5-4F50-9A5E-2617192F8961}" name="Tabla47101115" displayName="Tabla47101115" ref="B212:E232" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <tableColumns count="4">
-    <tableColumn id="10" xr3:uid="{FA6567AC-12E8-41D9-9B33-FD52AA3EC177}" name="COD_PROD" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{C7E56863-7996-44D6-845B-28EE4485A0A2}" name="DESCRIPCION" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{4E5D3CD3-9339-4CB6-85D9-A90E3DE067A5}" name="CATEGORIA" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{45D36442-AB9A-4AF6-AA57-F9E2900E5DFA}" name="VAL_UNIT" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla47101115" displayName="Tabla47101115" ref="B222:C242" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <tableColumns count="2">
+    <tableColumn id="10" name="COD_PROD" dataDxfId="6"/>
+    <tableColumn id="14" name="VAL_UNIT" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9D62B524-F3CE-41D1-BB3A-331416D3216C}" name="Tabla4710111516" displayName="Tabla4710111516" ref="B234:E254" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="10" xr3:uid="{B70980AD-DB3B-4418-B871-1965333D6498}" name="COD_PROD" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{796A74EA-C118-4BC8-8CCE-6574A983CA18}" name="DESCRIPCION" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{43E440AB-06CF-470B-8DE9-808161D629B4}" name="CATEGORIA" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{6DC8EB27-F83B-47E8-928F-30779A0FF281}" name="VAL_UNIT" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla4710111516" displayName="Tabla4710111516" ref="B245:D265" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="10" name="COD_PROD" dataDxfId="2"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="1"/>
+    <tableColumn id="12" name="CATEGORIA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1921F91F-8D15-4780-9772-5559A0944A7F}" name="TABLA_PRODUCTOS" displayName="TABLA_PRODUCTOS" ref="A1:H19" totalsRowShown="0">
-  <autoFilter ref="A1:H19" xr:uid="{1921F91F-8D15-4780-9772-5559A0944A7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TABLA_PRODUCTOS" displayName="TABLA_PRODUCTOS" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{ACEA4DCE-9587-494B-B1F2-8D3CD40E25DC}" name="ID" dataDxfId="98">
+    <tableColumn id="7" name="ID" dataDxfId="95">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{7DFAE095-F612-409E-93CC-06999D204B18}" name="PRODUCTO"/>
-    <tableColumn id="2" xr3:uid="{A52B79BE-5378-48C3-B548-39FBB90D62D6}" name="TIENDA"/>
-    <tableColumn id="3" xr3:uid="{07CEB628-14CD-47BB-BBF7-A14DF4C5D0F5}" name="CATEGORÍA"/>
-    <tableColumn id="4" xr3:uid="{505A3BC4-1C5C-4CF0-8F53-9D77649D0DD9}" name="CANTIDAD"/>
-    <tableColumn id="5" xr3:uid="{8E76F6A6-8F97-4B97-BA6C-AE7E77D32F53}" name="UNIDAD"/>
-    <tableColumn id="6" xr3:uid="{F1ADD600-4947-4177-9C0F-38F0357E2D36}" name="PRECIO UNITARIO"/>
-    <tableColumn id="8" xr3:uid="{BD63A08E-4182-4072-9C54-20EC0051D3E3}" name="CÓDIGO" dataDxfId="69">
+    <tableColumn id="1" name="PRODUCTO"/>
+    <tableColumn id="2" name="TIENDA"/>
+    <tableColumn id="3" name="CATEGORÍA"/>
+    <tableColumn id="4" name="CANTIDAD"/>
+    <tableColumn id="5" name="UNIDAD"/>
+    <tableColumn id="6" name="PRECIO UNITARIO"/>
+    <tableColumn id="8" name="CÓDIGO" dataDxfId="94">
       <calculatedColumnFormula>TABLA_PRODUCTOS[[#This Row],[ID]]+100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2224,42 +2097,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NUM_FAC" dataDxfId="97">
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="91">
       <calculatedColumnFormula>RANDBETWEEN(1000,9999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="FECHA_FAC" dataDxfId="96">
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="90">
       <calculatedColumnFormula>RANDBETWEEN(35000,45000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOM_CLIENTE" dataDxfId="95">
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="89">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DIR_CLIENTE" dataDxfId="94">
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="88">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="RIF_CLIENTE" dataDxfId="93">
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="87">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CIUDAD_CLIENTE" dataDxfId="92">
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TELEF_CLIENTE" dataDxfId="91">
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="85">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CATEGORIA" dataDxfId="90">
+    <tableColumn id="8" name="CATEGORIA" dataDxfId="84">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="COD_PROD" dataDxfId="89">
+    <tableColumn id="9" name="COD_PROD" dataDxfId="83">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="DESCRIPCION" dataDxfId="88">
+    <tableColumn id="10" name="DESCRIPCION" dataDxfId="82">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="VAL_UNIT" dataDxfId="87">
+    <tableColumn id="11" name="VAL_UNIT" dataDxfId="81">
       <calculatedColumnFormula>ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="CANT_PROD" dataDxfId="86">
+    <tableColumn id="12" name="CANT_PROD" dataDxfId="80">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2268,102 +2141,102 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5DA96D0-3038-47FE-92FB-31F655E84A40}" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B42:M61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <sortState ref="B42:M61">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{34195B29-8A65-416A-B24B-34290E812100}" name="NUM_FAC" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{55125A51-4FA6-40C6-B715-AB88208F58DC}" name="FECHA_FAC" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{CEFEE098-ABF4-4383-A8C7-8BF29FC42296}" name="NOM_CLIENTE" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{3DB08B2F-F7AB-42CD-A241-298263E51D37}" name="DIR_CLIENTE" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{5C014075-2347-40D8-A6E9-66CD13B4B8AA}" name="RIF_CLIENTE" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{982CDD0A-7C97-4B2E-810C-2A539F963F01}" name="CIUDAD_CLIENTE" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{FCF80D46-56AC-4AA7-9B1D-599EBF82D593}" name="TELEF_CLIENTE" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{818BC37A-72AA-4588-BA11-1AF45129EBF7}" name="CATEGORIA" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{A94F4CEC-7995-4F8B-9C27-FDE5353862F4}" name="COD_PROD" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{773A62C7-788C-4727-8556-738D397A6A86}" name="DESCRIPCION" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{39D273B7-333C-4202-81F4-752BCE1C8E15}" name="VAL_UNIT" dataDxfId="72"/>
-    <tableColumn id="12" xr3:uid="{7D9A093A-31FE-4C56-90CB-3FB7DB5E86E8}" name="CANT_PROD" dataDxfId="77"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="77"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="76"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="75"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="74"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="73"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="72"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="71"/>
+    <tableColumn id="8" name="CATEGORIA" dataDxfId="70"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="69"/>
+    <tableColumn id="10" name="DESCRIPCION" dataDxfId="68"/>
+    <tableColumn id="11" name="VAL_UNIT" dataDxfId="67"/>
+    <tableColumn id="12" name="CANT_PROD" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D3075DB3-CDB8-4843-BEF5-65FE3C811892}" name="Tabla46" displayName="Tabla46" ref="B66:H76" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B67:H76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla46" displayName="Tabla46" ref="B67:H77" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <sortState ref="B67:H76">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D0753299-318A-4DC0-9A8A-4735590FECE9}" name="NUM_FAC" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{B5B8A469-A202-4A9B-92E1-54429A5E6745}" name="FECHA_FAC" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{1FC385D4-CAE4-407C-8510-B4B2AC3C1E2D}" name="NOM_CLIENTE" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{E18197CE-ABA8-4A45-87F2-A4709A76FECA}" name="DIR_CLIENTE" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{D3B1A7E0-2B57-4A44-80D0-3AD893947050}" name="RIF_CLIENTE" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{230DBF95-E9C6-4DFF-B169-5805A4278DE0}" name="CIUDAD_CLIENTE" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{4A2B5F63-8B6A-41EF-8BB3-AABC5B1AEEED}" name="TELEF_CLIENTE" dataDxfId="60"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="63"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="62"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="61"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="60"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="59"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="58"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C80757C6-FC92-4058-8F9F-DE7DA9828EB9}" name="Tabla47" displayName="Tabla47" ref="B78:G98" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B79:F98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla47" displayName="Tabla47" ref="B80:G100" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <sortState ref="B79:F98">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9F5B8E4C-E8D5-4A31-8A02-6E1BCCECD137}" name="NUM_FAC" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{CCD02200-2446-410E-A6FB-13BC4A56C2F0}" name="COD_PROD" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{BD8B3BE7-FE96-463A-9DF0-37FC012AFCB2}" name="CATEGORIA" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{EF49AB46-9E50-40B8-A7D0-00BC1A4A6F99}" name="DESCRIPCION" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{99E9B944-FC07-45CE-ACD0-5933F5F516DA}" name="VAL_UNIT" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{FC553C1B-6E50-4649-A07A-9AFEB5CA08D9}" name="CANT_PROD" dataDxfId="53"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="54"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="53"/>
+    <tableColumn id="10" name="CATEGORIA" dataDxfId="52"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="51"/>
+    <tableColumn id="12" name="VAL_UNIT" dataDxfId="50"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49CF522D-88D6-4195-9A6D-1E6C4030CC39}" name="Tabla468" displayName="Tabla468" ref="B103:D113" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B104:D113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla468" displayName="Tabla468" ref="B106:D116" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <sortState ref="B104:D113">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E289C48A-9AEE-4B4F-9636-D3C05D0E8FD1}" name="NUM_FAC" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{719FCFF8-97FC-4D41-9923-564F5C54DE92}" name="FECHA_FAC" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{922FE2FF-04B4-42AF-BFA3-92DC0CD27B8D}" name="RIF_CLIENTE" dataDxfId="47"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="46"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="45"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C486EC2B-C077-4322-9779-C221B28C11F4}" name="Tabla4689" displayName="Tabla4689" ref="B115:F121" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B116:F121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla4689" displayName="Tabla4689" ref="B119:F125" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <sortState ref="B116:F121">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C04DBF1-85C2-4328-A867-C14AB8BB87AC}" name="RIF_CLIENTE" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{0F69245A-1274-4029-A125-35E5E2C76598}" name="NOM_CLIENTE" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{BB2AD7F8-CC64-4C16-B6BF-3FE7362C9FDC}" name="DIR_CLIENTE" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{EF6DE6CC-2015-4A7F-81C6-CAC30A99DF14}" name="CIUDAD_CLIENTE" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{D8908365-C7FC-4D97-9F17-5D855A991526}" name="TELEF_CLIENTE" dataDxfId="41"/>
+    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="41"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="40"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="39"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="38"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAE383B2-D71E-454D-B405-A98C3501B112}" name="Tabla4710" displayName="Tabla4710" ref="B123:D143" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B124:C143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla4710" displayName="Tabla4710" ref="B128:D148" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <sortState ref="B124:C143">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9B22E6B9-B5D8-41FD-8EB2-22B073D19BFE}" name="NUM_FAC" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{6391C611-B3D9-4A52-9B0D-4EC8C47752A3}" name="COD_PROD" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{5CD19AFA-244E-4FFF-BFCD-CF7DA8EB1C30}" name="CANT_PROD" dataDxfId="35"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="34"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="33"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2412,7 +2285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2445,26 +2318,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2497,23 +2353,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2689,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,11 +2592,11 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D21" ca="1" si="1">I2&amp;" "&amp;RANDBETWEEN(100,1000)</f>
-        <v>Avenida Alte G Brown 806</v>
+        <v>Avenida Alte G Brown 366</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E21" ca="1" si="2">RANDBETWEEN(10000000,40000000)</f>
-        <v>34628576</v>
+        <v>36929918</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F21" si="3">J2</f>
@@ -2765,7 +2604,7 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G21" ca="1" si="4">RANDBETWEEN(2214000000,3886999999)</f>
-        <v>2247360539</v>
+        <v>2234512667</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -2796,11 +2635,11 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Altrado Storni 705</v>
+        <v>Calle Altrado Storni 317</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20275315</v>
+        <v>36980357</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="3"/>
@@ -2808,7 +2647,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3809438118</v>
+        <v>2980671618</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -2839,11 +2678,11 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Condarco 661</v>
+        <v>Calle Alvarez Condarco 179</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34452845</v>
+        <v>37896898</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -2851,7 +2690,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2796513064</v>
+        <v>3853238954</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
@@ -2882,11 +2721,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Prado 172</v>
+        <v>Calle Alvarez Prado 655</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16213502</v>
+        <v>11356942</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -2894,7 +2733,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2290290260</v>
+        <v>3665631575</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -2925,11 +2764,11 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Amancay 640</v>
+        <v>Calle Amancay 810</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15447591</v>
+        <v>10720356</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -2937,7 +2776,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3410483489</v>
+        <v>2540454082</v>
       </c>
       <c r="I6" t="s">
         <v>58</v>
@@ -2968,11 +2807,11 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Ambrosetti 431</v>
+        <v>Calle Ambrosetti 138</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16662440</v>
+        <v>22964357</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -2980,7 +2819,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3307491445</v>
+        <v>3224848742</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
@@ -3011,11 +2850,11 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Anchorena 298</v>
+        <v>Calle Anchorena 400</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12148763</v>
+        <v>39543350</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -3023,7 +2862,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3645618742</v>
+        <v>2652457596</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -3054,11 +2893,11 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andrea Zenarruza 610</v>
+        <v>Calle Andrea Zenarruza 444</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39793480</v>
+        <v>39177029</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
@@ -3066,7 +2905,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2983111160</v>
+        <v>2235603669</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
@@ -3097,11 +2936,11 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andres Bello 400</v>
+        <v>Calle Andres Bello 861</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24926649</v>
+        <v>33482871</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
@@ -3109,7 +2948,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2772977508</v>
+        <v>2390447669</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -3140,11 +2979,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antartida Argentina 766</v>
+        <v>Calle Antartida Argentina 248</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13295249</v>
+        <v>36697513</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -3152,7 +2991,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2509762476</v>
+        <v>3649606285</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -3183,11 +3022,11 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Avenida Antenor Sajama 250</v>
+        <v>Avenida Antenor Sajama 777</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28194560</v>
+        <v>24719698</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -3195,7 +3034,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2469892083</v>
+        <v>3310206577</v>
       </c>
       <c r="I12" t="s">
         <v>64</v>
@@ -3226,11 +3065,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Forestieri 936</v>
+        <v>Calle Antonio Forestieri 141</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19001005</v>
+        <v>35155569</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
@@ -3238,7 +3077,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3428919107</v>
+        <v>2953854060</v>
       </c>
       <c r="I13" t="s">
         <v>65</v>
@@ -3269,11 +3108,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Garibaldi 468</v>
+        <v>Calle Antonio Garibaldi 498</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19057160</v>
+        <v>27659252</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -3281,7 +3120,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3378116443</v>
+        <v>2484126170</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -3312,11 +3151,11 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Marcon 377</v>
+        <v>Calle Antonio Marcon 822</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39056085</v>
+        <v>19845393</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -3324,7 +3163,7 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3416381468</v>
+        <v>3375842668</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
@@ -3355,11 +3194,11 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenales 854</v>
+        <v>Calle Arenales 125</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25465467</v>
+        <v>18198414</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -3367,7 +3206,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3439491274</v>
+        <v>3185941834</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
@@ -3398,11 +3237,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenas 424</v>
+        <v>Calle Arenas 939</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18719939</v>
+        <v>24738115</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -3410,7 +3249,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3295209874</v>
+        <v>3369585578</v>
       </c>
       <c r="I17" t="s">
         <v>69</v>
@@ -3441,11 +3280,11 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argañaraz 494</v>
+        <v>Calle Argañaraz 276</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16289868</v>
+        <v>33734435</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -3453,7 +3292,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3533406168</v>
+        <v>3595879830</v>
       </c>
       <c r="I18" t="s">
         <v>70</v>
@@ -3484,11 +3323,11 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argerich 435</v>
+        <v>Calle Argerich 851</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20411869</v>
+        <v>21516721</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -3496,7 +3335,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3677684150</v>
+        <v>2810245934</v>
       </c>
       <c r="I19" t="s">
         <v>71</v>
@@ -3527,11 +3366,11 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arismendi 458</v>
+        <v>Calle Arismendi 780</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33736584</v>
+        <v>35583464</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -3539,7 +3378,7 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2288272984</v>
+        <v>3038034250</v>
       </c>
       <c r="I20" t="s">
         <v>72</v>
@@ -3570,11 +3409,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Pasaje Arrayanal 998</v>
+        <v>Pasaje Arrayanal 824</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34686130</v>
+        <v>17995582</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -3582,7 +3421,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3390083707</v>
+        <v>3481018820</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
@@ -3625,7 +3464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4180,11 +4019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:O254"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,39 +4188,39 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" ref="B18:B37" ca="1" si="0">RANDBETWEEN(1000,9999)</f>
-        <v>2979</v>
+        <v>7160</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18:C31" ca="1" si="1">RANDBETWEEN(35000,45000)</f>
-        <v>40954</v>
+        <v>37641</v>
       </c>
       <c r="D18" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>María</v>
+        <v>Mateo</v>
       </c>
       <c r="E18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Andrea Zenarruza 610</v>
+        <v>Calle Antartida Argentina 248</v>
       </c>
       <c r="F18" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>39793480</v>
+        <v>36697513</v>
       </c>
       <c r="G18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Corrientes</v>
+        <v>Resistencia</v>
       </c>
       <c r="H18" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2983111160</v>
+        <v>3649606285</v>
       </c>
       <c r="I18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J18" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Yogur</v>
+        <v>Naranjas</v>
       </c>
       <c r="K18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -4389,99 +4228,99 @@
       </c>
       <c r="L18" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>499.5</v>
+        <v>299.3</v>
       </c>
       <c r="M18" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3402</v>
+        <v>3432</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36150</v>
+        <v>36912</v>
       </c>
       <c r="D19" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Santiago</v>
+        <v>Benjamín</v>
       </c>
       <c r="E19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Alte G Brown 806</v>
+        <v>Calle Altrado Storni 317</v>
       </c>
       <c r="F19" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>34628576</v>
+        <v>36980357</v>
       </c>
       <c r="G19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Buenos Aires</v>
+        <v>Córdoba</v>
       </c>
       <c r="H19" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2247360539</v>
+        <v>2980671618</v>
       </c>
       <c r="I19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J19" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Calabaza</v>
+        <v>Requesón</v>
       </c>
       <c r="K19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L19" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>150.15</v>
+        <v>389.39</v>
       </c>
       <c r="M19" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7816</v>
+        <v>6217</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35440</v>
+        <v>41311</v>
       </c>
       <c r="D20" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Lucía</v>
+        <v>Benjamín</v>
       </c>
       <c r="E20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Anchorena 298</v>
+        <v>Calle Altrado Storni 317</v>
       </c>
       <c r="F20" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>12148763</v>
+        <v>36980357</v>
       </c>
       <c r="G20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santa Fe</v>
+        <v>Córdoba</v>
       </c>
       <c r="H20" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3645618742</v>
+        <v>2980671618</v>
       </c>
       <c r="I20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4489,7 +4328,7 @@
       </c>
       <c r="J20" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v xml:space="preserve">Leche </v>
+        <v>Huevos</v>
       </c>
       <c r="K20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -4497,7 +4336,7 @@
       </c>
       <c r="L20" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>350.35</v>
       </c>
       <c r="M20" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -4505,37 +4344,37 @@
       </c>
       <c r="O20">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7544</v>
+        <v>8188</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>41740</v>
+        <v>44347</v>
       </c>
       <c r="D21" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Juan</v>
+        <v>Sofía</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Ambrosetti 431</v>
+        <v>Calle Arenas 939</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>16662440</v>
+        <v>24738115</v>
       </c>
       <c r="G21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Salta</v>
+        <v>Santiago del Estero</v>
       </c>
       <c r="H21" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3307491445</v>
+        <v>3369585578</v>
       </c>
       <c r="I21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4543,7 +4382,7 @@
       </c>
       <c r="J21" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Lechuga</v>
+        <v>Tomates</v>
       </c>
       <c r="K21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -4551,65 +4390,65 @@
       </c>
       <c r="L21" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>229.23</v>
+        <v>349.34999999999997</v>
       </c>
       <c r="M21" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5958</v>
+        <v>3438</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43228</v>
+        <v>38475</v>
       </c>
       <c r="D22" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Catalina</v>
+        <v>Matías</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Alvarez Condarco 661</v>
+        <v>Avenida Antenor Sajama 777</v>
       </c>
       <c r="F22" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>34452845</v>
+        <v>24719698</v>
       </c>
       <c r="G22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Rosario</v>
+        <v>Posadas</v>
       </c>
       <c r="H22" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2796513064</v>
+        <v>3310206577</v>
       </c>
       <c r="I22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Vegetales</v>
       </c>
       <c r="J22" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Cangrejo</v>
+        <v>Plátanos</v>
       </c>
       <c r="K22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Artículos</v>
       </c>
       <c r="L22" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>1100.0999999999999</v>
+        <v>399.4</v>
       </c>
       <c r="M22" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -4619,101 +4458,101 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5676</v>
+        <v>8560</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42362</v>
+        <v>38073</v>
       </c>
       <c r="D23" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Lucía</v>
+        <v>Thiago</v>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Anchorena 298</v>
+        <v>Calle Argañaraz 276</v>
       </c>
       <c r="F23" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>12148763</v>
+        <v>33734435</v>
       </c>
       <c r="G23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santa Fe</v>
+        <v>Gregorio de Laferrere</v>
       </c>
       <c r="H23" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3645618742</v>
+        <v>3595879830</v>
       </c>
       <c r="I23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J23" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v xml:space="preserve">Leche </v>
+        <v>Cangrejo</v>
       </c>
       <c r="K23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Pescadería</v>
       </c>
       <c r="L23" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>1100.0999999999999</v>
       </c>
       <c r="M23" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8327</v>
+        <v>4876</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39902</v>
+        <v>43689</v>
       </c>
       <c r="D24" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Nicolás</v>
+        <v>Catalina</v>
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Forestieri 936</v>
+        <v>Calle Alvarez Condarco 179</v>
       </c>
       <c r="F24" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>19001005</v>
+        <v>37896898</v>
       </c>
       <c r="G24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Merlo</v>
+        <v>Rosario</v>
       </c>
       <c r="H24" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3428919107</v>
+        <v>3853238954</v>
       </c>
       <c r="I24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J24" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Huevos</v>
+        <v>Calabaza</v>
       </c>
       <c r="K24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Mercado</v>
       </c>
       <c r="L24" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>350.35</v>
+        <v>150.15</v>
       </c>
       <c r="M24" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -4727,97 +4566,97 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8701</v>
+        <v>4549</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38713</v>
+        <v>44760</v>
       </c>
       <c r="D25" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
+        <v>Santiago</v>
       </c>
       <c r="E25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 468</v>
+        <v>Avenida Alte G Brown 366</v>
       </c>
       <c r="F25" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>19057160</v>
+        <v>36929918</v>
       </c>
       <c r="G25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
+        <v>Buenos Aires</v>
       </c>
       <c r="H25" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3378116443</v>
+        <v>2234512667</v>
       </c>
       <c r="I25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Carne</v>
+        <v>Vegetales</v>
       </c>
       <c r="J25" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Ternera</v>
+        <v>Setas</v>
       </c>
       <c r="K25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Artículos</v>
       </c>
       <c r="L25" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>799.8</v>
+        <v>225.23</v>
       </c>
       <c r="M25" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="O25">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5118</v>
+        <v>4603</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>41439</v>
+        <v>41498</v>
       </c>
       <c r="D26" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Tomás</v>
+        <v>Juan</v>
       </c>
       <c r="E26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argerich 435</v>
+        <v>Calle Ambrosetti 138</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>20411869</v>
+        <v>22964357</v>
       </c>
       <c r="G26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>José C. Paz</v>
+        <v>Salta</v>
       </c>
       <c r="H26" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3677684150</v>
+        <v>3224848742</v>
       </c>
       <c r="I26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J26" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Plátanos</v>
+        <v xml:space="preserve">Leche </v>
       </c>
       <c r="K26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L26" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
@@ -4825,7 +4664,7 @@
       </c>
       <c r="M26" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -4835,51 +4674,51 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4219</v>
+        <v>4670</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42811</v>
+        <v>44297</v>
       </c>
       <c r="D27" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Emilia</v>
+        <v>Mateo</v>
       </c>
       <c r="E27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Amancay 640</v>
+        <v>Calle Antartida Argentina 248</v>
       </c>
       <c r="F27" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>15447591</v>
+        <v>36697513</v>
       </c>
       <c r="G27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Miguel de Tucumán</v>
+        <v>Resistencia</v>
       </c>
       <c r="H27" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3410483489</v>
+        <v>3649606285</v>
       </c>
       <c r="I27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J27" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v xml:space="preserve">Leche </v>
+        <v>Salmón</v>
       </c>
       <c r="K27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Pescadería</v>
       </c>
       <c r="L27" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>899.9</v>
       </c>
       <c r="M27" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O27">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -4889,31 +4728,31 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4923</v>
+        <v>7389</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39950</v>
+        <v>38993</v>
       </c>
       <c r="D28" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Thiago</v>
+        <v>Tomás</v>
       </c>
       <c r="E28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argañaraz 494</v>
+        <v>Calle Argerich 851</v>
       </c>
       <c r="F28" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>16289868</v>
+        <v>21516721</v>
       </c>
       <c r="G28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Gregorio de Laferrere</v>
+        <v>José C. Paz</v>
       </c>
       <c r="H28" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3533406168</v>
+        <v>2810245934</v>
       </c>
       <c r="I28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4921,15 +4760,15 @@
       </c>
       <c r="J28" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Yogur</v>
+        <v>Requesón</v>
       </c>
       <c r="K28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L28" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>499.5</v>
+        <v>389.39</v>
       </c>
       <c r="M28" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -4937,37 +4776,37 @@
       </c>
       <c r="O28">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2812</v>
+        <v>1126</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40302</v>
+        <v>42984</v>
       </c>
       <c r="D29" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
+        <v>Sofía</v>
       </c>
       <c r="E29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 468</v>
+        <v>Calle Arenas 939</v>
       </c>
       <c r="F29" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>19057160</v>
+        <v>24738115</v>
       </c>
       <c r="G29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
+        <v>Santiago del Estero</v>
       </c>
       <c r="H29" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3378116443</v>
+        <v>3369585578</v>
       </c>
       <c r="I29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4975,15 +4814,15 @@
       </c>
       <c r="J29" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Pepino</v>
+        <v>Plátanos</v>
       </c>
       <c r="K29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Artículos</v>
       </c>
       <c r="L29" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>229.23</v>
+        <v>399.4</v>
       </c>
       <c r="M29" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -4997,51 +4836,51 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9790</v>
+        <v>9825</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44022</v>
+        <v>44006</v>
       </c>
       <c r="D30" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Emilia</v>
+        <v>Juan</v>
       </c>
       <c r="E30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Amancay 640</v>
+        <v>Calle Ambrosetti 138</v>
       </c>
       <c r="F30" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>15447591</v>
+        <v>22964357</v>
       </c>
       <c r="G30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Miguel de Tucumán</v>
+        <v>Salta</v>
       </c>
       <c r="H30" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3410483489</v>
+        <v>3224848742</v>
       </c>
       <c r="I30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Lácteos</v>
       </c>
       <c r="J30" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Salmón</v>
+        <v xml:space="preserve">Leche </v>
       </c>
       <c r="K30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L30" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>899.9</v>
+        <v>399.4</v>
       </c>
       <c r="M30" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -5051,105 +4890,105 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5724</v>
+        <v>7841</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40830</v>
+        <v>36476</v>
       </c>
       <c r="D31" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Martina</v>
+        <v>Benjamín</v>
       </c>
       <c r="E31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Andres Bello 400</v>
+        <v>Calle Altrado Storni 317</v>
       </c>
       <c r="F31" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24926649</v>
+        <v>36980357</v>
       </c>
       <c r="G31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Bahía Blanca</v>
+        <v>Córdoba</v>
       </c>
       <c r="H31" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2772977508</v>
+        <v>2980671618</v>
       </c>
       <c r="I31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Marisco</v>
       </c>
       <c r="J31" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Naranjas</v>
+        <v>Cangrejo</v>
       </c>
       <c r="K31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Pescadería</v>
       </c>
       <c r="L31" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>1100.0999999999999</v>
       </c>
       <c r="M31" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O31">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8853</v>
+        <v>8784</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" ref="C32:C37" ca="1" si="2">RANDBETWEEN(35000,45000)</f>
-        <v>40147</v>
+        <v>35954</v>
       </c>
       <c r="D32" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Zoe</v>
+        <v>María</v>
       </c>
       <c r="E32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Pasaje Arrayanal 998</v>
+        <v>Calle Andrea Zenarruza 444</v>
       </c>
       <c r="F32" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>34686130</v>
+        <v>39177029</v>
       </c>
       <c r="G32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Banfield</v>
+        <v>Corrientes</v>
       </c>
       <c r="H32" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3390083707</v>
+        <v>2235603669</v>
       </c>
       <c r="I32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J32" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Crema agria</v>
+        <v>Salmón</v>
       </c>
       <c r="K32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Pescadería</v>
       </c>
       <c r="L32" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>899.9</v>
       </c>
       <c r="M32" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O32">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -5159,31 +4998,31 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6338</v>
+        <v>8457</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>44045</v>
+        <v>37810</v>
       </c>
       <c r="D33" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Valentina</v>
+        <v>Tomás</v>
       </c>
       <c r="E33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arismendi 458</v>
+        <v>Calle Argerich 851</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>33736584</v>
+        <v>21516721</v>
       </c>
       <c r="G33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Paraná</v>
+        <v>José C. Paz</v>
       </c>
       <c r="H33" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2288272984</v>
+        <v>2810245934</v>
       </c>
       <c r="I33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -5191,7 +5030,7 @@
       </c>
       <c r="J33" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Apio</v>
+        <v>Setas</v>
       </c>
       <c r="K33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -5199,61 +5038,61 @@
       </c>
       <c r="L33" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>199.2</v>
+        <v>225.23</v>
       </c>
       <c r="M33" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O33">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2009</v>
+        <v>8907</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>36023</v>
+        <v>44824</v>
       </c>
       <c r="D34" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Santiago</v>
+        <v>Nicolás</v>
       </c>
       <c r="E34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Alte G Brown 806</v>
+        <v>Calle Antonio Forestieri 141</v>
       </c>
       <c r="F34" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>34628576</v>
+        <v>35155569</v>
       </c>
       <c r="G34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Buenos Aires</v>
+        <v>Merlo</v>
       </c>
       <c r="H34" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2247360539</v>
+        <v>2953854060</v>
       </c>
       <c r="I34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J34" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Yogur</v>
+        <v>Pepino</v>
       </c>
       <c r="K34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L34" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>499.5</v>
+        <v>229.23</v>
       </c>
       <c r="M34" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -5261,37 +5100,37 @@
       </c>
       <c r="O34">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9275</v>
+        <v>2562</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>39569</v>
+        <v>37880</v>
       </c>
       <c r="D35" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Tomás</v>
+        <v>Pedro</v>
       </c>
       <c r="E35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argerich 435</v>
+        <v>Calle Antonio Marcon 822</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>20411869</v>
+        <v>19845393</v>
       </c>
       <c r="G35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>José C. Paz</v>
+        <v>San Salvador de Jujuy</v>
       </c>
       <c r="H35" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3677684150</v>
+        <v>3375842668</v>
       </c>
       <c r="I35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -5315,57 +5154,57 @@
       </c>
       <c r="O35">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1215</v>
+        <v>7530</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>36985</v>
+        <v>43373</v>
       </c>
       <c r="D36" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Matías</v>
+        <v>Emilia</v>
       </c>
       <c r="E36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Antenor Sajama 250</v>
+        <v>Calle Amancay 810</v>
       </c>
       <c r="F36" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>28194560</v>
+        <v>10720356</v>
       </c>
       <c r="G36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Posadas</v>
+        <v>San Miguel de Tucumán</v>
       </c>
       <c r="H36" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2469892083</v>
+        <v>2540454082</v>
       </c>
       <c r="I36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J36" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Huevos</v>
+        <v>Plátanos</v>
       </c>
       <c r="K36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Artículos</v>
       </c>
       <c r="L36" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>350.35</v>
+        <v>399.4</v>
       </c>
       <c r="M36" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -5375,51 +5214,51 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5014</v>
+        <v>8559</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>42102</v>
+        <v>42285</v>
       </c>
       <c r="D37" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Pedro</v>
+        <v>Paula</v>
       </c>
       <c r="E37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Marcon 377</v>
+        <v>Calle Antonio Garibaldi 498</v>
       </c>
       <c r="F37" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>39056085</v>
+        <v>27659252</v>
       </c>
       <c r="G37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Salvador de Jujuy</v>
+        <v>Quilmes</v>
       </c>
       <c r="H37" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3416381468</v>
+        <v>2484126170</v>
       </c>
       <c r="I37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J37" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Lechuga</v>
+        <v>Crema agria</v>
       </c>
       <c r="K37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L37" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>229.23</v>
+        <v>299.3</v>
       </c>
       <c r="M37" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -6260,126 +6099,108 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C67" s="6">
-        <v>45050</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" s="7">
-        <v>30315651</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H67" s="8">
-        <v>3121551448</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C68" s="6">
-        <v>45051</v>
+        <v>45050</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F68" s="7">
-        <v>39687295</v>
+        <v>30315651</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H68" s="8">
-        <v>3274537681</v>
+        <v>3121551448</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C69" s="6">
         <v>45051</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F69" s="7">
-        <v>34986131</v>
+        <v>39687295</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H69" s="8">
-        <v>2483237659</v>
+        <v>3274537681</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C70" s="6">
-        <v>45052</v>
+        <v>45051</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F70" s="7">
-        <v>39687295</v>
+        <v>34986131</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H70" s="8">
-        <v>3274537681</v>
+        <v>2483237659</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C71" s="6">
-        <v>45053</v>
+        <v>45052</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>38</v>
@@ -6399,30 +6220,30 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C72" s="6">
         <v>45053</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F72" s="7">
-        <v>30315651</v>
+        <v>39687295</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H72" s="8">
-        <v>3121551448</v>
+        <v>3274537681</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C73" s="6">
         <v>45053</v>
@@ -6445,131 +6266,128 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C74" s="6">
-        <v>45054</v>
+        <v>45053</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F74" s="7">
-        <v>37176751</v>
+        <v>30315651</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" s="8">
-        <v>3245118167</v>
+        <v>3121551448</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C75" s="6">
-        <v>45055</v>
+        <v>45054</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F75" s="7">
-        <v>10559773</v>
+        <v>37176751</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H75" s="8">
-        <v>2616312759</v>
+        <v>3245118167</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C76" s="6">
         <v>45055</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="8">
+        <v>2616312759</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C77" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>24231383</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H77" s="8">
         <v>2760426446</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C79" s="4">
-        <v>104</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79" s="9">
-        <v>229.23</v>
-      </c>
-      <c r="G79" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C80" s="4">
-        <v>103</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="9">
-        <v>399.4</v>
-      </c>
-      <c r="G80" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -6577,16 +6395,16 @@
         <v>1001</v>
       </c>
       <c r="C81" s="4">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F81" s="9">
-        <v>399.4</v>
+        <v>229.23</v>
       </c>
       <c r="G81" s="4">
         <v>2</v>
@@ -6594,42 +6412,42 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C82" s="4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F82" s="9">
-        <v>150.15</v>
+        <v>399.4</v>
       </c>
       <c r="G82" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C83" s="4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F83" s="9">
-        <v>389.39</v>
+        <v>399.4</v>
       </c>
       <c r="G83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -6637,96 +6455,96 @@
         <v>1002</v>
       </c>
       <c r="C84" s="4">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F84" s="9">
-        <v>299.3</v>
+        <v>150.15</v>
       </c>
       <c r="G84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C85" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F85" s="9">
-        <v>150.15</v>
+        <v>389.39</v>
       </c>
       <c r="G85" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C86" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F86" s="9">
-        <v>199.2</v>
+        <v>299.3</v>
       </c>
       <c r="G86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C87" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F87" s="9">
-        <v>199.2</v>
+        <v>150.15</v>
       </c>
       <c r="G87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C88" s="4">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F88" s="9">
-        <v>299.3</v>
+        <v>199.2</v>
       </c>
       <c r="G88" s="4">
         <v>2</v>
@@ -6734,142 +6552,142 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C89" s="4">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F89" s="9">
-        <v>225.23</v>
+        <v>199.2</v>
       </c>
       <c r="G89" s="4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C90" s="4">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F90" s="9">
-        <v>799.8</v>
+        <v>299.3</v>
       </c>
       <c r="G90" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C91" s="4">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F91" s="9">
-        <v>1100.0999999999999</v>
+        <v>225.23</v>
       </c>
       <c r="G91" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C92" s="4">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F92" s="9">
-        <v>399.4</v>
+        <v>799.8</v>
       </c>
       <c r="G92" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C93" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F93" s="9">
-        <v>399.4</v>
+        <v>1100.0999999999999</v>
       </c>
       <c r="G93" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C94" s="4">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F94" s="9">
         <v>399.4</v>
       </c>
       <c r="G94" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C95" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F95" s="9">
-        <v>349.34999999999997</v>
+        <v>399.4</v>
       </c>
       <c r="G95" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -6877,44 +6695,44 @@
         <v>1008</v>
       </c>
       <c r="C96" s="4">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F96" s="9">
-        <v>899.9</v>
+        <v>399.4</v>
       </c>
       <c r="G96" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C97" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F97" s="9">
-        <v>150.15</v>
+        <v>349.34999999999997</v>
       </c>
       <c r="G97" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C98" s="4">
         <v>117</v>
@@ -6932,72 +6750,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C99" s="4">
+        <v>106</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="9">
+        <v>150.15</v>
+      </c>
+      <c r="G99" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C100" s="4">
+        <v>117</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="9">
+        <v>899.9</v>
+      </c>
+      <c r="G100" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C104" s="6">
-        <v>45050</v>
-      </c>
-      <c r="D104" s="7">
-        <v>30315651</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C105" s="6">
-        <v>45051</v>
-      </c>
-      <c r="D105" s="7">
-        <v>39687295</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="4">
-        <v>1003</v>
-      </c>
-      <c r="C106" s="6">
-        <v>45051</v>
-      </c>
-      <c r="D106" s="7">
-        <v>34986131</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C107" s="6">
-        <v>45052</v>
+        <v>45050</v>
       </c>
       <c r="D107" s="7">
-        <v>39687295</v>
+        <v>30315651</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="4">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C108" s="6">
-        <v>45053</v>
+        <v>45051</v>
       </c>
       <c r="D108" s="7">
         <v>39687295</v>
@@ -7005,272 +6835,272 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="4">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C109" s="6">
-        <v>45053</v>
+        <v>45051</v>
       </c>
       <c r="D109" s="7">
-        <v>30315651</v>
+        <v>34986131</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C110" s="6">
-        <v>45053</v>
+        <v>45052</v>
       </c>
       <c r="D110" s="7">
-        <v>30315651</v>
+        <v>39687295</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C111" s="6">
-        <v>45054</v>
+        <v>45053</v>
       </c>
       <c r="D111" s="7">
-        <v>37176751</v>
+        <v>39687295</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C112" s="6">
-        <v>45055</v>
+        <v>45053</v>
       </c>
       <c r="D112" s="7">
-        <v>10559773</v>
+        <v>30315651</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C113" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D113" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C114" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D114" s="7">
+        <v>37176751</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C115" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D115" s="7">
+        <v>10559773</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
         <v>1010</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C116" s="6">
         <v>45055</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D116" s="7">
         <v>24231383</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="11" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="7">
-        <v>30315651</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F116" s="8">
-        <v>3121551448</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="7">
-        <v>39687295</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F117" s="8">
-        <v>3274537681</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="7">
-        <v>34986131</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F118" s="8">
-        <v>2483237659</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="7">
-        <v>37176751</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F119" s="8">
-        <v>3245118167</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
-        <v>10559773</v>
+        <v>30315651</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F120" s="8">
-        <v>2616312759</v>
+        <v>3121551448</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F121" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="8">
+        <v>2483237659</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="8">
+        <v>3245118167</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F124" s="8">
+        <v>2616312759</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="7">
         <v>24231383</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D125" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E125" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F125" s="8">
         <v>2760426446</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C124" s="4">
-        <v>104</v>
-      </c>
-      <c r="D124" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C125" s="4">
-        <v>103</v>
-      </c>
-      <c r="D125" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C126" s="4">
-        <v>110</v>
-      </c>
-      <c r="D126" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C127" s="4">
-        <v>106</v>
-      </c>
-      <c r="D127" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C128" s="4">
-        <v>113</v>
-      </c>
-      <c r="D128" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C129" s="4">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D129" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="4">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C130" s="4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D130" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="4">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C131" s="4">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D131" s="4">
         <v>2</v>
@@ -7278,76 +7108,76 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C132" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D132" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="4">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C133" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D133" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C134" s="4">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D134" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="4">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C135" s="4">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D135" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C136" s="4">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D136" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C137" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D137" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="4">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C138" s="4">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D138" s="4">
         <v>2</v>
@@ -7355,43 +7185,43 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="4">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C139" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D139" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="4">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C140" s="4">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D140" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="4">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C141" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D141" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="4">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C142" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D142" s="4">
         <v>2</v>
@@ -7399,1276 +7229,1077 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="4">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C143" s="4">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D143" s="4">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C144" s="4">
+        <v>103</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>20</v>
+      <c r="B145" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C145" s="4">
+        <v>105</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="4">
-        <v>104</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E146" s="9">
-        <v>229.23</v>
+        <v>1008</v>
+      </c>
+      <c r="C146" s="4">
+        <v>117</v>
+      </c>
+      <c r="D146" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="4">
-        <v>103</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E147" s="9">
-        <v>399.4</v>
+        <v>1009</v>
+      </c>
+      <c r="C147" s="4">
+        <v>106</v>
+      </c>
+      <c r="D147" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="4">
-        <v>110</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E148" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="4">
-        <v>106</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E149" s="9">
-        <v>150.15</v>
+        <v>1010</v>
+      </c>
+      <c r="C148" s="4">
+        <v>117</v>
+      </c>
+      <c r="D148" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="4">
-        <v>113</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E150" s="9">
-        <v>389.39</v>
+      <c r="B150" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="4">
-        <v>114</v>
+      <c r="B151" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E151" s="9">
-        <v>299.3</v>
+        <v>14</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="4">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E152" s="9">
-        <v>150.15</v>
+        <v>229.23</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E153" s="9">
-        <v>199.2</v>
+        <v>399.4</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="4">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E154" s="9">
-        <v>199.2</v>
+        <v>399.4</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E155" s="9">
-        <v>299.3</v>
+        <v>150.15</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E156" s="9">
-        <v>225.23</v>
+        <v>389.39</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E157" s="9">
-        <v>799.8</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="4">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E158" s="9">
-        <v>1100.0999999999999</v>
+        <v>150.15</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="4">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E159" s="9">
-        <v>399.4</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E160" s="9">
-        <v>399.4</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="4">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E161" s="9">
-        <v>399.4</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E162" s="9">
-        <v>349.34999999999997</v>
+        <v>225.23</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E163" s="9">
-        <v>899.9</v>
+        <v>799.8</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="4">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E164" s="9">
-        <v>150.15</v>
+        <v>1100.0999999999999</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="4">
+        <v>110</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="4">
+        <v>110</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="4">
+        <v>103</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E167" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="4">
+        <v>105</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E168" s="9">
+        <v>349.34999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="4">
         <v>117</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E169" s="9">
         <v>899.9</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="11" t="s">
-        <v>1</v>
+      <c r="B170" s="4">
+        <v>106</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="E170" s="9">
+        <v>150.15</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C171" s="6">
-        <v>45050</v>
-      </c>
-      <c r="D171" s="7">
-        <v>30315651</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C172" s="6">
-        <v>45051</v>
-      </c>
-      <c r="D172" s="7">
-        <v>39687295</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="4">
-        <v>1003</v>
-      </c>
-      <c r="C173" s="6">
-        <v>45051</v>
-      </c>
-      <c r="D173" s="7">
-        <v>34986131</v>
+        <v>117</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E171" s="9">
+        <v>899.9</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="4">
-        <v>1004</v>
-      </c>
-      <c r="C174" s="6">
-        <v>45052</v>
-      </c>
-      <c r="D174" s="7">
-        <v>39687295</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="4">
-        <v>1005</v>
-      </c>
-      <c r="C175" s="6">
-        <v>45053</v>
-      </c>
-      <c r="D175" s="7">
-        <v>39687295</v>
+      <c r="B174" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="4">
-        <v>1006</v>
-      </c>
-      <c r="C176" s="6">
-        <v>45053</v>
-      </c>
-      <c r="D176" s="7">
-        <v>30315651</v>
+      <c r="B176" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="4">
-        <v>1007</v>
-      </c>
-      <c r="C177" s="6">
-        <v>45053</v>
-      </c>
-      <c r="D177" s="7">
-        <v>30315651</v>
+      <c r="B177" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="4">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="C178" s="6">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="D178" s="7">
-        <v>37176751</v>
+        <v>30315651</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="4">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C179" s="6">
-        <v>45055</v>
+        <v>45051</v>
       </c>
       <c r="D179" s="7">
-        <v>10559773</v>
+        <v>39687295</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C180" s="6">
+        <v>45051</v>
+      </c>
+      <c r="D180" s="7">
+        <v>34986131</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C181" s="6">
+        <v>45052</v>
+      </c>
+      <c r="D181" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C182" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D182" s="7">
+        <v>39687295</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C183" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D183" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C184" s="6">
+        <v>45053</v>
+      </c>
+      <c r="D184" s="7">
+        <v>30315651</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C185" s="6">
+        <v>45054</v>
+      </c>
+      <c r="D185" s="7">
+        <v>37176751</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C186" s="6">
+        <v>45055</v>
+      </c>
+      <c r="D186" s="7">
+        <v>10559773</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="4">
         <v>1010</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C187" s="6">
         <v>45055</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D187" s="7">
         <v>24231383</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="7">
-        <v>30315651</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F183" s="8">
-        <v>3121551448</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="7">
-        <v>39687295</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F184" s="8">
-        <v>3274537681</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="7">
-        <v>34986131</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F185" s="8">
-        <v>2483237659</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186" s="7">
-        <v>37176751</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F186" s="8">
-        <v>3245118167</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B187" s="7">
-        <v>10559773</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F187" s="8">
-        <v>2616312759</v>
-      </c>
-    </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B188" s="7">
-        <v>24231383</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F188" s="8">
-        <v>2760426446</v>
+      <c r="B188" s="4"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="7">
+        <v>30315651</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F191" s="8">
+        <v>3121551448</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="7">
+        <v>39687295</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F192" s="8">
+        <v>3274537681</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="7">
+        <v>34986131</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F193" s="8">
+        <v>2483237659</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="7">
+        <v>37176751</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F194" s="8">
+        <v>3245118167</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="7">
+        <v>10559773</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F195" s="8">
+        <v>2616312759</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="7">
+        <v>24231383</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F196" s="8">
+        <v>2760426446</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C199" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D199" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" s="4">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="4">
         <v>1001</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C200" s="4">
         <v>104</v>
-      </c>
-      <c r="D191" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C192" s="4">
-        <v>103</v>
-      </c>
-      <c r="D192" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C193" s="4">
-        <v>110</v>
-      </c>
-      <c r="D193" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C194" s="4">
-        <v>106</v>
-      </c>
-      <c r="D194" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C195" s="4">
-        <v>113</v>
-      </c>
-      <c r="D195" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C196" s="4">
-        <v>114</v>
-      </c>
-      <c r="D196" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="4">
-        <v>1003</v>
-      </c>
-      <c r="C197" s="4">
-        <v>106</v>
-      </c>
-      <c r="D197" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="4">
-        <v>1003</v>
-      </c>
-      <c r="C198" s="4">
-        <v>107</v>
-      </c>
-      <c r="D198" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="4">
-        <v>1004</v>
-      </c>
-      <c r="C199" s="4">
-        <v>102</v>
-      </c>
-      <c r="D199" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="4">
-        <v>1004</v>
-      </c>
-      <c r="C200" s="4">
-        <v>101</v>
       </c>
       <c r="D200" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="4">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C201" s="4">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D201" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="4">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C202" s="4">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D202" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="4">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C203" s="4">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D203" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="4">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C204" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C205" s="4">
+        <v>114</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C206" s="4">
+        <v>106</v>
+      </c>
+      <c r="D206" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="4">
-        <v>1007</v>
-      </c>
-      <c r="C205" s="4">
-        <v>110</v>
-      </c>
-      <c r="D205" s="4">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C207" s="4">
+        <v>107</v>
+      </c>
+      <c r="D207" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C206" s="4">
-        <v>103</v>
-      </c>
-      <c r="D206" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C207" s="4">
-        <v>105</v>
-      </c>
-      <c r="D207" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="4">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C208" s="4">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D208" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="4">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C209" s="4">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D209" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C210" s="4">
+        <v>109</v>
+      </c>
+      <c r="D210" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C211" s="4">
+        <v>116</v>
+      </c>
+      <c r="D211" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C212" s="4">
+        <v>118</v>
+      </c>
+      <c r="D212" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C213" s="4">
+        <v>110</v>
+      </c>
+      <c r="D213" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C214" s="4">
+        <v>110</v>
+      </c>
+      <c r="D214" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C215" s="4">
+        <v>103</v>
+      </c>
+      <c r="D215" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C216" s="4">
+        <v>105</v>
+      </c>
+      <c r="D216" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C217" s="4">
+        <v>117</v>
+      </c>
+      <c r="D217" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C218" s="4">
+        <v>106</v>
+      </c>
+      <c r="D218" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="4">
         <v>1010</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C219" s="4">
         <v>117</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D219" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="11" t="s">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="4">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="4">
         <v>104</v>
       </c>
-      <c r="C213" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E213" s="9">
+      <c r="C223" s="9">
         <v>229.23</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="4">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="4">
         <v>103</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E214" s="9">
+      <c r="C224" s="9">
         <v>399.4</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="4">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="4">
         <v>110</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E215" s="9">
+      <c r="C225" s="9">
         <v>399.4</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="4">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="4">
         <v>106</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E216" s="9">
+      <c r="C226" s="9">
         <v>150.15</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="4">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="4">
         <v>113</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E217" s="9">
+      <c r="C227" s="9">
         <v>389.39</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="4">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="4">
         <v>114</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E218" s="9">
+      <c r="C228" s="9">
         <v>299.3</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="4">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="4">
         <v>106</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E219" s="9">
+      <c r="C229" s="9">
         <v>150.15</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="4">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="4">
         <v>107</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E220" s="9">
+      <c r="C230" s="9">
         <v>199.2</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="4">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="4">
         <v>102</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E221" s="9">
+      <c r="C231" s="9">
         <v>199.2</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="4">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="4">
         <v>101</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E222" s="9">
+      <c r="C232" s="9">
         <v>299.3</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="4">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="4">
         <v>109</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E223" s="9">
+      <c r="C233" s="9">
         <v>225.23</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="4">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="4">
         <v>116</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E224" s="9">
+      <c r="C234" s="9">
         <v>799.8</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="4">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="4">
         <v>118</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E225" s="9">
+      <c r="C235" s="9">
         <v>1100.0999999999999</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="4">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="4">
         <v>110</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E226" s="9">
+      <c r="C236" s="9">
         <v>399.4</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" s="4">
-        <v>110</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E227" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="4">
-        <v>103</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E228" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="4">
-        <v>105</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E229" s="9">
-        <v>349.34999999999997</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="4">
-        <v>117</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E230" s="9">
-        <v>899.9</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="4">
-        <v>106</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E231" s="9">
-        <v>150.15</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="4">
-        <v>117</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E232" s="9">
-        <v>899.9</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="4">
-        <v>104</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E235" s="9">
-        <v>229.23</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="4">
-        <v>103</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E236" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="4">
         <v>110</v>
       </c>
-      <c r="C237" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E237" s="9">
+      <c r="C237" s="9">
         <v>399.4</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="4">
-        <v>106</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E238" s="9">
-        <v>150.15</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C238" s="9">
+        <v>399.4</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="4">
-        <v>113</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E239" s="9">
-        <v>389.39</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C239" s="9">
+        <v>349.34999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="4">
-        <v>114</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E240" s="9">
-        <v>299.3</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C240" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="4">
         <v>106</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D241" s="4" t="s">
+      <c r="C241" s="9">
+        <v>150.15</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="4">
+        <v>117</v>
+      </c>
+      <c r="C242" s="9">
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="4">
+        <v>104</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D246" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E241" s="9">
-        <v>150.15</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="4">
-        <v>107</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D242" s="4" t="s">
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="4">
+        <v>103</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E242" s="9">
-        <v>199.2</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="4">
-        <v>102</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E243" s="9">
-        <v>199.2</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="4">
-        <v>101</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E244" s="9">
-        <v>299.3</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B245" s="4">
-        <v>109</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E245" s="9">
-        <v>225.23</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B246" s="4">
-        <v>116</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E246" s="9">
-        <v>799.8</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B247" s="4">
-        <v>118</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E247" s="9">
-        <v>1100.0999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="4">
         <v>110</v>
       </c>
@@ -8678,92 +8309,192 @@
       <c r="D248" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E248" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D249" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="4">
+        <v>113</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E249" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B250" s="4">
-        <v>103</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D250" s="4" t="s">
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="4">
+        <v>114</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="4">
+        <v>106</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E250" s="9">
-        <v>399.4</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B251" s="4">
-        <v>105</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E251" s="9">
-        <v>349.34999999999997</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B252" s="4">
-        <v>117</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E252" s="9">
-        <v>899.9</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E253" s="9">
-        <v>150.15</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="4">
+        <v>102</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="4">
+        <v>101</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="4">
+        <v>109</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="4">
+        <v>116</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="4">
+        <v>118</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="4">
+        <v>110</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="4">
+        <v>110</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="4">
+        <v>103</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="4">
+        <v>105</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="4">
         <v>117</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C263" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D254" s="4" t="s">
+      <c r="D263" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E254" s="9">
-        <v>899.9</v>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="4">
+        <v>106</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="4">
+        <v>117</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8788,7 +8519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8977,7 +8708,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+  <sortState ref="A2:B22">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
+++ b/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="2" r:id="rId1"/>
     <sheet name="PRODUCTOS" sheetId="4" r:id="rId2"/>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId3"/>
     <sheet name="Temporal" sheetId="3" r:id="rId4"/>
+    <sheet name="EJERCICIO 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="DATOS_PERSONAS">TABLA_PERSONAS[[#All],[NOMBRE]:[TELÉFONO]]</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="240">
   <si>
     <t xml:space="preserve">La llave primaria es Número de Factura de venta: NUM_FAC </t>
   </si>
@@ -591,18 +592,183 @@
   </si>
   <si>
     <t>PRECIOS</t>
+  </si>
+  <si>
+    <t>cod_alquiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> num_membresia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cod_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nom_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dir_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telef_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cod_cassette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fecha_alquiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fecha_dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> valor_alquiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cantidad</t>
+  </si>
+  <si>
+    <t>ALQUILER</t>
+  </si>
+  <si>
+    <t>Gorriti 125</t>
+  </si>
+  <si>
+    <t>Brown 1350</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>cod_cassette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> num_copias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> formato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cod_pelicula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> titulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categoría</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cod_actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nom_actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechanac_actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cod_tipo</t>
+  </si>
+  <si>
+    <t>CASSETE</t>
+  </si>
+  <si>
+    <t>DVD</t>
+  </si>
+  <si>
+    <t>BLU-RAY</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>SUSP</t>
+  </si>
+  <si>
+    <t>DRAM</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>SCIFI</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>Demi Moore</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>Nicole Kidman</t>
+  </si>
+  <si>
+    <t>Comedia</t>
+  </si>
+  <si>
+    <t>Suspenso</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Ciencia-Ficción</t>
+  </si>
+  <si>
+    <t>Al Filo del Mañana</t>
+  </si>
+  <si>
+    <t>Misión Imposible: Repercusión</t>
+  </si>
+  <si>
+    <t>Amor a Ciegas</t>
+  </si>
+  <si>
+    <t>Infectados</t>
+  </si>
+  <si>
+    <t>Emboscada</t>
+  </si>
+  <si>
+    <t>Being The Ricardos</t>
+  </si>
+  <si>
+    <t>Zurita 101</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>ALQUILER_CASSETE</t>
+  </si>
+  <si>
+    <t>ACTORES</t>
+  </si>
+  <si>
+    <t>***********************************************************************</t>
+  </si>
+  <si>
+    <t>PELICULAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;\ #,##0.00;\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,8 +795,28 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,8 +829,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,11 +844,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -669,11 +882,1327 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="194">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="11" formatCode="&quot;$&quot;\ #,##0.00;\-&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1976,21 +3505,21 @@
     <sortCondition ref="B3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="100">
+    <tableColumn id="1" name="ID" dataDxfId="193">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="NOMBRE"/>
     <tableColumn id="3" name="SEXO"/>
-    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="99">
+    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="192">
       <calculatedColumnFormula>I2&amp;" "&amp;RANDBETWEEN(100,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="DNI" dataDxfId="98">
+    <tableColumn id="5" name="DNI" dataDxfId="191">
       <calculatedColumnFormula>RANDBETWEEN(10000000,40000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD" dataDxfId="97">
+    <tableColumn id="6" name="CIUDAD" dataDxfId="190">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELÉFONO" dataDxfId="96">
+    <tableColumn id="7" name="TELÉFONO" dataDxfId="189">
       <calculatedColumnFormula>RANDBETWEEN(2214000000,3886999999)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1999,79 +3528,147 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla471011" displayName="Tabla471011" ref="B151:E171" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla471011" displayName="Tabla471011" ref="B151:E171" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <tableColumns count="4">
-    <tableColumn id="10" name="COD_PROD" dataDxfId="29"/>
-    <tableColumn id="11" name="DESCRIPCION" dataDxfId="28"/>
-    <tableColumn id="12" name="CATEGORIA" dataDxfId="27"/>
-    <tableColumn id="14" name="VAL_UNIT" dataDxfId="26"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="122"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="121"/>
+    <tableColumn id="12" name="CATEGORIA" dataDxfId="120"/>
+    <tableColumn id="14" name="VAL_UNIT" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla46812" displayName="Tabla46812" ref="B177:D187" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla46812" displayName="Tabla46812" ref="B177:D187" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <sortState ref="B171:D180">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="23"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="22"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="21"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="116"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="115"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla468913" displayName="Tabla468913" ref="B190:F196" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla468913" displayName="Tabla468913" ref="B190:F196" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <sortState ref="B183:F188">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="18"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="17"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="16"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="15"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="14"/>
+    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="111"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="110"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="109"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="108"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla471014" displayName="Tabla471014" ref="B199:D219" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla471014" displayName="Tabla471014" ref="B199:D219" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <sortState ref="B191:C210">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="11"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="10"/>
-    <tableColumn id="13" name="CANT_PROD" dataDxfId="9"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="104"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="103"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla47101115" displayName="Tabla47101115" ref="B222:C242" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla47101115" displayName="Tabla47101115" ref="B222:C242" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <tableColumns count="2">
-    <tableColumn id="10" name="COD_PROD" dataDxfId="6"/>
-    <tableColumn id="14" name="VAL_UNIT" dataDxfId="5"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="99"/>
+    <tableColumn id="14" name="VAL_UNIT" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla4710111516" displayName="Tabla4710111516" ref="B245:D265" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla4710111516" displayName="Tabla4710111516" ref="B245:D265" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <tableColumns count="3">
-    <tableColumn id="10" name="COD_PROD" dataDxfId="2"/>
-    <tableColumn id="11" name="DESCRIPCION" dataDxfId="1"/>
-    <tableColumn id="12" name="CATEGORIA" dataDxfId="0"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="95"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="94"/>
+    <tableColumn id="12" name="CATEGORIA" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A2:K8" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+  <tableColumns count="11">
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="92"/>
+    <tableColumn id="2" name=" num_membresia" dataDxfId="91"/>
+    <tableColumn id="3" name=" cod_cliente" dataDxfId="90"/>
+    <tableColumn id="4" name=" nom_cliente" dataDxfId="89"/>
+    <tableColumn id="5" name=" dir_cliente" dataDxfId="88"/>
+    <tableColumn id="6" name=" telef_cliente" dataDxfId="87"/>
+    <tableColumn id="7" name=" cod_cassette" dataDxfId="86"/>
+    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="85"/>
+    <tableColumn id="9" name=" fecha_dev" dataDxfId="84"/>
+    <tableColumn id="10" name=" valor_alquiler" dataDxfId="69" dataCellStyle="Moneda"/>
+    <tableColumn id="11" name=" cantidad" dataDxfId="83"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="A12:J18" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <tableColumns count="10">
+    <tableColumn id="1" name="cod_cassette" dataDxfId="80"/>
+    <tableColumn id="2" name=" num_copias" dataDxfId="79"/>
+    <tableColumn id="3" name=" formato" dataDxfId="78"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="68"/>
+    <tableColumn id="5" name=" titulo" dataDxfId="77"/>
+    <tableColumn id="6" name=" categoría" dataDxfId="76"/>
+    <tableColumn id="7" name=" cod_actor" dataDxfId="75"/>
+    <tableColumn id="8" name=" nom_actor" dataDxfId="74"/>
+    <tableColumn id="9" name=" fechanac_actor" dataDxfId="73"/>
+    <tableColumn id="10" name=" cod_tipo" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla1619" displayName="Tabla1619" ref="A24:F27" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <tableColumns count="6">
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="65"/>
+    <tableColumn id="2" name=" num_membresia" dataDxfId="64"/>
+    <tableColumn id="3" name=" cod_cliente" dataDxfId="63"/>
+    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="62"/>
+    <tableColumn id="9" name=" fecha_dev" dataDxfId="61"/>
+    <tableColumn id="11" name=" cantidad" dataDxfId="60"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla1720" displayName="Tabla1720" ref="A48:I54" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <tableColumns count="9">
+    <tableColumn id="1" name="cod_cassette" dataDxfId="57"/>
+    <tableColumn id="2" name=" num_copias" dataDxfId="56"/>
+    <tableColumn id="3" name=" formato" dataDxfId="55"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="54"/>
+    <tableColumn id="5" name=" titulo" dataDxfId="53"/>
+    <tableColumn id="6" name=" categoría" dataDxfId="52"/>
+    <tableColumn id="7" name=" cod_actor" dataDxfId="51"/>
+    <tableColumn id="10" name=" cod_tipo" dataDxfId="50"/>
+    <tableColumn id="11" name=" valor_alquiler" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2079,7 +3676,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TABLA_PRODUCTOS" displayName="TABLA_PRODUCTOS" ref="A1:H19" totalsRowShown="0">
   <autoFilter ref="A1:H19"/>
   <tableColumns count="8">
-    <tableColumn id="7" name="ID" dataDxfId="95">
+    <tableColumn id="7" name="ID" dataDxfId="188">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" name="PRODUCTO"/>
@@ -2088,7 +3685,7 @@
     <tableColumn id="4" name="CANTIDAD"/>
     <tableColumn id="5" name="UNIDAD"/>
     <tableColumn id="6" name="PRECIO UNITARIO"/>
-    <tableColumn id="8" name="CÓDIGO" dataDxfId="94">
+    <tableColumn id="8" name="CÓDIGO" dataDxfId="187">
       <calculatedColumnFormula>TABLA_PRODUCTOS[[#This Row],[ID]]+100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2096,43 +3693,137 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="A38:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="44" headerRowBorderDxfId="47" tableBorderDxfId="48">
+  <tableColumns count="2">
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="46"/>
+    <tableColumn id="2" name=" cod_cassette" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla21" displayName="Tabla21" ref="A58:C62" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="41" tableBorderDxfId="42">
+  <tableColumns count="3">
+    <tableColumn id="1" name=" cod_actor" dataDxfId="40"/>
+    <tableColumn id="2" name=" nom_actor" dataDxfId="39"/>
+    <tableColumn id="3" name=" fechanac_actor" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla161923" displayName="Tabla161923" ref="A69:F72" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <tableColumns count="6">
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="34"/>
+    <tableColumn id="2" name=" num_membresia" dataDxfId="33"/>
+    <tableColumn id="3" name=" cod_cliente" dataDxfId="32"/>
+    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="31"/>
+    <tableColumn id="9" name=" fecha_dev" dataDxfId="30"/>
+    <tableColumn id="11" name=" cantidad" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla23" displayName="Tabla23" ref="A76:D79" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="28">
+  <tableColumns count="4">
+    <tableColumn id="1" name=" cod_cliente"/>
+    <tableColumn id="2" name=" nom_cliente"/>
+    <tableColumn id="3" name=" dir_cliente"/>
+    <tableColumn id="4" name=" telef_cliente"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla2025" displayName="Tabla2025" ref="A83:B89" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <tableColumns count="2">
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="21"/>
+    <tableColumn id="2" name=" cod_cassette" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla172026" displayName="Tabla172026" ref="A93:F99" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <tableColumns count="6">
+    <tableColumn id="1" name="cod_cassette" dataDxfId="17"/>
+    <tableColumn id="2" name=" num_copias" dataDxfId="16"/>
+    <tableColumn id="3" name=" formato" dataDxfId="15"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="14"/>
+    <tableColumn id="10" name=" cod_tipo" dataDxfId="13"/>
+    <tableColumn id="11" name=" valor_alquiler" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla17202627" displayName="Tabla17202627" ref="A103:D109" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="4">
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="9"/>
+    <tableColumn id="5" name=" titulo" dataDxfId="8"/>
+    <tableColumn id="6" name=" categoría" dataDxfId="7"/>
+    <tableColumn id="7" name=" cod_actor" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla2128" displayName="Tabla2128" ref="A113:C117" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <tableColumns count="3">
+    <tableColumn id="1" name=" cod_actor" dataDxfId="2"/>
+    <tableColumn id="2" name=" nom_actor" dataDxfId="1"/>
+    <tableColumn id="3" name=" fechanac_actor" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
   <tableColumns count="12">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="91">
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="184">
       <calculatedColumnFormula>RANDBETWEEN(1000,9999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="90">
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="183">
       <calculatedColumnFormula>RANDBETWEEN(35000,45000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="89">
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="182">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="88">
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="181">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="87">
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="180">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="86">
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="179">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="85">
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="178">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="CATEGORIA" dataDxfId="84">
+    <tableColumn id="8" name="CATEGORIA" dataDxfId="177">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="83">
+    <tableColumn id="9" name="COD_PROD" dataDxfId="176">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DESCRIPCION" dataDxfId="82">
+    <tableColumn id="10" name="DESCRIPCION" dataDxfId="175">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="VAL_UNIT" dataDxfId="81">
+    <tableColumn id="11" name="VAL_UNIT" dataDxfId="174">
       <calculatedColumnFormula>ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CANT_PROD" dataDxfId="80">
+    <tableColumn id="12" name="CANT_PROD" dataDxfId="173">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2141,102 +3832,102 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
   <sortState ref="B42:M61">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="77"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="76"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="75"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="74"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="73"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="72"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="71"/>
-    <tableColumn id="8" name="CATEGORIA" dataDxfId="70"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="69"/>
-    <tableColumn id="10" name="DESCRIPCION" dataDxfId="68"/>
-    <tableColumn id="11" name="VAL_UNIT" dataDxfId="67"/>
-    <tableColumn id="12" name="CANT_PROD" dataDxfId="66"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="170"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="169"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="168"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="167"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="166"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="165"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="164"/>
+    <tableColumn id="8" name="CATEGORIA" dataDxfId="163"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="162"/>
+    <tableColumn id="10" name="DESCRIPCION" dataDxfId="161"/>
+    <tableColumn id="11" name="VAL_UNIT" dataDxfId="160"/>
+    <tableColumn id="12" name="CANT_PROD" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla46" displayName="Tabla46" ref="B67:H77" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla46" displayName="Tabla46" ref="B67:H77" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
   <sortState ref="B67:H76">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="63"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="62"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="61"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="60"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="59"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="58"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="57"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="156"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="155"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="154"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="153"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="152"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="151"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla47" displayName="Tabla47" ref="B80:G100" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla47" displayName="Tabla47" ref="B80:G100" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <sortState ref="B79:F98">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="54"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="53"/>
-    <tableColumn id="10" name="CATEGORIA" dataDxfId="52"/>
-    <tableColumn id="11" name="DESCRIPCION" dataDxfId="51"/>
-    <tableColumn id="12" name="VAL_UNIT" dataDxfId="50"/>
-    <tableColumn id="13" name="CANT_PROD" dataDxfId="49"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="147"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="146"/>
+    <tableColumn id="10" name="CATEGORIA" dataDxfId="145"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="144"/>
+    <tableColumn id="12" name="VAL_UNIT" dataDxfId="143"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla468" displayName="Tabla468" ref="B106:D116" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla468" displayName="Tabla468" ref="B106:D116" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <sortState ref="B104:D113">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="46"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="45"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="44"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="139"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="138"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla4689" displayName="Tabla4689" ref="B119:F125" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla4689" displayName="Tabla4689" ref="B119:F125" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <sortState ref="B116:F121">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="41"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="40"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="39"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="38"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="37"/>
+    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="134"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="133"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="132"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="131"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla4710" displayName="Tabla4710" ref="B128:D148" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla4710" displayName="Tabla4710" ref="B128:D148" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
   <sortState ref="B124:C143">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="34"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="33"/>
-    <tableColumn id="13" name="CANT_PROD" dataDxfId="32"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="127"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="126"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2592,11 +4283,11 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D21" ca="1" si="1">I2&amp;" "&amp;RANDBETWEEN(100,1000)</f>
-        <v>Avenida Alte G Brown 366</v>
+        <v>Avenida Alte G Brown 700</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E21" ca="1" si="2">RANDBETWEEN(10000000,40000000)</f>
-        <v>36929918</v>
+        <v>36520320</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F21" si="3">J2</f>
@@ -2604,7 +4295,7 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G21" ca="1" si="4">RANDBETWEEN(2214000000,3886999999)</f>
-        <v>2234512667</v>
+        <v>2377615591</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -2635,11 +4326,11 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Altrado Storni 317</v>
+        <v>Calle Altrado Storni 631</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36980357</v>
+        <v>27269141</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="3"/>
@@ -2647,7 +4338,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2980671618</v>
+        <v>3260321974</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -2678,11 +4369,11 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Condarco 179</v>
+        <v>Calle Alvarez Condarco 251</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37896898</v>
+        <v>22214881</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -2690,7 +4381,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3853238954</v>
+        <v>3129856764</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
@@ -2721,11 +4412,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Prado 655</v>
+        <v>Calle Alvarez Prado 342</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11356942</v>
+        <v>39171257</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -2733,7 +4424,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3665631575</v>
+        <v>2375897442</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -2764,11 +4455,11 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Amancay 810</v>
+        <v>Calle Amancay 311</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10720356</v>
+        <v>35532293</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -2776,7 +4467,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2540454082</v>
+        <v>3328778297</v>
       </c>
       <c r="I6" t="s">
         <v>58</v>
@@ -2807,11 +4498,11 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Ambrosetti 138</v>
+        <v>Calle Ambrosetti 358</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22964357</v>
+        <v>38779020</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -2819,7 +4510,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3224848742</v>
+        <v>2968993390</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
@@ -2850,11 +4541,11 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Anchorena 400</v>
+        <v>Calle Anchorena 871</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39543350</v>
+        <v>30579398</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -2862,7 +4553,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2652457596</v>
+        <v>2714460961</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -2893,11 +4584,11 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andrea Zenarruza 444</v>
+        <v>Calle Andrea Zenarruza 928</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39177029</v>
+        <v>17510403</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
@@ -2905,7 +4596,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2235603669</v>
+        <v>2586894342</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
@@ -2936,11 +4627,11 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andres Bello 861</v>
+        <v>Calle Andres Bello 136</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33482871</v>
+        <v>15190185</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
@@ -2948,7 +4639,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2390447669</v>
+        <v>3018962418</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -2979,11 +4670,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antartida Argentina 248</v>
+        <v>Calle Antartida Argentina 529</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36697513</v>
+        <v>24411239</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -2991,7 +4682,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3649606285</v>
+        <v>3475608688</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -3022,11 +4713,11 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Avenida Antenor Sajama 777</v>
+        <v>Avenida Antenor Sajama 432</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24719698</v>
+        <v>35427903</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -3034,7 +4725,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3310206577</v>
+        <v>2320150941</v>
       </c>
       <c r="I12" t="s">
         <v>64</v>
@@ -3065,11 +4756,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Forestieri 141</v>
+        <v>Calle Antonio Forestieri 898</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35155569</v>
+        <v>34234120</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
@@ -3077,7 +4768,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2953854060</v>
+        <v>2953010781</v>
       </c>
       <c r="I13" t="s">
         <v>65</v>
@@ -3108,11 +4799,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Garibaldi 498</v>
+        <v>Calle Antonio Garibaldi 882</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27659252</v>
+        <v>14391418</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -3120,7 +4811,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2484126170</v>
+        <v>2516282926</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -3151,11 +4842,11 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Marcon 822</v>
+        <v>Calle Antonio Marcon 800</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19845393</v>
+        <v>31450494</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -3163,7 +4854,7 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3375842668</v>
+        <v>3080234677</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
@@ -3194,11 +4885,11 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenales 125</v>
+        <v>Calle Arenales 867</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18198414</v>
+        <v>21811238</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -3206,7 +4897,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3185941834</v>
+        <v>3692337660</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
@@ -3237,11 +4928,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenas 939</v>
+        <v>Calle Arenas 403</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24738115</v>
+        <v>21929051</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -3249,7 +4940,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3369585578</v>
+        <v>3278884048</v>
       </c>
       <c r="I17" t="s">
         <v>69</v>
@@ -3280,11 +4971,11 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argañaraz 276</v>
+        <v>Calle Argañaraz 969</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33734435</v>
+        <v>22412030</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -3292,7 +4983,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3595879830</v>
+        <v>2612852646</v>
       </c>
       <c r="I18" t="s">
         <v>70</v>
@@ -3323,11 +5014,11 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argerich 851</v>
+        <v>Calle Argerich 618</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21516721</v>
+        <v>33064913</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -3335,7 +5026,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2810245934</v>
+        <v>3371771406</v>
       </c>
       <c r="I19" t="s">
         <v>71</v>
@@ -3366,11 +5057,11 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arismendi 780</v>
+        <v>Calle Arismendi 475</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35583464</v>
+        <v>10589638</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -3378,7 +5069,7 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3038034250</v>
+        <v>2301350549</v>
       </c>
       <c r="I20" t="s">
         <v>72</v>
@@ -3409,11 +5100,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Pasaje Arrayanal 824</v>
+        <v>Pasaje Arrayanal 348</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17995582</v>
+        <v>11787485</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -3421,7 +5112,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3481018820</v>
+        <v>3646012515</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
@@ -4022,7 +5713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+    <sheetView topLeftCell="A245" workbookViewId="0">
       <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
@@ -4188,31 +5879,31 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" ref="B18:B37" ca="1" si="0">RANDBETWEEN(1000,9999)</f>
-        <v>7160</v>
+        <v>1939</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18:C31" ca="1" si="1">RANDBETWEEN(35000,45000)</f>
-        <v>37641</v>
+        <v>38941</v>
       </c>
       <c r="D18" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Mateo</v>
+        <v>Benjamín</v>
       </c>
       <c r="E18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antartida Argentina 248</v>
+        <v>Calle Altrado Storni 631</v>
       </c>
       <c r="F18" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36697513</v>
+        <v>27269141</v>
       </c>
       <c r="G18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Resistencia</v>
+        <v>Córdoba</v>
       </c>
       <c r="H18" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3649606285</v>
+        <v>3260321974</v>
       </c>
       <c r="I18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4220,87 +5911,87 @@
       </c>
       <c r="J18" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Naranjas</v>
+        <v>Pepino</v>
       </c>
       <c r="K18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L18" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>229.23</v>
       </c>
       <c r="M18" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3432</v>
+        <v>7949</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36912</v>
+        <v>40311</v>
       </c>
       <c r="D19" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
+        <v>Catalina</v>
       </c>
       <c r="E19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 317</v>
+        <v>Calle Alvarez Condarco 251</v>
       </c>
       <c r="F19" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36980357</v>
+        <v>22214881</v>
       </c>
       <c r="G19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Córdoba</v>
+        <v>Rosario</v>
       </c>
       <c r="H19" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2980671618</v>
+        <v>3129856764</v>
       </c>
       <c r="I19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J19" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Requesón</v>
+        <v>Salmón</v>
       </c>
       <c r="K19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Pescadería</v>
       </c>
       <c r="L19" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>389.39</v>
+        <v>899.9</v>
       </c>
       <c r="M19" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6217</v>
+        <v>8345</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>41311</v>
+        <v>39158</v>
       </c>
       <c r="D20" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
@@ -4308,11 +5999,11 @@
       </c>
       <c r="E20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 317</v>
+        <v>Calle Altrado Storni 631</v>
       </c>
       <c r="F20" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36980357</v>
+        <v>27269141</v>
       </c>
       <c r="G20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
@@ -4320,7 +6011,7 @@
       </c>
       <c r="H20" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2980671618</v>
+        <v>3260321974</v>
       </c>
       <c r="I20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4328,19 +6019,19 @@
       </c>
       <c r="J20" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Huevos</v>
+        <v>Yogur</v>
       </c>
       <c r="K20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Artículos</v>
       </c>
       <c r="L20" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>350.35</v>
+        <v>499.5</v>
       </c>
       <c r="M20" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -4350,39 +6041,39 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8188</v>
+        <v>2174</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44347</v>
+        <v>35975</v>
       </c>
       <c r="D21" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Sofía</v>
+        <v>Paula</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arenas 939</v>
+        <v>Calle Antonio Garibaldi 882</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24738115</v>
+        <v>14391418</v>
       </c>
       <c r="G21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santiago del Estero</v>
+        <v>Quilmes</v>
       </c>
       <c r="H21" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3369585578</v>
+        <v>2516282926</v>
       </c>
       <c r="I21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Carne</v>
       </c>
       <c r="J21" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Tomates</v>
+        <v>Ternera</v>
       </c>
       <c r="K21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -4390,119 +6081,119 @@
       </c>
       <c r="L21" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>349.34999999999997</v>
+        <v>799.8</v>
       </c>
       <c r="M21" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O21">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3438</v>
+        <v>1254</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38475</v>
+        <v>39380</v>
       </c>
       <c r="D22" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Matías</v>
+        <v>Sofía</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Antenor Sajama 777</v>
+        <v>Calle Arenas 403</v>
       </c>
       <c r="F22" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24719698</v>
+        <v>21929051</v>
       </c>
       <c r="G22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Posadas</v>
+        <v>Santiago del Estero</v>
       </c>
       <c r="H22" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3310206577</v>
+        <v>3278884048</v>
       </c>
       <c r="I22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Marisco</v>
       </c>
       <c r="J22" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Plátanos</v>
+        <v>Salmón</v>
       </c>
       <c r="K22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Pescadería</v>
       </c>
       <c r="L22" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>899.9</v>
       </c>
       <c r="M22" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8560</v>
+        <v>5217</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38073</v>
+        <v>43750</v>
       </c>
       <c r="D23" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Thiago</v>
+        <v>Lucía</v>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argañaraz 276</v>
+        <v>Calle Anchorena 871</v>
       </c>
       <c r="F23" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>33734435</v>
+        <v>30579398</v>
       </c>
       <c r="G23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Gregorio de Laferrere</v>
+        <v>Santa Fe</v>
       </c>
       <c r="H23" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3595879830</v>
+        <v>2714460961</v>
       </c>
       <c r="I23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Lácteos</v>
       </c>
       <c r="J23" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Cangrejo</v>
+        <v>Requesón</v>
       </c>
       <c r="K23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L23" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>1100.0999999999999</v>
+        <v>389.39</v>
       </c>
       <c r="M23" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -4512,11 +6203,11 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4876</v>
+        <v>2552</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43689</v>
+        <v>43453</v>
       </c>
       <c r="D24" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
@@ -4524,11 +6215,11 @@
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Alvarez Condarco 179</v>
+        <v>Calle Alvarez Condarco 251</v>
       </c>
       <c r="F24" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>37896898</v>
+        <v>22214881</v>
       </c>
       <c r="G24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
@@ -4536,7 +6227,7 @@
       </c>
       <c r="H24" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3853238954</v>
+        <v>3129856764</v>
       </c>
       <c r="I24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4544,15 +6235,15 @@
       </c>
       <c r="J24" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Calabaza</v>
+        <v>Apio</v>
       </c>
       <c r="K24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Artículos</v>
       </c>
       <c r="L24" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>150.15</v>
+        <v>199.2</v>
       </c>
       <c r="M24" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -4560,37 +6251,37 @@
       </c>
       <c r="O24">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4549</v>
+        <v>2729</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>39692</v>
       </c>
       <c r="D25" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Santiago</v>
+        <v>Paula</v>
       </c>
       <c r="E25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Alte G Brown 366</v>
+        <v>Calle Antonio Garibaldi 882</v>
       </c>
       <c r="F25" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36929918</v>
+        <v>14391418</v>
       </c>
       <c r="G25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Buenos Aires</v>
+        <v>Quilmes</v>
       </c>
       <c r="H25" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2234512667</v>
+        <v>2516282926</v>
       </c>
       <c r="I25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4598,107 +6289,107 @@
       </c>
       <c r="J25" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Setas</v>
+        <v>Pepino</v>
       </c>
       <c r="K25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L25" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>225.23</v>
+        <v>229.23</v>
       </c>
       <c r="M25" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4603</v>
+        <v>9417</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>41498</v>
+        <v>42601</v>
       </c>
       <c r="D26" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Juan</v>
+        <v>Valentina</v>
       </c>
       <c r="E26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Ambrosetti 138</v>
+        <v>Calle Arismendi 475</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22964357</v>
+        <v>10589638</v>
       </c>
       <c r="G26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Salta</v>
+        <v>Paraná</v>
       </c>
       <c r="H26" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3224848742</v>
+        <v>2301350549</v>
       </c>
       <c r="I26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J26" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v xml:space="preserve">Leche </v>
+        <v>Cangrejo</v>
       </c>
       <c r="K26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Pescadería</v>
       </c>
       <c r="L26" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>1100.0999999999999</v>
       </c>
       <c r="M26" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4670</v>
+        <v>7952</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44297</v>
+        <v>36596</v>
       </c>
       <c r="D27" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Mateo</v>
+        <v>Thiago</v>
       </c>
       <c r="E27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antartida Argentina 248</v>
+        <v>Calle Argañaraz 969</v>
       </c>
       <c r="F27" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36697513</v>
+        <v>22412030</v>
       </c>
       <c r="G27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Resistencia</v>
+        <v>Gregorio de Laferrere</v>
       </c>
       <c r="H27" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3649606285</v>
+        <v>2612852646</v>
       </c>
       <c r="I27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4722,37 +6413,37 @@
       </c>
       <c r="O27">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7389</v>
+        <v>9667</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38993</v>
+        <v>35123</v>
       </c>
       <c r="D28" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Tomás</v>
+        <v>Matías</v>
       </c>
       <c r="E28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argerich 851</v>
+        <v>Avenida Antenor Sajama 432</v>
       </c>
       <c r="F28" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>21516721</v>
+        <v>35427903</v>
       </c>
       <c r="G28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>José C. Paz</v>
+        <v>Posadas</v>
       </c>
       <c r="H28" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2810245934</v>
+        <v>2320150941</v>
       </c>
       <c r="I28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4760,7 +6451,7 @@
       </c>
       <c r="J28" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Requesón</v>
+        <v>Huevos</v>
       </c>
       <c r="K28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -4768,45 +6459,45 @@
       </c>
       <c r="L28" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>389.39</v>
+        <v>350.35</v>
       </c>
       <c r="M28" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1126</v>
+        <v>7271</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42984</v>
+        <v>38210</v>
       </c>
       <c r="D29" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Sofía</v>
+        <v>Paula</v>
       </c>
       <c r="E29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arenas 939</v>
+        <v>Calle Antonio Garibaldi 882</v>
       </c>
       <c r="F29" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24738115</v>
+        <v>14391418</v>
       </c>
       <c r="G29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santiago del Estero</v>
+        <v>Quilmes</v>
       </c>
       <c r="H29" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3369585578</v>
+        <v>2516282926</v>
       </c>
       <c r="I29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -4814,73 +6505,73 @@
       </c>
       <c r="J29" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Plátanos</v>
+        <v>Tomates</v>
       </c>
       <c r="K29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L29" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>349.34999999999997</v>
       </c>
       <c r="M29" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9825</v>
+        <v>5439</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44006</v>
+        <v>44930</v>
       </c>
       <c r="D30" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Juan</v>
+        <v>Mateo</v>
       </c>
       <c r="E30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Ambrosetti 138</v>
+        <v>Calle Antartida Argentina 529</v>
       </c>
       <c r="F30" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22964357</v>
+        <v>24411239</v>
       </c>
       <c r="G30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Salta</v>
+        <v>Resistencia</v>
       </c>
       <c r="H30" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3224848742</v>
+        <v>3475608688</v>
       </c>
       <c r="I30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J30" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v xml:space="preserve">Leche </v>
+        <v>Setas</v>
       </c>
       <c r="K30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Artículos</v>
       </c>
       <c r="L30" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>225.23</v>
       </c>
       <c r="M30" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O30">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -4890,139 +6581,139 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7841</v>
+        <v>9762</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36476</v>
+        <v>36301</v>
       </c>
       <c r="D31" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
+        <v>Pedro</v>
       </c>
       <c r="E31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 317</v>
+        <v>Calle Antonio Marcon 800</v>
       </c>
       <c r="F31" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>36980357</v>
+        <v>31450494</v>
       </c>
       <c r="G31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Córdoba</v>
+        <v>San Salvador de Jujuy</v>
       </c>
       <c r="H31" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2980671618</v>
+        <v>3080234677</v>
       </c>
       <c r="I31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Vegetales</v>
       </c>
       <c r="J31" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Cangrejo</v>
+        <v>Naranjas</v>
       </c>
       <c r="K31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Artículos</v>
       </c>
       <c r="L31" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>1100.0999999999999</v>
+        <v>299.3</v>
       </c>
       <c r="M31" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O31">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8784</v>
+        <v>5734</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" ref="C32:C37" ca="1" si="2">RANDBETWEEN(35000,45000)</f>
-        <v>35954</v>
+        <v>40971</v>
       </c>
       <c r="D32" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>María</v>
+        <v>Sofía</v>
       </c>
       <c r="E32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Andrea Zenarruza 444</v>
+        <v>Calle Arenas 403</v>
       </c>
       <c r="F32" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>39177029</v>
+        <v>21929051</v>
       </c>
       <c r="G32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Corrientes</v>
+        <v>Santiago del Estero</v>
       </c>
       <c r="H32" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2235603669</v>
+        <v>3278884048</v>
       </c>
       <c r="I32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Lácteos</v>
       </c>
       <c r="J32" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Salmón</v>
+        <v>Requesón</v>
       </c>
       <c r="K32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L32" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>899.9</v>
+        <v>389.39</v>
       </c>
       <c r="M32" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8457</v>
+        <v>3351</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>37810</v>
+        <v>42296</v>
       </c>
       <c r="D33" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Tomás</v>
+        <v>Mateo</v>
       </c>
       <c r="E33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argerich 851</v>
+        <v>Calle Antartida Argentina 529</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>21516721</v>
+        <v>24411239</v>
       </c>
       <c r="G33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>José C. Paz</v>
+        <v>Resistencia</v>
       </c>
       <c r="H33" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2810245934</v>
+        <v>3475608688</v>
       </c>
       <c r="I33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -5030,7 +6721,7 @@
       </c>
       <c r="J33" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Setas</v>
+        <v>Naranjas</v>
       </c>
       <c r="K33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -5038,11 +6729,11 @@
       </c>
       <c r="L33" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>225.23</v>
+        <v>299.3</v>
       </c>
       <c r="M33" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O33">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -5052,47 +6743,47 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8907</v>
+        <v>4106</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>44824</v>
+        <v>37045</v>
       </c>
       <c r="D34" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Nicolás</v>
+        <v>Benjamín</v>
       </c>
       <c r="E34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Forestieri 141</v>
+        <v>Calle Altrado Storni 631</v>
       </c>
       <c r="F34" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>35155569</v>
+        <v>27269141</v>
       </c>
       <c r="G34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Merlo</v>
+        <v>Córdoba</v>
       </c>
       <c r="H34" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2953854060</v>
+        <v>3260321974</v>
       </c>
       <c r="I34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J34" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Pepino</v>
+        <v>Crema agria</v>
       </c>
       <c r="K34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L34" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>229.23</v>
+        <v>299.3</v>
       </c>
       <c r="M34" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -5100,157 +6791,157 @@
       </c>
       <c r="O34">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2562</v>
+        <v>1227</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>37880</v>
+        <v>38053</v>
       </c>
       <c r="D35" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Pedro</v>
+        <v>Thiago</v>
       </c>
       <c r="E35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Marcon 822</v>
+        <v>Calle Argañaraz 969</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>19845393</v>
+        <v>22412030</v>
       </c>
       <c r="G35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Salvador de Jujuy</v>
+        <v>Gregorio de Laferrere</v>
       </c>
       <c r="H35" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3375842668</v>
+        <v>2612852646</v>
       </c>
       <c r="I35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J35" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Yogur</v>
+        <v>Lechuga</v>
       </c>
       <c r="K35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L35" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>499.5</v>
+        <v>229.23</v>
       </c>
       <c r="M35" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7530</v>
+        <v>7943</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>43373</v>
+        <v>42102</v>
       </c>
       <c r="D36" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Emilia</v>
+        <v>Sofía</v>
       </c>
       <c r="E36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Amancay 810</v>
+        <v>Calle Arenas 403</v>
       </c>
       <c r="F36" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>10720356</v>
+        <v>21929051</v>
       </c>
       <c r="G36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Miguel de Tucumán</v>
+        <v>Santiago del Estero</v>
       </c>
       <c r="H36" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2540454082</v>
+        <v>3278884048</v>
       </c>
       <c r="I36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Carne</v>
       </c>
       <c r="J36" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Plátanos</v>
+        <v>Ternera</v>
       </c>
       <c r="K36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L36" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>399.4</v>
+        <v>799.8</v>
       </c>
       <c r="M36" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O36">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8559</v>
+        <v>1119</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>42285</v>
+        <v>38435</v>
       </c>
       <c r="D37" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
+        <v>Thiago</v>
       </c>
       <c r="E37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 498</v>
+        <v>Calle Argañaraz 969</v>
       </c>
       <c r="F37" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>27659252</v>
+        <v>22412030</v>
       </c>
       <c r="G37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
+        <v>Gregorio de Laferrere</v>
       </c>
       <c r="H37" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2484126170</v>
+        <v>2612852646</v>
       </c>
       <c r="I37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J37" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Crema agria</v>
+        <v>Naranjas</v>
       </c>
       <c r="K37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Artículos</v>
       </c>
       <c r="L37" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
@@ -5258,11 +6949,11 @@
       </c>
       <c r="M37" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -8713,4 +10404,1524 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="14">
+        <v>101</v>
+      </c>
+      <c r="C3" s="14">
+        <v>75</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="16">
+        <v>3885843652</v>
+      </c>
+      <c r="G3" s="14">
+        <v>546</v>
+      </c>
+      <c r="H3" s="17">
+        <v>44713</v>
+      </c>
+      <c r="I3" s="17">
+        <v>44715</v>
+      </c>
+      <c r="J3" s="23">
+        <v>250</v>
+      </c>
+      <c r="K3" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1010</v>
+      </c>
+      <c r="B4" s="14">
+        <v>101</v>
+      </c>
+      <c r="C4" s="14">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="16">
+        <v>3885843652</v>
+      </c>
+      <c r="G4" s="14">
+        <v>852</v>
+      </c>
+      <c r="H4" s="17">
+        <v>44713</v>
+      </c>
+      <c r="I4" s="17">
+        <v>44715</v>
+      </c>
+      <c r="J4" s="23">
+        <v>350</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1010</v>
+      </c>
+      <c r="B5" s="14">
+        <v>101</v>
+      </c>
+      <c r="C5" s="14">
+        <v>75</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3885843652</v>
+      </c>
+      <c r="G5" s="14">
+        <v>258</v>
+      </c>
+      <c r="H5" s="17">
+        <v>44713</v>
+      </c>
+      <c r="I5" s="17">
+        <v>44715</v>
+      </c>
+      <c r="J5" s="23">
+        <v>300</v>
+      </c>
+      <c r="K5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="14">
+        <v>195</v>
+      </c>
+      <c r="C6" s="14">
+        <v>56</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1154336639</v>
+      </c>
+      <c r="G6" s="14">
+        <v>963</v>
+      </c>
+      <c r="H6" s="17">
+        <v>44715</v>
+      </c>
+      <c r="I6" s="17">
+        <v>44717</v>
+      </c>
+      <c r="J6" s="23">
+        <v>250</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="14">
+        <v>195</v>
+      </c>
+      <c r="C7" s="14">
+        <v>56</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1154336639</v>
+      </c>
+      <c r="G7" s="14">
+        <v>741</v>
+      </c>
+      <c r="H7" s="17">
+        <v>44715</v>
+      </c>
+      <c r="I7" s="17">
+        <v>44717</v>
+      </c>
+      <c r="J7" s="23">
+        <v>250</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="14">
+        <v>140</v>
+      </c>
+      <c r="C8" s="14">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16">
+        <v>3571596545</v>
+      </c>
+      <c r="G8" s="14">
+        <v>253</v>
+      </c>
+      <c r="H8" s="17">
+        <v>44715</v>
+      </c>
+      <c r="I8" s="17">
+        <v>44717</v>
+      </c>
+      <c r="J8" s="23">
+        <v>300</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>253</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4069</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="17">
+        <v>24643</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>258</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4401</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="17">
+        <v>22961</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>546</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4319</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="17">
+        <v>22961</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>741</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4193</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="17">
+        <v>22830</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>852</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="14">
+        <v>4444</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="17">
+        <v>22830</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>963</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4335</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="17">
+        <v>20167</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>1010</v>
+      </c>
+      <c r="B25" s="14">
+        <v>101</v>
+      </c>
+      <c r="C25" s="14">
+        <v>75</v>
+      </c>
+      <c r="D25" s="17">
+        <v>44713</v>
+      </c>
+      <c r="E25" s="17">
+        <v>44715</v>
+      </c>
+      <c r="F25" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>1011</v>
+      </c>
+      <c r="B26" s="14">
+        <v>195</v>
+      </c>
+      <c r="C26" s="14">
+        <v>56</v>
+      </c>
+      <c r="D26" s="17">
+        <v>44715</v>
+      </c>
+      <c r="E26" s="17">
+        <v>44717</v>
+      </c>
+      <c r="F26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>1012</v>
+      </c>
+      <c r="B27" s="14">
+        <v>140</v>
+      </c>
+      <c r="C27" s="14">
+        <v>83</v>
+      </c>
+      <c r="D27" s="17">
+        <v>44715</v>
+      </c>
+      <c r="E27" s="17">
+        <v>44717</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>75</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3885843652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>56</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1154336639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>83</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="22">
+        <v>3571596545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B39" s="26">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B40" s="26">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B41" s="26">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <v>1011</v>
+      </c>
+      <c r="B42" s="26">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>1011</v>
+      </c>
+      <c r="B43" s="26">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>1012</v>
+      </c>
+      <c r="B44" s="28">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>253</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="14">
+        <v>4069</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="14">
+        <v>61967</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>258</v>
+      </c>
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="14">
+        <v>4401</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="14">
+        <v>11962</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="23">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>546</v>
+      </c>
+      <c r="B51" s="14">
+        <v>3</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="14">
+        <v>4319</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" s="14">
+        <v>11962</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>741</v>
+      </c>
+      <c r="B52" s="14">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="14">
+        <v>4193</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" s="14">
+        <v>71962</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>852</v>
+      </c>
+      <c r="B53" s="14">
+        <v>2</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="14">
+        <v>4444</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="14">
+        <v>71962</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>963</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="14">
+        <v>4335</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" s="14">
+        <v>31955</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I54" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <v>61967</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="25">
+        <v>24643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>11962</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="24">
+        <v>22961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>71962</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="24">
+        <v>22830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>31955</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="31">
+        <v>20167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>1010</v>
+      </c>
+      <c r="B70" s="14">
+        <v>101</v>
+      </c>
+      <c r="C70" s="14">
+        <v>75</v>
+      </c>
+      <c r="D70" s="17">
+        <v>44713</v>
+      </c>
+      <c r="E70" s="17">
+        <v>44715</v>
+      </c>
+      <c r="F70" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>1011</v>
+      </c>
+      <c r="B71" s="14">
+        <v>195</v>
+      </c>
+      <c r="C71" s="14">
+        <v>56</v>
+      </c>
+      <c r="D71" s="17">
+        <v>44715</v>
+      </c>
+      <c r="E71" s="17">
+        <v>44717</v>
+      </c>
+      <c r="F71" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>1012</v>
+      </c>
+      <c r="B72" s="14">
+        <v>140</v>
+      </c>
+      <c r="C72" s="14">
+        <v>83</v>
+      </c>
+      <c r="D72" s="17">
+        <v>44715</v>
+      </c>
+      <c r="E72" s="17">
+        <v>44717</v>
+      </c>
+      <c r="F72" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
+        <v>75</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="20">
+        <v>3885843652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>56</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="16">
+        <v>1154336639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <v>83</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="32">
+        <v>3571596545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B84" s="26">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B85" s="26">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>1010</v>
+      </c>
+      <c r="B86" s="26">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>1011</v>
+      </c>
+      <c r="B87" s="26">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <v>1011</v>
+      </c>
+      <c r="B88" s="26">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="28">
+        <v>1012</v>
+      </c>
+      <c r="B89" s="28">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>253</v>
+      </c>
+      <c r="B94" s="14">
+        <v>1</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="14">
+        <v>4069</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>258</v>
+      </c>
+      <c r="B95" s="14">
+        <v>1</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="14">
+        <v>4401</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" s="23">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>546</v>
+      </c>
+      <c r="B96" s="14">
+        <v>3</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="14">
+        <v>4319</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>741</v>
+      </c>
+      <c r="B97" s="14">
+        <v>1</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="14">
+        <v>4193</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F97" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>852</v>
+      </c>
+      <c r="B98" s="14">
+        <v>2</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" s="14">
+        <v>4444</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>963</v>
+      </c>
+      <c r="B99" s="14">
+        <v>1</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="14">
+        <v>4335</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>4069</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" s="14">
+        <v>61967</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
+        <v>4401</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="14">
+        <v>11962</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>4319</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="14">
+        <v>11962</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>4193</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="14">
+        <v>71962</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>4444</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="14">
+        <v>71962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>4335</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="14">
+        <v>31955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="19">
+        <v>61967</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="25">
+        <v>24643</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>11962</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="24">
+        <v>22961</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>71962</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="24">
+        <v>22830</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="30">
+        <v>31955</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="31">
+        <v>20167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="12">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
+++ b/[Base de Datos]/Itinerario 09/EJERCICIOS DE NORMALIZACION (Desarrollo).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId3"/>
     <sheet name="Temporal" sheetId="3" r:id="rId4"/>
     <sheet name="EJERCICIO 4" sheetId="5" r:id="rId5"/>
+    <sheet name="EJERCICIO5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="DATOS_PERSONAS">TABLA_PERSONAS[[#All],[NOMBRE]:[TELÉFONO]]</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="272">
   <si>
     <t xml:space="preserve">La llave primaria es Número de Factura de venta: NUM_FAC </t>
   </si>
@@ -754,6 +755,102 @@
   </si>
   <si>
     <t>PELICULAS</t>
+  </si>
+  <si>
+    <t>Colegio</t>
+  </si>
+  <si>
+    <t>Profesor</t>
+  </si>
+  <si>
+    <t>Asignatura/ habilidad</t>
+  </si>
+  <si>
+    <t>Aula</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Fecha_prestamo</t>
+  </si>
+  <si>
+    <t>C.P Cervantes</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>Pensamiento Lógico</t>
+  </si>
+  <si>
+    <t>1.A01</t>
+  </si>
+  <si>
+    <t>1er Grado</t>
+  </si>
+  <si>
+    <t>Graó</t>
+  </si>
+  <si>
+    <t>Escritura</t>
+  </si>
+  <si>
+    <t>Pensamiento Numérico</t>
+  </si>
+  <si>
+    <t>Alicia García</t>
+  </si>
+  <si>
+    <t>1.B01</t>
+  </si>
+  <si>
+    <t>Educación Infantil N9</t>
+  </si>
+  <si>
+    <t>Prentice Hall</t>
+  </si>
+  <si>
+    <t>Andrés Fernández</t>
+  </si>
+  <si>
+    <t>2do Grado</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>Temas de Hoy</t>
+  </si>
+  <si>
+    <t>C.P Quevedo</t>
+  </si>
+  <si>
+    <t>Juan Méndez</t>
+  </si>
+  <si>
+    <t>2.B01</t>
+  </si>
+  <si>
+    <t>Aprender y enseñar en educación infantil</t>
+  </si>
+  <si>
+    <t>Preescolar Rubio, N56</t>
+  </si>
+  <si>
+    <t>Técnicas Rubio</t>
+  </si>
+  <si>
+    <t>Pensamiento Espacial, Temporal y Causal</t>
+  </si>
+  <si>
+    <t>Saber educar: guía para Padres y Profesores</t>
   </si>
 </sst>
 </file>
@@ -766,9 +863,9 @@
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +912,19 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -836,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -864,12 +974,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -894,21 +1059,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="194">
+  <dxfs count="206">
     <dxf>
       <font>
         <b val="0"/>
@@ -920,12 +1110,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -938,11 +1138,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -955,18 +1166,280 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
+        <bottom style="medium">
+          <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -979,6 +1452,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1224,13 +1704,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1266,6 +1739,13 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1287,30 +1767,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1323,186 +1779,186 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1515,8 +1971,32 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1559,59 +2039,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1625,7 +2052,11 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1635,10 +2066,27 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1648,6 +2096,12 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1700,6 +2154,32 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1885,6 +2365,84 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1899,6 +2457,84 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="11" formatCode="&quot;$&quot;\ #,##0.00;\-&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
@@ -1913,6 +2549,7 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1926,6 +2563,7 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1952,6 +2590,7 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     </dxf>
     <dxf>
       <font>
@@ -1978,165 +2617,6 @@
         <name val="JetBrains Mono"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-#####;\(###\)\ ###\-####"/>
     </dxf>
     <dxf>
       <font>
@@ -3505,21 +3985,21 @@
     <sortCondition ref="B3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="193">
+    <tableColumn id="1" name="ID" dataDxfId="205">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="NOMBRE"/>
     <tableColumn id="3" name="SEXO"/>
-    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="192">
+    <tableColumn id="4" name="DIRECCIÓN" dataDxfId="204">
       <calculatedColumnFormula>I2&amp;" "&amp;RANDBETWEEN(100,1000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="DNI" dataDxfId="191">
+    <tableColumn id="5" name="DNI" dataDxfId="203">
       <calculatedColumnFormula>RANDBETWEEN(10000000,40000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD" dataDxfId="190">
+    <tableColumn id="6" name="CIUDAD" dataDxfId="202">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELÉFONO" dataDxfId="189">
+    <tableColumn id="7" name="TELÉFONO" dataDxfId="201">
       <calculatedColumnFormula>RANDBETWEEN(2214000000,3886999999)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3528,145 +4008,145 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla471011" displayName="Tabla471011" ref="B151:E171" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla471011" displayName="Tabla471011" ref="B151:E171" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <tableColumns count="4">
-    <tableColumn id="10" name="COD_PROD" dataDxfId="122"/>
-    <tableColumn id="11" name="DESCRIPCION" dataDxfId="121"/>
-    <tableColumn id="12" name="CATEGORIA" dataDxfId="120"/>
-    <tableColumn id="14" name="VAL_UNIT" dataDxfId="119"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="134"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="133"/>
+    <tableColumn id="12" name="CATEGORIA" dataDxfId="132"/>
+    <tableColumn id="14" name="VAL_UNIT" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla46812" displayName="Tabla46812" ref="B177:D187" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla46812" displayName="Tabla46812" ref="B177:D187" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <sortState ref="B171:D180">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="116"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="115"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="114"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="128"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="127"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla468913" displayName="Tabla468913" ref="B190:F196" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla468913" displayName="Tabla468913" ref="B190:F196" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <sortState ref="B183:F188">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="111"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="110"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="109"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="108"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="107"/>
+    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="123"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="122"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="121"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="120"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla471014" displayName="Tabla471014" ref="B199:D219" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla471014" displayName="Tabla471014" ref="B199:D219" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <sortState ref="B191:C210">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="104"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="103"/>
-    <tableColumn id="13" name="CANT_PROD" dataDxfId="102"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="116"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="115"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla47101115" displayName="Tabla47101115" ref="B222:C242" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla47101115" displayName="Tabla47101115" ref="B222:C242" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <tableColumns count="2">
-    <tableColumn id="10" name="COD_PROD" dataDxfId="99"/>
-    <tableColumn id="14" name="VAL_UNIT" dataDxfId="98"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="111"/>
+    <tableColumn id="14" name="VAL_UNIT" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla4710111516" displayName="Tabla4710111516" ref="B245:D265" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla4710111516" displayName="Tabla4710111516" ref="B245:D265" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="3">
-    <tableColumn id="10" name="COD_PROD" dataDxfId="95"/>
-    <tableColumn id="11" name="DESCRIPCION" dataDxfId="94"/>
-    <tableColumn id="12" name="CATEGORIA" dataDxfId="93"/>
+    <tableColumn id="10" name="COD_PROD" dataDxfId="107"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="106"/>
+    <tableColumn id="12" name="CATEGORIA" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A2:K8" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A2:K8" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <tableColumns count="11">
-    <tableColumn id="1" name="cod_alquiler" dataDxfId="92"/>
-    <tableColumn id="2" name=" num_membresia" dataDxfId="91"/>
-    <tableColumn id="3" name=" cod_cliente" dataDxfId="90"/>
-    <tableColumn id="4" name=" nom_cliente" dataDxfId="89"/>
-    <tableColumn id="5" name=" dir_cliente" dataDxfId="88"/>
-    <tableColumn id="6" name=" telef_cliente" dataDxfId="87"/>
-    <tableColumn id="7" name=" cod_cassette" dataDxfId="86"/>
-    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="85"/>
-    <tableColumn id="9" name=" fecha_dev" dataDxfId="84"/>
-    <tableColumn id="10" name=" valor_alquiler" dataDxfId="69" dataCellStyle="Moneda"/>
-    <tableColumn id="11" name=" cantidad" dataDxfId="83"/>
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="102"/>
+    <tableColumn id="2" name=" num_membresia" dataDxfId="101"/>
+    <tableColumn id="3" name=" cod_cliente" dataDxfId="100"/>
+    <tableColumn id="4" name=" nom_cliente" dataDxfId="99"/>
+    <tableColumn id="5" name=" dir_cliente" dataDxfId="98"/>
+    <tableColumn id="6" name=" telef_cliente" dataDxfId="97"/>
+    <tableColumn id="7" name=" cod_cassette" dataDxfId="96"/>
+    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="95"/>
+    <tableColumn id="9" name=" fecha_dev" dataDxfId="94"/>
+    <tableColumn id="10" name=" valor_alquiler" dataDxfId="93" dataCellStyle="Moneda"/>
+    <tableColumn id="11" name=" cantidad" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="A12:J18" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="A12:J18" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <tableColumns count="10">
-    <tableColumn id="1" name="cod_cassette" dataDxfId="80"/>
-    <tableColumn id="2" name=" num_copias" dataDxfId="79"/>
-    <tableColumn id="3" name=" formato" dataDxfId="78"/>
-    <tableColumn id="4" name=" cod_pelicula" dataDxfId="68"/>
-    <tableColumn id="5" name=" titulo" dataDxfId="77"/>
-    <tableColumn id="6" name=" categoría" dataDxfId="76"/>
-    <tableColumn id="7" name=" cod_actor" dataDxfId="75"/>
-    <tableColumn id="8" name=" nom_actor" dataDxfId="74"/>
-    <tableColumn id="9" name=" fechanac_actor" dataDxfId="73"/>
-    <tableColumn id="10" name=" cod_tipo" dataDxfId="72"/>
+    <tableColumn id="1" name="cod_cassette" dataDxfId="89"/>
+    <tableColumn id="2" name=" num_copias" dataDxfId="88"/>
+    <tableColumn id="3" name=" formato" dataDxfId="87"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="86"/>
+    <tableColumn id="5" name=" titulo" dataDxfId="85"/>
+    <tableColumn id="6" name=" categoría" dataDxfId="84"/>
+    <tableColumn id="7" name=" cod_actor" dataDxfId="83"/>
+    <tableColumn id="8" name=" nom_actor" dataDxfId="82"/>
+    <tableColumn id="9" name=" fechanac_actor" dataDxfId="81"/>
+    <tableColumn id="10" name=" cod_tipo" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla1619" displayName="Tabla1619" ref="A24:F27" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla1619" displayName="Tabla1619" ref="A24:F27" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <tableColumns count="6">
-    <tableColumn id="1" name="cod_alquiler" dataDxfId="65"/>
-    <tableColumn id="2" name=" num_membresia" dataDxfId="64"/>
-    <tableColumn id="3" name=" cod_cliente" dataDxfId="63"/>
-    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="62"/>
-    <tableColumn id="9" name=" fecha_dev" dataDxfId="61"/>
-    <tableColumn id="11" name=" cantidad" dataDxfId="60"/>
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="77"/>
+    <tableColumn id="2" name=" num_membresia" dataDxfId="76"/>
+    <tableColumn id="3" name=" cod_cliente" dataDxfId="75"/>
+    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="74"/>
+    <tableColumn id="9" name=" fecha_dev" dataDxfId="73"/>
+    <tableColumn id="11" name=" cantidad" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla1720" displayName="Tabla1720" ref="A48:I54" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla1720" displayName="Tabla1720" ref="A48:I54" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <tableColumns count="9">
-    <tableColumn id="1" name="cod_cassette" dataDxfId="57"/>
-    <tableColumn id="2" name=" num_copias" dataDxfId="56"/>
-    <tableColumn id="3" name=" formato" dataDxfId="55"/>
-    <tableColumn id="4" name=" cod_pelicula" dataDxfId="54"/>
-    <tableColumn id="5" name=" titulo" dataDxfId="53"/>
-    <tableColumn id="6" name=" categoría" dataDxfId="52"/>
-    <tableColumn id="7" name=" cod_actor" dataDxfId="51"/>
-    <tableColumn id="10" name=" cod_tipo" dataDxfId="50"/>
-    <tableColumn id="11" name=" valor_alquiler" dataDxfId="49"/>
+    <tableColumn id="1" name="cod_cassette" dataDxfId="69"/>
+    <tableColumn id="2" name=" num_copias" dataDxfId="68"/>
+    <tableColumn id="3" name=" formato" dataDxfId="67"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="66"/>
+    <tableColumn id="5" name=" titulo" dataDxfId="65"/>
+    <tableColumn id="6" name=" categoría" dataDxfId="64"/>
+    <tableColumn id="7" name=" cod_actor" dataDxfId="63"/>
+    <tableColumn id="10" name=" cod_tipo" dataDxfId="62"/>
+    <tableColumn id="11" name=" valor_alquiler" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3676,7 +4156,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TABLA_PRODUCTOS" displayName="TABLA_PRODUCTOS" ref="A1:H19" totalsRowShown="0">
   <autoFilter ref="A1:H19"/>
   <tableColumns count="8">
-    <tableColumn id="7" name="ID" dataDxfId="188">
+    <tableColumn id="7" name="ID" dataDxfId="200">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" name="PRODUCTO"/>
@@ -3685,7 +4165,7 @@
     <tableColumn id="4" name="CANTIDAD"/>
     <tableColumn id="5" name="UNIDAD"/>
     <tableColumn id="6" name="PRECIO UNITARIO"/>
-    <tableColumn id="8" name="CÓDIGO" dataDxfId="187">
+    <tableColumn id="8" name="CÓDIGO" dataDxfId="199">
       <calculatedColumnFormula>TABLA_PRODUCTOS[[#This Row],[ID]]+100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3694,42 +4174,42 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="A38:B44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="44" headerRowBorderDxfId="47" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="A38:B44" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
   <tableColumns count="2">
-    <tableColumn id="1" name="cod_alquiler" dataDxfId="46"/>
-    <tableColumn id="2" name=" cod_cassette" dataDxfId="45"/>
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="56"/>
+    <tableColumn id="2" name=" cod_cassette" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla21" displayName="Tabla21" ref="A58:C62" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="41" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla21" displayName="Tabla21" ref="A58:C62" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <tableColumns count="3">
-    <tableColumn id="1" name=" cod_actor" dataDxfId="40"/>
-    <tableColumn id="2" name=" nom_actor" dataDxfId="39"/>
-    <tableColumn id="3" name=" fechanac_actor" dataDxfId="38"/>
+    <tableColumn id="1" name=" cod_actor" dataDxfId="51"/>
+    <tableColumn id="2" name=" nom_actor" dataDxfId="50"/>
+    <tableColumn id="3" name=" fechanac_actor" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla161923" displayName="Tabla161923" ref="A69:F72" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla161923" displayName="Tabla161923" ref="A69:F72" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <tableColumns count="6">
-    <tableColumn id="1" name="cod_alquiler" dataDxfId="34"/>
-    <tableColumn id="2" name=" num_membresia" dataDxfId="33"/>
-    <tableColumn id="3" name=" cod_cliente" dataDxfId="32"/>
-    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="31"/>
-    <tableColumn id="9" name=" fecha_dev" dataDxfId="30"/>
-    <tableColumn id="11" name=" cantidad" dataDxfId="29"/>
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="46"/>
+    <tableColumn id="2" name=" num_membresia" dataDxfId="45"/>
+    <tableColumn id="3" name=" cod_cliente" dataDxfId="44"/>
+    <tableColumn id="8" name=" fecha_alquiler" dataDxfId="43"/>
+    <tableColumn id="9" name=" fecha_dev" dataDxfId="42"/>
+    <tableColumn id="11" name=" cantidad" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla23" displayName="Tabla23" ref="A76:D79" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla23" displayName="Tabla23" ref="A76:D79" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <tableColumns count="4">
     <tableColumn id="1" name=" cod_cliente"/>
     <tableColumn id="2" name=" nom_cliente"/>
@@ -3741,89 +4221,109 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla2025" displayName="Tabla2025" ref="A83:B89" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla2025" displayName="Tabla2025" ref="A83:B89" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <tableColumns count="2">
-    <tableColumn id="1" name="cod_alquiler" dataDxfId="21"/>
-    <tableColumn id="2" name=" cod_cassette" dataDxfId="20"/>
+    <tableColumn id="1" name="cod_alquiler" dataDxfId="33"/>
+    <tableColumn id="2" name=" cod_cassette" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla172026" displayName="Tabla172026" ref="A93:F99" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla172026" displayName="Tabla172026" ref="A93:F99" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="6">
-    <tableColumn id="1" name="cod_cassette" dataDxfId="17"/>
-    <tableColumn id="2" name=" num_copias" dataDxfId="16"/>
-    <tableColumn id="3" name=" formato" dataDxfId="15"/>
-    <tableColumn id="4" name=" cod_pelicula" dataDxfId="14"/>
-    <tableColumn id="10" name=" cod_tipo" dataDxfId="13"/>
-    <tableColumn id="11" name=" valor_alquiler" dataDxfId="12"/>
+    <tableColumn id="1" name="cod_cassette" dataDxfId="29"/>
+    <tableColumn id="2" name=" num_copias" dataDxfId="28"/>
+    <tableColumn id="3" name=" formato" dataDxfId="27"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="26"/>
+    <tableColumn id="10" name=" cod_tipo" dataDxfId="25"/>
+    <tableColumn id="11" name=" valor_alquiler" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla17202627" displayName="Tabla17202627" ref="A103:D109" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla17202627" displayName="Tabla17202627" ref="A103:D109" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="4">
-    <tableColumn id="4" name=" cod_pelicula" dataDxfId="9"/>
-    <tableColumn id="5" name=" titulo" dataDxfId="8"/>
-    <tableColumn id="6" name=" categoría" dataDxfId="7"/>
-    <tableColumn id="7" name=" cod_actor" dataDxfId="6"/>
+    <tableColumn id="4" name=" cod_pelicula" dataDxfId="21"/>
+    <tableColumn id="5" name=" titulo" dataDxfId="20"/>
+    <tableColumn id="6" name=" categoría" dataDxfId="19"/>
+    <tableColumn id="7" name=" cod_actor" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla2128" displayName="Tabla2128" ref="A113:C117" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla2128" displayName="Tabla2128" ref="A113:C117" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <tableColumns count="3">
-    <tableColumn id="1" name=" cod_actor" dataDxfId="2"/>
-    <tableColumn id="2" name=" nom_actor" dataDxfId="1"/>
-    <tableColumn id="3" name=" fechanac_actor" dataDxfId="0"/>
+    <tableColumn id="1" name=" cod_actor" dataDxfId="14"/>
+    <tableColumn id="2" name=" nom_actor" dataDxfId="13"/>
+    <tableColumn id="3" name=" fechanac_actor" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla28" displayName="Tabla28" ref="A1:H10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:H10"/>
+  <sortState ref="A2:H10">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Colegio" dataDxfId="9"/>
+    <tableColumn id="2" name="Profesor" dataDxfId="5"/>
+    <tableColumn id="3" name="Asignatura/ habilidad" dataDxfId="3"/>
+    <tableColumn id="4" name="Aula" dataDxfId="4"/>
+    <tableColumn id="5" name="Curso" dataDxfId="2"/>
+    <tableColumn id="6" name="Libro" dataDxfId="0"/>
+    <tableColumn id="7" name="Editorial" dataDxfId="1"/>
+    <tableColumn id="8" name="Fecha_prestamo" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B17:M37" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
   <tableColumns count="12">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="184">
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="196">
       <calculatedColumnFormula>RANDBETWEEN(1000,9999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="183">
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="195">
       <calculatedColumnFormula>RANDBETWEEN(35000,45000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="182">
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="194">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="181">
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="193">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="180">
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="192">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="179">
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="191">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="178">
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="190">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="CATEGORIA" dataDxfId="177">
+    <tableColumn id="8" name="CATEGORIA" dataDxfId="189">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="176">
+    <tableColumn id="9" name="COD_PROD" dataDxfId="188">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DESCRIPCION" dataDxfId="175">
+    <tableColumn id="10" name="DESCRIPCION" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="VAL_UNIT" dataDxfId="174">
+    <tableColumn id="11" name="VAL_UNIT" dataDxfId="186">
       <calculatedColumnFormula>ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CANT_PROD" dataDxfId="173">
+    <tableColumn id="12" name="CANT_PROD" dataDxfId="185">
       <calculatedColumnFormula>VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3832,102 +4332,102 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B41:M61" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
   <sortState ref="B42:M61">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="170"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="169"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="168"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="167"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="166"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="165"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="164"/>
-    <tableColumn id="8" name="CATEGORIA" dataDxfId="163"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="162"/>
-    <tableColumn id="10" name="DESCRIPCION" dataDxfId="161"/>
-    <tableColumn id="11" name="VAL_UNIT" dataDxfId="160"/>
-    <tableColumn id="12" name="CANT_PROD" dataDxfId="159"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="182"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="181"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="180"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="179"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="178"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="177"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="176"/>
+    <tableColumn id="8" name="CATEGORIA" dataDxfId="175"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="174"/>
+    <tableColumn id="10" name="DESCRIPCION" dataDxfId="173"/>
+    <tableColumn id="11" name="VAL_UNIT" dataDxfId="172"/>
+    <tableColumn id="12" name="CANT_PROD" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla46" displayName="Tabla46" ref="B67:H77" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla46" displayName="Tabla46" ref="B67:H77" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
   <sortState ref="B67:H76">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="156"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="155"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="154"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="153"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="152"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="151"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="150"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="168"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="167"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="166"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="165"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="164"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="163"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla47" displayName="Tabla47" ref="B80:G100" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla47" displayName="Tabla47" ref="B80:G100" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <sortState ref="B79:F98">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="147"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="146"/>
-    <tableColumn id="10" name="CATEGORIA" dataDxfId="145"/>
-    <tableColumn id="11" name="DESCRIPCION" dataDxfId="144"/>
-    <tableColumn id="12" name="VAL_UNIT" dataDxfId="143"/>
-    <tableColumn id="13" name="CANT_PROD" dataDxfId="142"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="159"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="158"/>
+    <tableColumn id="10" name="CATEGORIA" dataDxfId="157"/>
+    <tableColumn id="11" name="DESCRIPCION" dataDxfId="156"/>
+    <tableColumn id="12" name="VAL_UNIT" dataDxfId="155"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla468" displayName="Tabla468" ref="B106:D116" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla468" displayName="Tabla468" ref="B106:D116" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152">
   <sortState ref="B104:D113">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="139"/>
-    <tableColumn id="2" name="FECHA_FAC" dataDxfId="138"/>
-    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="137"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="151"/>
+    <tableColumn id="2" name="FECHA_FAC" dataDxfId="150"/>
+    <tableColumn id="5" name="RIF_CLIENTE" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla4689" displayName="Tabla4689" ref="B119:F125" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla4689" displayName="Tabla4689" ref="B119:F125" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
   <sortState ref="B116:F121">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="134"/>
-    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="133"/>
-    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="132"/>
-    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="131"/>
-    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="130"/>
+    <tableColumn id="1" name="RIF_CLIENTE" dataDxfId="146"/>
+    <tableColumn id="3" name="NOM_CLIENTE" dataDxfId="145"/>
+    <tableColumn id="4" name="DIR_CLIENTE" dataDxfId="144"/>
+    <tableColumn id="6" name="CIUDAD_CLIENTE" dataDxfId="143"/>
+    <tableColumn id="7" name="TELEF_CLIENTE" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla4710" displayName="Tabla4710" ref="B128:D148" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla4710" displayName="Tabla4710" ref="B128:D148" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <sortState ref="B124:C143">
     <sortCondition ref="B42:B61"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="NUM_FAC" dataDxfId="127"/>
-    <tableColumn id="9" name="COD_PROD" dataDxfId="126"/>
-    <tableColumn id="13" name="CANT_PROD" dataDxfId="125"/>
+    <tableColumn id="1" name="NUM_FAC" dataDxfId="139"/>
+    <tableColumn id="9" name="COD_PROD" dataDxfId="138"/>
+    <tableColumn id="13" name="CANT_PROD" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4283,11 +4783,11 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D21" ca="1" si="1">I2&amp;" "&amp;RANDBETWEEN(100,1000)</f>
-        <v>Avenida Alte G Brown 700</v>
+        <v>Avenida Alte G Brown 140</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E21" ca="1" si="2">RANDBETWEEN(10000000,40000000)</f>
-        <v>36520320</v>
+        <v>23939976</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F21" si="3">J2</f>
@@ -4295,7 +4795,7 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G21" ca="1" si="4">RANDBETWEEN(2214000000,3886999999)</f>
-        <v>2377615591</v>
+        <v>3293269277</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -4326,11 +4826,11 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Altrado Storni 631</v>
+        <v>Calle Altrado Storni 702</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27269141</v>
+        <v>32816318</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="3"/>
@@ -4338,7 +4838,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3260321974</v>
+        <v>3356158220</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -4369,11 +4869,11 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Condarco 251</v>
+        <v>Calle Alvarez Condarco 529</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22214881</v>
+        <v>36855866</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -4381,7 +4881,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3129856764</v>
+        <v>3686668259</v>
       </c>
       <c r="I4" t="s">
         <v>56</v>
@@ -4412,11 +4912,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Alvarez Prado 342</v>
+        <v>Calle Alvarez Prado 451</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39171257</v>
+        <v>24199326</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -4424,7 +4924,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2375897442</v>
+        <v>2295858719</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -4455,11 +4955,11 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Amancay 311</v>
+        <v>Calle Amancay 233</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35532293</v>
+        <v>28529951</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -4467,7 +4967,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3328778297</v>
+        <v>2422168823</v>
       </c>
       <c r="I6" t="s">
         <v>58</v>
@@ -4498,11 +4998,11 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Ambrosetti 358</v>
+        <v>Calle Ambrosetti 709</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38779020</v>
+        <v>33057041</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -4510,7 +5010,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2968993390</v>
+        <v>3014216097</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
@@ -4541,11 +5041,11 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Anchorena 871</v>
+        <v>Calle Anchorena 378</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>30579398</v>
+        <v>26602128</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -4553,7 +5053,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2714460961</v>
+        <v>2537943782</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
@@ -4584,11 +5084,11 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andrea Zenarruza 928</v>
+        <v>Calle Andrea Zenarruza 140</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17510403</v>
+        <v>37282650</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
@@ -4596,7 +5096,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2586894342</v>
+        <v>2459270667</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
@@ -4627,11 +5127,11 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Andres Bello 136</v>
+        <v>Calle Andres Bello 366</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15190185</v>
+        <v>18469972</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
@@ -4639,7 +5139,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3018962418</v>
+        <v>3298618576</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -4670,11 +5170,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antartida Argentina 529</v>
+        <v>Calle Antartida Argentina 844</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24411239</v>
+        <v>30176558</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -4682,7 +5182,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3475608688</v>
+        <v>3798042282</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -4713,11 +5213,11 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Avenida Antenor Sajama 432</v>
+        <v>Avenida Antenor Sajama 469</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35427903</v>
+        <v>26578653</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -4725,7 +5225,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2320150941</v>
+        <v>2551973595</v>
       </c>
       <c r="I12" t="s">
         <v>64</v>
@@ -4756,11 +5256,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Forestieri 898</v>
+        <v>Calle Antonio Forestieri 395</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34234120</v>
+        <v>15476894</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
@@ -4768,7 +5268,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2953010781</v>
+        <v>3198261182</v>
       </c>
       <c r="I13" t="s">
         <v>65</v>
@@ -4799,11 +5299,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Garibaldi 882</v>
+        <v>Calle Antonio Garibaldi 989</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14391418</v>
+        <v>18278556</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -4811,7 +5311,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2516282926</v>
+        <v>2984674398</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -4842,11 +5342,11 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Antonio Marcon 800</v>
+        <v>Calle Antonio Marcon 558</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>31450494</v>
+        <v>20864805</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -4854,7 +5354,7 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3080234677</v>
+        <v>3273848916</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
@@ -4885,11 +5385,11 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenales 867</v>
+        <v>Calle Arenales 859</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21811238</v>
+        <v>32615471</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -4897,7 +5397,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3692337660</v>
+        <v>3580020475</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
@@ -4928,11 +5428,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arenas 403</v>
+        <v>Calle Arenas 917</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21929051</v>
+        <v>21246810</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -4940,7 +5440,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3278884048</v>
+        <v>3405592416</v>
       </c>
       <c r="I17" t="s">
         <v>69</v>
@@ -4971,11 +5471,11 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argañaraz 969</v>
+        <v>Calle Argañaraz 464</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22412030</v>
+        <v>19576163</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -4983,7 +5483,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2612852646</v>
+        <v>2916262433</v>
       </c>
       <c r="I18" t="s">
         <v>70</v>
@@ -5014,11 +5514,11 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Argerich 618</v>
+        <v>Calle Argerich 284</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33064913</v>
+        <v>20115022</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -5026,7 +5526,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3371771406</v>
+        <v>3620970630</v>
       </c>
       <c r="I19" t="s">
         <v>71</v>
@@ -5057,11 +5557,11 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Calle Arismendi 475</v>
+        <v>Calle Arismendi 709</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10589638</v>
+        <v>16907394</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -5069,7 +5569,7 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2301350549</v>
+        <v>2954187102</v>
       </c>
       <c r="I20" t="s">
         <v>72</v>
@@ -5100,11 +5600,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Pasaje Arrayanal 348</v>
+        <v>Pasaje Arrayanal 656</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11787485</v>
+        <v>22288697</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -5112,7 +5612,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3646012515</v>
+        <v>2748028149</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
@@ -5879,47 +6379,47 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" ref="B18:B37" ca="1" si="0">RANDBETWEEN(1000,9999)</f>
-        <v>1939</v>
+        <v>9577</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18:C31" ca="1" si="1">RANDBETWEEN(35000,45000)</f>
-        <v>38941</v>
+        <v>39310</v>
       </c>
       <c r="D18" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
+        <v>Nicolás</v>
       </c>
       <c r="E18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 631</v>
+        <v>Calle Antonio Forestieri 395</v>
       </c>
       <c r="F18" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>27269141</v>
+        <v>15476894</v>
       </c>
       <c r="G18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Córdoba</v>
+        <v>Merlo</v>
       </c>
       <c r="H18" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3260321974</v>
+        <v>3198261182</v>
       </c>
       <c r="I18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J18" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Pepino</v>
+        <v>Queso</v>
       </c>
       <c r="K18" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L18" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>229.23</v>
+        <v>1000</v>
       </c>
       <c r="M18" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -5927,111 +6427,111 @@
       </c>
       <c r="O18">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7949</v>
+        <v>8157</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40311</v>
+        <v>38157</v>
       </c>
       <c r="D19" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Catalina</v>
+        <v>María</v>
       </c>
       <c r="E19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Alvarez Condarco 251</v>
+        <v>Calle Andrea Zenarruza 140</v>
       </c>
       <c r="F19" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22214881</v>
+        <v>37282650</v>
       </c>
       <c r="G19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Rosario</v>
+        <v>Corrientes</v>
       </c>
       <c r="H19" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3129856764</v>
+        <v>2459270667</v>
       </c>
       <c r="I19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Carne</v>
       </c>
       <c r="J19" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Salmón</v>
+        <v>Ternera</v>
       </c>
       <c r="K19" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Mercado</v>
       </c>
       <c r="L19" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>899.9</v>
+        <v>799.8</v>
       </c>
       <c r="M19" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O19">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8345</v>
+        <v>6286</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39158</v>
+        <v>43553</v>
       </c>
       <c r="D20" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
+        <v>Tomás</v>
       </c>
       <c r="E20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 631</v>
+        <v>Calle Argerich 284</v>
       </c>
       <c r="F20" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>27269141</v>
+        <v>20115022</v>
       </c>
       <c r="G20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Córdoba</v>
+        <v>José C. Paz</v>
       </c>
       <c r="H20" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3260321974</v>
+        <v>3620970630</v>
       </c>
       <c r="I20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J20" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Yogur</v>
+        <v>Salmón</v>
       </c>
       <c r="K20" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Pescadería</v>
       </c>
       <c r="L20" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>499.5</v>
+        <v>899.9</v>
       </c>
       <c r="M20" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O20">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -6041,85 +6541,85 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2174</v>
+        <v>6840</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35975</v>
+        <v>43347</v>
       </c>
       <c r="D21" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
+        <v>Benjamín</v>
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 882</v>
+        <v>Calle Altrado Storni 702</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>14391418</v>
+        <v>32816318</v>
       </c>
       <c r="G21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
+        <v>Córdoba</v>
       </c>
       <c r="H21" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2516282926</v>
+        <v>3356158220</v>
       </c>
       <c r="I21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Carne</v>
+        <v>Lácteos</v>
       </c>
       <c r="J21" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Ternera</v>
+        <v>Queso</v>
       </c>
       <c r="K21" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L21" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>799.8</v>
+        <v>1000</v>
       </c>
       <c r="M21" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1254</v>
+        <v>7680</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39380</v>
+        <v>44162</v>
       </c>
       <c r="D22" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Sofía</v>
+        <v>Valentina</v>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arenas 403</v>
+        <v>Calle Arismendi 709</v>
       </c>
       <c r="F22" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>21929051</v>
+        <v>16907394</v>
       </c>
       <c r="G22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santiago del Estero</v>
+        <v>Paraná</v>
       </c>
       <c r="H22" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3278884048</v>
+        <v>2954187102</v>
       </c>
       <c r="I22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6127,7 +6627,7 @@
       </c>
       <c r="J22" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Salmón</v>
+        <v>Cangrejo</v>
       </c>
       <c r="K22" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -6135,11 +6635,11 @@
       </c>
       <c r="L22" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>899.9</v>
+        <v>1100.0999999999999</v>
       </c>
       <c r="M22" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O22">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -6149,51 +6649,51 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5217</v>
+        <v>1847</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43750</v>
+        <v>43683</v>
       </c>
       <c r="D23" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Lucía</v>
+        <v>Emilia</v>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Anchorena 871</v>
+        <v>Calle Amancay 233</v>
       </c>
       <c r="F23" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>30579398</v>
+        <v>28529951</v>
       </c>
       <c r="G23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santa Fe</v>
+        <v>San Miguel de Tucumán</v>
       </c>
       <c r="H23" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2714460961</v>
+        <v>2422168823</v>
       </c>
       <c r="I23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J23" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Requesón</v>
+        <v>Manzanas</v>
       </c>
       <c r="K23" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Huerto</v>
       </c>
       <c r="L23" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>389.39</v>
+        <v>199.2</v>
       </c>
       <c r="M23" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -6203,31 +6703,31 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2552</v>
+        <v>3142</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43453</v>
+        <v>36612</v>
       </c>
       <c r="D24" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Catalina</v>
+        <v>Valentina</v>
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Alvarez Condarco 251</v>
+        <v>Calle Arismendi 709</v>
       </c>
       <c r="F24" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22214881</v>
+        <v>16907394</v>
       </c>
       <c r="G24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Rosario</v>
+        <v>Paraná</v>
       </c>
       <c r="H24" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3129856764</v>
+        <v>2954187102</v>
       </c>
       <c r="I24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6235,269 +6735,269 @@
       </c>
       <c r="J24" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Apio</v>
+        <v>Tomates</v>
       </c>
       <c r="K24" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L24" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>199.2</v>
+        <v>349.34999999999997</v>
       </c>
       <c r="M24" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2729</v>
+        <v>5667</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39692</v>
+        <v>35738</v>
       </c>
       <c r="D25" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
+        <v>Elena</v>
       </c>
       <c r="E25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 882</v>
+        <v>Calle Alvarez Prado 451</v>
       </c>
       <c r="F25" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>14391418</v>
+        <v>24199326</v>
       </c>
       <c r="G25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
+        <v>Mar del Plata</v>
       </c>
       <c r="H25" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2516282926</v>
+        <v>2295858719</v>
       </c>
       <c r="I25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J25" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Pepino</v>
+        <v>Huevos</v>
       </c>
       <c r="K25" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L25" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>229.23</v>
+        <v>350.35</v>
       </c>
       <c r="M25" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9417</v>
+        <v>3662</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42601</v>
+        <v>40379</v>
       </c>
       <c r="D26" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Valentina</v>
+        <v>Elena</v>
       </c>
       <c r="E26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arismendi 475</v>
+        <v>Calle Alvarez Prado 451</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>10589638</v>
+        <v>24199326</v>
       </c>
       <c r="G26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Paraná</v>
+        <v>Mar del Plata</v>
       </c>
       <c r="H26" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2301350549</v>
+        <v>2295858719</v>
       </c>
       <c r="I26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Vegetales</v>
       </c>
       <c r="J26" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Cangrejo</v>
+        <v>Naranjas</v>
       </c>
       <c r="K26" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Artículos</v>
       </c>
       <c r="L26" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>1100.0999999999999</v>
+        <v>299.3</v>
       </c>
       <c r="M26" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O26">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7952</v>
+        <v>7752</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36596</v>
+        <v>40261</v>
       </c>
       <c r="D27" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Thiago</v>
+        <v>Sofía</v>
       </c>
       <c r="E27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argañaraz 969</v>
+        <v>Calle Arenas 917</v>
       </c>
       <c r="F27" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22412030</v>
+        <v>21246810</v>
       </c>
       <c r="G27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Gregorio de Laferrere</v>
+        <v>Santiago del Estero</v>
       </c>
       <c r="H27" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2612852646</v>
+        <v>3405592416</v>
       </c>
       <c r="I27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Marisco</v>
+        <v>Vegetales</v>
       </c>
       <c r="J27" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Salmón</v>
+        <v>Apio</v>
       </c>
       <c r="K27" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Pescadería</v>
+        <v>Artículos</v>
       </c>
       <c r="L27" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>899.9</v>
+        <v>199.2</v>
       </c>
       <c r="M27" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9667</v>
+        <v>3762</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35123</v>
+        <v>42470</v>
       </c>
       <c r="D28" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Matías</v>
+        <v>Tomás</v>
       </c>
       <c r="E28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Avenida Antenor Sajama 432</v>
+        <v>Calle Argerich 284</v>
       </c>
       <c r="F28" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>35427903</v>
+        <v>20115022</v>
       </c>
       <c r="G28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Posadas</v>
+        <v>José C. Paz</v>
       </c>
       <c r="H28" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2320150941</v>
+        <v>3620970630</v>
       </c>
       <c r="I28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Vegetales</v>
       </c>
       <c r="J28" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Huevos</v>
+        <v>Manzanas</v>
       </c>
       <c r="K28" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Huerto</v>
       </c>
       <c r="L28" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>350.35</v>
+        <v>199.2</v>
       </c>
       <c r="M28" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7271</v>
+        <v>2826</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38210</v>
+        <v>44322</v>
       </c>
       <c r="D29" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Paula</v>
+        <v>Benjamín</v>
       </c>
       <c r="E29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Garibaldi 882</v>
+        <v>Calle Altrado Storni 702</v>
       </c>
       <c r="F29" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>14391418</v>
+        <v>32816318</v>
       </c>
       <c r="G29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Quilmes</v>
+        <v>Córdoba</v>
       </c>
       <c r="H29" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2516282926</v>
+        <v>3356158220</v>
       </c>
       <c r="I29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6505,73 +7005,73 @@
       </c>
       <c r="J29" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Tomates</v>
+        <v>Setas</v>
       </c>
       <c r="K29" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Artículos</v>
       </c>
       <c r="L29" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>349.34999999999997</v>
+        <v>225.23</v>
       </c>
       <c r="M29" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="O29">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5439</v>
+        <v>1742</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>39773</v>
       </c>
       <c r="D30" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Mateo</v>
+        <v>Matías</v>
       </c>
       <c r="E30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antartida Argentina 529</v>
+        <v>Avenida Antenor Sajama 469</v>
       </c>
       <c r="F30" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24411239</v>
+        <v>26578653</v>
       </c>
       <c r="G30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Resistencia</v>
+        <v>Posadas</v>
       </c>
       <c r="H30" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3475608688</v>
+        <v>2551973595</v>
       </c>
       <c r="I30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Vegetales</v>
+        <v>Lácteos</v>
       </c>
       <c r="J30" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Setas</v>
+        <v>Crema agria</v>
       </c>
       <c r="K30" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Entrega a domicilio</v>
       </c>
       <c r="L30" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>225.23</v>
+        <v>299.3</v>
       </c>
       <c r="M30" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -6581,31 +7081,31 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9762</v>
+        <v>5111</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36301</v>
+        <v>37473</v>
       </c>
       <c r="D31" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Pedro</v>
+        <v>Zoe</v>
       </c>
       <c r="E31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antonio Marcon 800</v>
+        <v>Pasaje Arrayanal 656</v>
       </c>
       <c r="F31" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>31450494</v>
+        <v>22288697</v>
       </c>
       <c r="G31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>San Salvador de Jujuy</v>
+        <v>Banfield</v>
       </c>
       <c r="H31" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3080234677</v>
+        <v>2748028149</v>
       </c>
       <c r="I31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6613,15 +7113,15 @@
       </c>
       <c r="J31" s="4" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Naranjas</v>
+        <v>Calabaza</v>
       </c>
       <c r="K31" s="4" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L31" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>150.15</v>
       </c>
       <c r="M31" s="4">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -6635,51 +7135,51 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5734</v>
+        <v>4608</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" ref="C32:C37" ca="1" si="2">RANDBETWEEN(35000,45000)</f>
-        <v>40971</v>
+        <v>40404</v>
       </c>
       <c r="D32" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Sofía</v>
+        <v>Tomás</v>
       </c>
       <c r="E32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arenas 403</v>
+        <v>Calle Argerich 284</v>
       </c>
       <c r="F32" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>21929051</v>
+        <v>20115022</v>
       </c>
       <c r="G32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santiago del Estero</v>
+        <v>José C. Paz</v>
       </c>
       <c r="H32" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3278884048</v>
+        <v>3620970630</v>
       </c>
       <c r="I32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Lácteos</v>
+        <v>Marisco</v>
       </c>
       <c r="J32" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Requesón</v>
+        <v>Cangrejo</v>
       </c>
       <c r="K32" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Entrega a domicilio</v>
+        <v>Pescadería</v>
       </c>
       <c r="L32" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>389.39</v>
+        <v>1100.0999999999999</v>
       </c>
       <c r="M32" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
@@ -6689,31 +7189,31 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3351</v>
+        <v>2111</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>42296</v>
+        <v>44465</v>
       </c>
       <c r="D33" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Mateo</v>
+        <v>Valentina</v>
       </c>
       <c r="E33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Antartida Argentina 529</v>
+        <v>Calle Arismendi 709</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>24411239</v>
+        <v>16907394</v>
       </c>
       <c r="G33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Resistencia</v>
+        <v>Paraná</v>
       </c>
       <c r="H33" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3475608688</v>
+        <v>2954187102</v>
       </c>
       <c r="I33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6721,53 +7221,53 @@
       </c>
       <c r="J33" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Naranjas</v>
+        <v>Tomates</v>
       </c>
       <c r="K33" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Artículos</v>
+        <v>Mercado</v>
       </c>
       <c r="L33" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>349.34999999999997</v>
       </c>
       <c r="M33" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O33">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4106</v>
+        <v>1517</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>37045</v>
+        <v>37903</v>
       </c>
       <c r="D34" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Benjamín</v>
+        <v>Elena</v>
       </c>
       <c r="E34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Altrado Storni 631</v>
+        <v>Calle Alvarez Prado 451</v>
       </c>
       <c r="F34" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>27269141</v>
+        <v>24199326</v>
       </c>
       <c r="G34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Córdoba</v>
+        <v>Mar del Plata</v>
       </c>
       <c r="H34" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3260321974</v>
+        <v>2295858719</v>
       </c>
       <c r="I34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6775,7 +7275,7 @@
       </c>
       <c r="J34" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Crema agria</v>
+        <v>Queso</v>
       </c>
       <c r="K34" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -6783,7 +7283,7 @@
       </c>
       <c r="L34" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>1000</v>
       </c>
       <c r="M34" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -6791,37 +7291,37 @@
       </c>
       <c r="O34">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1227</v>
+        <v>1376</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>38053</v>
+        <v>37182</v>
       </c>
       <c r="D35" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Thiago</v>
+        <v>Elena</v>
       </c>
       <c r="E35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argañaraz 969</v>
+        <v>Calle Alvarez Prado 451</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22412030</v>
+        <v>24199326</v>
       </c>
       <c r="G35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Gregorio de Laferrere</v>
+        <v>Mar del Plata</v>
       </c>
       <c r="H35" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2612852646</v>
+        <v>2295858719</v>
       </c>
       <c r="I35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6829,7 +7329,7 @@
       </c>
       <c r="J35" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Lechuga</v>
+        <v>Pepino</v>
       </c>
       <c r="K35" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -6841,95 +7341,95 @@
       </c>
       <c r="M35" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7943</v>
+        <v>7232</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>42102</v>
+        <v>44713</v>
       </c>
       <c r="D36" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Sofía</v>
+        <v>Santiago</v>
       </c>
       <c r="E36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Arenas 403</v>
+        <v>Avenida Alte G Brown 140</v>
       </c>
       <c r="F36" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>21929051</v>
+        <v>23939976</v>
       </c>
       <c r="G36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Santiago del Estero</v>
+        <v>Buenos Aires</v>
       </c>
       <c r="H36" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>3278884048</v>
+        <v>3293269277</v>
       </c>
       <c r="I36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
-        <v>Carne</v>
+        <v>Vegetales</v>
       </c>
       <c r="J36" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Ternera</v>
+        <v>Setas</v>
       </c>
       <c r="K36" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
-        <v>Mercado</v>
+        <v>Artículos</v>
       </c>
       <c r="L36" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>799.8</v>
+        <v>225.23</v>
       </c>
       <c r="M36" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="O36">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1119</v>
+        <v>5624</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>38435</v>
+        <v>36891</v>
       </c>
       <c r="D37" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,20),TABLA_PERSONAS[],2,FALSE)</f>
-        <v>Thiago</v>
+        <v>Matías</v>
       </c>
       <c r="E37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,3,FALSE)</f>
-        <v>Calle Argañaraz 969</v>
+        <v>Avenida Antenor Sajama 469</v>
       </c>
       <c r="F37" s="7">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,4,FALSE)</f>
-        <v>22412030</v>
+        <v>26578653</v>
       </c>
       <c r="G37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,5,FALSE)</f>
-        <v>Gregorio de Laferrere</v>
+        <v>Posadas</v>
       </c>
       <c r="H37" s="8">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[NOM_CLIENTE]],DATOS_PERSONAS,6,FALSE)</f>
-        <v>2612852646</v>
+        <v>2551973595</v>
       </c>
       <c r="I37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,3,FALSE)</f>
@@ -6937,7 +7437,7 @@
       </c>
       <c r="J37" s="10" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,18),TABLA_PRODUCTOS[],2,FALSE)</f>
-        <v>Naranjas</v>
+        <v>Apio</v>
       </c>
       <c r="K37" s="10" t="str">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,2,FALSE)</f>
@@ -6945,7 +7445,7 @@
       </c>
       <c r="L37" s="9">
         <f ca="1">ROUNDUP(VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,6,FALSE)*100.1,2)</f>
-        <v>299.3</v>
+        <v>199.2</v>
       </c>
       <c r="M37" s="10">
         <f ca="1">VLOOKUP(Tabla1[[#This Row],[COD_PROD]],DATOS_PRODUCTOS,4,FALSE)</f>
@@ -6953,7 +7453,7 @@
       </c>
       <c r="O37">
         <f ca="1">COUNTIF(Tabla1[NOM_CLIENTE],Tabla1[[#This Row],[NOM_CLIENTE]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -10410,7 +10910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -11924,4 +12424,293 @@
     <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="38">
+        <v>40430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="38">
+        <v>40303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="38">
+        <v>40303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="38">
+        <v>40304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="38">
+        <v>40430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="38">
+        <v>40530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="38">
+        <v>40303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="38">
+        <v>40304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="38">
+        <v>40304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>